--- a/BD/Insumos/FORMATO_OFERTAS_OIC_V4.xlsx
+++ b/BD/Insumos/FORMATO_OFERTAS_OIC_V4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.matiz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documentos\Trabajo_IGAC_2023\Repositorio_OIC_Ofertas_2\OIC\BD\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_12C6CD857C664E80B71C545E91E58EBA3DD938EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DAB9F9-67A2-46D3-9BCD-C66B859C0925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura_Datos" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,28 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estructura_Datos!$A$1:$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estructura_Datos!$A$1:$F$71</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="488">
   <si>
     <t>ID</t>
   </si>
@@ -1485,6 +1494,21 @@
   </si>
   <si>
     <t>wfcrillo@igac.gov.co</t>
+  </si>
+  <si>
+    <t>RELACION</t>
+  </si>
+  <si>
+    <t>Inmueble</t>
+  </si>
+  <si>
+    <t>Oferta</t>
+  </si>
+  <si>
+    <t>Domina</t>
+  </si>
+  <si>
+    <t>Perito</t>
   </si>
 </sst>
 </file>
@@ -1492,14 +1516,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1743,7 +1767,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1810,7 +1834,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1819,7 +1843,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,7 +1852,7 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1849,13 +1873,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +2003,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Dominios"/>
@@ -2254,23 +2278,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="216.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="5.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="216.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,1206 +2303,1417 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="F1" s="70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="E2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="E4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="E5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="E6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="E7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="E8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="E9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="E10" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="E11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="E12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="48">
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="E13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="F13" s="48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="48">
         <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="E14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="F14" s="48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48">
         <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="E15" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="F15" s="48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48">
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="E16" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="F16" s="48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48">
         <v>16</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="E17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="F17" s="48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48">
         <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="E18" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="F18" s="48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="E19" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="F19" s="48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="48">
         <v>19</v>
       </c>
       <c r="B20" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="E20" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="F20" s="48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48">
         <v>20</v>
       </c>
       <c r="B21" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="E21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="F21" s="48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D22" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="E22" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D23" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="E23" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="E24" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="E25" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="E26" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D27" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="E27" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D28" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="E28" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D29" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="E29" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D30" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="E30" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="E31" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D32" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="E32" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="E33" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D34" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="E34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D35" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="E35" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D36" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="E36" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D37" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="E37" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="E38" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D39" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="E39" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D40" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="E40" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="E41" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D42" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="E42" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="E43" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="E44" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="44">
         <v>57</v>
       </c>
       <c r="B58" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="D58" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="E58" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="E58" s="44" t="s">
+      <c r="F58" s="44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="44">
         <v>58</v>
       </c>
       <c r="B59" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="D59" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="E59" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="44" t="s">
+      <c r="F59" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="44">
         <v>59</v>
       </c>
       <c r="B60" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="D60" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="E60" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="F60" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="55">
         <v>60</v>
       </c>
       <c r="B61" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="D61" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="E61" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="55">
         <v>61</v>
       </c>
       <c r="B62" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="D62" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="61" t="s">
+      <c r="E62" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="F62" s="55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="55">
         <v>62</v>
       </c>
       <c r="B63" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="D63" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="E63" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="F63" s="55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="E64" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="E65" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="E66" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="D67" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="E67" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="D68" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="E68" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="D69" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="E69" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="D70" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="E70" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="D71" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="E71" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickTop="1"/>
+    <row r="72" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3492,17 +3728,17 @@
       <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.28515625" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="41"/>
+    <col min="1" max="1" width="40.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.33203125" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>153</v>
       </c>
@@ -3519,7 +3755,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -3536,7 +3772,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
@@ -3553,7 +3789,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -3570,7 +3806,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>129</v>
       </c>
@@ -3587,7 +3823,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>129</v>
       </c>
@@ -3604,7 +3840,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>129</v>
       </c>
@@ -3621,7 +3857,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>129</v>
       </c>
@@ -3638,7 +3874,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>129</v>
       </c>
@@ -3655,7 +3891,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>129</v>
       </c>
@@ -3672,7 +3908,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>129</v>
       </c>
@@ -3689,7 +3925,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>129</v>
       </c>
@@ -3706,7 +3942,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>129</v>
       </c>
@@ -3723,7 +3959,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>129</v>
       </c>
@@ -3740,7 +3976,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>129</v>
       </c>
@@ -3757,7 +3993,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>129</v>
       </c>
@@ -3774,7 +4010,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -3791,7 +4027,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3808,7 +4044,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -3825,7 +4061,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
@@ -3842,7 +4078,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>31</v>
       </c>
@@ -3859,7 +4095,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>31</v>
       </c>
@@ -3876,7 +4112,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -3893,7 +4129,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +4146,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -3927,7 +4163,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -3944,7 +4180,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>31</v>
       </c>
@@ -3961,7 +4197,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
@@ -3978,7 +4214,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
@@ -3995,7 +4231,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
@@ -4012,7 +4248,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
@@ -4029,7 +4265,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
@@ -4046,7 +4282,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
@@ -4063,7 +4299,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>58</v>
       </c>
@@ -4080,7 +4316,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>58</v>
       </c>
@@ -4097,7 +4333,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4114,7 +4350,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>58</v>
       </c>
@@ -4131,7 +4367,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>62</v>
       </c>
@@ -4148,7 +4384,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="61.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>62</v>
       </c>
@@ -4165,7 +4401,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>62</v>
       </c>
@@ -4182,7 +4418,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
@@ -4199,7 +4435,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>62</v>
       </c>
@@ -4216,7 +4452,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
@@ -4233,7 +4469,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>62</v>
       </c>
@@ -4250,7 +4486,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>62</v>
       </c>
@@ -4267,7 +4503,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>62</v>
       </c>
@@ -4284,7 +4520,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>62</v>
       </c>
@@ -4301,7 +4537,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>62</v>
       </c>
@@ -4318,7 +4554,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>62</v>
       </c>
@@ -4335,7 +4571,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>62</v>
       </c>
@@ -4352,7 +4588,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>62</v>
       </c>
@@ -4369,7 +4605,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>62</v>
       </c>
@@ -4386,7 +4622,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>62</v>
       </c>
@@ -4403,7 +4639,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>62</v>
       </c>
@@ -4420,7 +4656,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>62</v>
       </c>
@@ -4437,7 +4673,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>62</v>
       </c>
@@ -4454,7 +4690,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>62</v>
       </c>
@@ -4471,7 +4707,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>62</v>
       </c>
@@ -4488,7 +4724,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>62</v>
       </c>
@@ -4505,7 +4741,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>62</v>
       </c>
@@ -4522,7 +4758,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>62</v>
       </c>
@@ -4539,7 +4775,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>62</v>
       </c>
@@ -4556,7 +4792,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>62</v>
       </c>
@@ -4573,7 +4809,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>127</v>
       </c>
@@ -4590,7 +4826,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>127</v>
       </c>
@@ -4607,7 +4843,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>127</v>
       </c>
@@ -4624,7 +4860,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>70</v>
       </c>
@@ -4641,7 +4877,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>70</v>
       </c>
@@ -4658,7 +4894,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>70</v>
       </c>
@@ -4675,7 +4911,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>70</v>
       </c>
@@ -4692,7 +4928,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>70</v>
       </c>
@@ -4709,7 +4945,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>70</v>
       </c>
@@ -4726,7 +4962,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>70</v>
       </c>
@@ -4743,7 +4979,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>70</v>
       </c>
@@ -4760,7 +4996,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>70</v>
       </c>
@@ -4777,7 +5013,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>70</v>
       </c>
@@ -4794,7 +5030,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>70</v>
       </c>
@@ -4811,7 +5047,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>70</v>
       </c>
@@ -4828,7 +5064,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>70</v>
       </c>
@@ -4845,7 +5081,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>70</v>
       </c>
@@ -4862,7 +5098,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>70</v>
       </c>
@@ -4879,7 +5115,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>70</v>
       </c>
@@ -4896,7 +5132,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>70</v>
       </c>
@@ -4913,7 +5149,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>70</v>
       </c>
@@ -4930,7 +5166,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>70</v>
       </c>
@@ -4947,7 +5183,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>70</v>
       </c>
@@ -4964,7 +5200,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>70</v>
       </c>
@@ -4981,7 +5217,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>70</v>
       </c>
@@ -4998,7 +5234,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>70</v>
       </c>
@@ -5015,7 +5251,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>70</v>
       </c>
@@ -5032,7 +5268,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>70</v>
       </c>
@@ -5049,7 +5285,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>50</v>
       </c>
@@ -5066,7 +5302,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
+    <row r="93" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>50</v>
       </c>
@@ -5083,7 +5319,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="94" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>50</v>
       </c>
@@ -5100,7 +5336,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="95" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>50</v>
       </c>
@@ -5117,7 +5353,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="96" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>50</v>
       </c>
@@ -5134,7 +5370,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
+    <row r="97" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>76</v>
       </c>
@@ -5151,7 +5387,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="98" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>76</v>
       </c>
@@ -5168,7 +5404,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="46.5" thickTop="1" thickBot="1">
+    <row r="99" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>76</v>
       </c>
@@ -5185,7 +5421,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="100" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>76</v>
       </c>
@@ -5202,7 +5438,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="101" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>80</v>
       </c>
@@ -5219,7 +5455,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="31.5" thickTop="1" thickBot="1">
+    <row r="102" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>80</v>
       </c>
@@ -5236,7 +5472,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="103" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
         <v>80</v>
       </c>
@@ -5253,7 +5489,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="104" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>80</v>
       </c>
@@ -5270,7 +5506,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickTop="1"/>
+    <row r="105" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5284,79 +5520,79 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" thickTop="1" thickBottom="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.7109375" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="29" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.109375" style="20" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="23" style="20" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="20.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="20.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="42" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="22" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="31.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="27" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="35.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="32.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="34.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="34" style="20" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="32.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="42.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="34.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="43.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="42.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="24.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="34.109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="43.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="28" style="20" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="27" style="20" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="123.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="41.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="29.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="181.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="41.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="46.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="37.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="39.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="44.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="11.42578125" style="18"/>
+    <col min="61" max="61" width="123.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="41.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="181.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="41.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="46.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="37.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="39.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="44.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" thickTop="1" thickBot="1">
+    <row r="1" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -5565,7 +5801,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="34" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
+    <row r="2" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -5692,7 +5928,7 @@
       <c r="BP2" s="23"/>
       <c r="BQ2" s="23"/>
     </row>
-    <row r="3" spans="1:69" s="34" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -5819,7 +6055,7 @@
       <c r="BP3" s="23"/>
       <c r="BQ3" s="23"/>
     </row>
-    <row r="4" spans="1:69" s="34" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -5968,7 +6204,7 @@
       <c r="BP4" s="23"/>
       <c r="BQ4" s="23"/>
     </row>
-    <row r="5" spans="1:69" s="34" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -6111,7 +6347,7 @@
       <c r="BP5" s="23"/>
       <c r="BQ5" s="23"/>
     </row>
-    <row r="6" spans="1:69" s="34" customFormat="1" ht="27" thickTop="1" thickBot="1">
+    <row r="6" spans="1:69" s="34" customFormat="1" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -6265,7 +6501,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:69" thickTop="1" thickBot="1">
+    <row r="7" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L7" s="19"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
@@ -6279,7 +6515,7 @@
       <c r="BE7" s="23"/>
       <c r="BF7" s="23"/>
     </row>
-    <row r="8" spans="1:69" thickTop="1" thickBot="1">
+    <row r="8" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L8" s="19"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -6293,7 +6529,7 @@
       <c r="BE8" s="23"/>
       <c r="BF8" s="23"/>
     </row>
-    <row r="9" spans="1:69" thickTop="1" thickBot="1">
+    <row r="9" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L9" s="19"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -6307,7 +6543,7 @@
       <c r="BE9" s="23"/>
       <c r="BF9" s="23"/>
     </row>
-    <row r="10" spans="1:69" thickTop="1" thickBot="1">
+    <row r="10" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L10" s="19"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
@@ -6321,7 +6557,7 @@
       <c r="BE10" s="23"/>
       <c r="BF10" s="23"/>
     </row>
-    <row r="11" spans="1:69" thickTop="1" thickBot="1">
+    <row r="11" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L11" s="19"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
@@ -6335,7 +6571,7 @@
       <c r="BE11" s="23"/>
       <c r="BF11" s="23"/>
     </row>
-    <row r="12" spans="1:69" thickTop="1" thickBot="1">
+    <row r="12" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L12" s="19"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -6349,7 +6585,7 @@
       <c r="BE12" s="23"/>
       <c r="BF12" s="23"/>
     </row>
-    <row r="13" spans="1:69" thickTop="1" thickBot="1">
+    <row r="13" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L13" s="19"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
@@ -6363,7 +6599,7 @@
       <c r="BE13" s="23"/>
       <c r="BF13" s="23"/>
     </row>
-    <row r="14" spans="1:69" thickTop="1" thickBot="1">
+    <row r="14" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L14" s="19"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
@@ -6377,7 +6613,7 @@
       <c r="BE14" s="23"/>
       <c r="BF14" s="23"/>
     </row>
-    <row r="15" spans="1:69" thickTop="1" thickBot="1">
+    <row r="15" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L15" s="19"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
@@ -6391,7 +6627,7 @@
       <c r="BE15" s="23"/>
       <c r="BF15" s="23"/>
     </row>
-    <row r="16" spans="1:69" thickTop="1" thickBot="1">
+    <row r="16" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L16" s="19"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
@@ -6405,7 +6641,7 @@
       <c r="BE16" s="23"/>
       <c r="BF16" s="23"/>
     </row>
-    <row r="17" spans="12:58" thickTop="1" thickBot="1">
+    <row r="17" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L17" s="19"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
@@ -6419,7 +6655,7 @@
       <c r="BE17" s="23"/>
       <c r="BF17" s="23"/>
     </row>
-    <row r="18" spans="12:58" thickTop="1" thickBot="1">
+    <row r="18" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L18" s="19"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
@@ -6433,7 +6669,7 @@
       <c r="BE18" s="23"/>
       <c r="BF18" s="23"/>
     </row>
-    <row r="19" spans="12:58" thickTop="1" thickBot="1">
+    <row r="19" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L19" s="19"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
@@ -6447,7 +6683,7 @@
       <c r="BE19" s="23"/>
       <c r="BF19" s="23"/>
     </row>
-    <row r="20" spans="12:58" thickTop="1" thickBot="1">
+    <row r="20" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L20" s="19"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
@@ -6461,7 +6697,7 @@
       <c r="BE20" s="23"/>
       <c r="BF20" s="23"/>
     </row>
-    <row r="21" spans="12:58" thickTop="1" thickBot="1">
+    <row r="21" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L21" s="19"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
@@ -6475,7 +6711,7 @@
       <c r="BE21" s="23"/>
       <c r="BF21" s="23"/>
     </row>
-    <row r="22" spans="12:58" thickTop="1" thickBot="1">
+    <row r="22" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L22" s="19"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
@@ -6489,7 +6725,7 @@
       <c r="BE22" s="23"/>
       <c r="BF22" s="23"/>
     </row>
-    <row r="23" spans="12:58" thickTop="1" thickBot="1">
+    <row r="23" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L23" s="19"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
@@ -6503,7 +6739,7 @@
       <c r="BE23" s="23"/>
       <c r="BF23" s="23"/>
     </row>
-    <row r="24" spans="12:58" thickTop="1" thickBot="1">
+    <row r="24" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L24" s="19"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
@@ -6517,7 +6753,7 @@
       <c r="BE24" s="23"/>
       <c r="BF24" s="23"/>
     </row>
-    <row r="25" spans="12:58" thickTop="1" thickBot="1">
+    <row r="25" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L25" s="19"/>
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
@@ -6531,7 +6767,7 @@
       <c r="BE25" s="23"/>
       <c r="BF25" s="23"/>
     </row>
-    <row r="26" spans="12:58" thickTop="1" thickBot="1">
+    <row r="26" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L26" s="19"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
@@ -6545,7 +6781,7 @@
       <c r="BE26" s="23"/>
       <c r="BF26" s="23"/>
     </row>
-    <row r="27" spans="12:58" thickTop="1" thickBot="1">
+    <row r="27" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L27" s="19"/>
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
@@ -6559,7 +6795,7 @@
       <c r="BE27" s="23"/>
       <c r="BF27" s="23"/>
     </row>
-    <row r="28" spans="12:58" thickTop="1" thickBot="1">
+    <row r="28" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L28" s="19"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
@@ -6573,7 +6809,7 @@
       <c r="BE28" s="23"/>
       <c r="BF28" s="23"/>
     </row>
-    <row r="29" spans="12:58" thickTop="1" thickBot="1">
+    <row r="29" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="19"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
@@ -6587,7 +6823,7 @@
       <c r="BE29" s="23"/>
       <c r="BF29" s="23"/>
     </row>
-    <row r="30" spans="12:58" thickTop="1" thickBot="1">
+    <row r="30" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="19"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
@@ -6601,7 +6837,7 @@
       <c r="BE30" s="23"/>
       <c r="BF30" s="23"/>
     </row>
-    <row r="31" spans="12:58" thickTop="1" thickBot="1">
+    <row r="31" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L31" s="19"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
@@ -6615,7 +6851,7 @@
       <c r="BE31" s="23"/>
       <c r="BF31" s="23"/>
     </row>
-    <row r="32" spans="12:58" thickTop="1" thickBot="1">
+    <row r="32" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="19"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
@@ -6629,7 +6865,7 @@
       <c r="BE32" s="23"/>
       <c r="BF32" s="23"/>
     </row>
-    <row r="33" spans="12:58" thickTop="1" thickBot="1">
+    <row r="33" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="19"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
@@ -6643,7 +6879,7 @@
       <c r="BE33" s="23"/>
       <c r="BF33" s="23"/>
     </row>
-    <row r="34" spans="12:58" thickTop="1" thickBot="1">
+    <row r="34" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L34" s="19"/>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
@@ -6657,7 +6893,7 @@
       <c r="BE34" s="23"/>
       <c r="BF34" s="23"/>
     </row>
-    <row r="35" spans="12:58" thickTop="1" thickBot="1">
+    <row r="35" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L35" s="19"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
@@ -6671,7 +6907,7 @@
       <c r="BE35" s="23"/>
       <c r="BF35" s="23"/>
     </row>
-    <row r="36" spans="12:58" thickTop="1" thickBot="1">
+    <row r="36" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L36" s="19"/>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
@@ -6685,7 +6921,7 @@
       <c r="BE36" s="23"/>
       <c r="BF36" s="23"/>
     </row>
-    <row r="37" spans="12:58" thickTop="1" thickBot="1">
+    <row r="37" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L37" s="19"/>
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
@@ -6699,7 +6935,7 @@
       <c r="BE37" s="23"/>
       <c r="BF37" s="23"/>
     </row>
-    <row r="38" spans="12:58" thickTop="1" thickBot="1">
+    <row r="38" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L38" s="19"/>
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
@@ -6713,7 +6949,7 @@
       <c r="BE38" s="23"/>
       <c r="BF38" s="23"/>
     </row>
-    <row r="39" spans="12:58" thickTop="1" thickBot="1">
+    <row r="39" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L39" s="19"/>
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
@@ -6727,7 +6963,7 @@
       <c r="BE39" s="23"/>
       <c r="BF39" s="23"/>
     </row>
-    <row r="40" spans="12:58" thickTop="1" thickBot="1">
+    <row r="40" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L40" s="19"/>
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
@@ -6741,7 +6977,7 @@
       <c r="BE40" s="23"/>
       <c r="BF40" s="23"/>
     </row>
-    <row r="41" spans="12:58" thickTop="1" thickBot="1">
+    <row r="41" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L41" s="19"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
@@ -6755,7 +6991,7 @@
       <c r="BE41" s="23"/>
       <c r="BF41" s="23"/>
     </row>
-    <row r="42" spans="12:58" thickTop="1" thickBot="1">
+    <row r="42" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L42" s="19"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
@@ -6769,7 +7005,7 @@
       <c r="BE42" s="23"/>
       <c r="BF42" s="23"/>
     </row>
-    <row r="43" spans="12:58" thickTop="1" thickBot="1">
+    <row r="43" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L43" s="19"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
@@ -6783,7 +7019,7 @@
       <c r="BE43" s="23"/>
       <c r="BF43" s="23"/>
     </row>
-    <row r="44" spans="12:58" thickTop="1" thickBot="1">
+    <row r="44" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L44" s="19"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
@@ -6797,7 +7033,7 @@
       <c r="BE44" s="23"/>
       <c r="BF44" s="23"/>
     </row>
-    <row r="45" spans="12:58" thickTop="1" thickBot="1">
+    <row r="45" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L45" s="19"/>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
@@ -6811,7 +7047,7 @@
       <c r="BE45" s="23"/>
       <c r="BF45" s="23"/>
     </row>
-    <row r="46" spans="12:58" thickTop="1" thickBot="1">
+    <row r="46" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L46" s="19"/>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
@@ -6825,7 +7061,7 @@
       <c r="BE46" s="23"/>
       <c r="BF46" s="23"/>
     </row>
-    <row r="47" spans="12:58" thickTop="1" thickBot="1">
+    <row r="47" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L47" s="19"/>
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
@@ -6839,7 +7075,7 @@
       <c r="BE47" s="23"/>
       <c r="BF47" s="23"/>
     </row>
-    <row r="48" spans="12:58" thickTop="1" thickBot="1">
+    <row r="48" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L48" s="19"/>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
@@ -6853,7 +7089,7 @@
       <c r="BE48" s="23"/>
       <c r="BF48" s="23"/>
     </row>
-    <row r="49" spans="12:58" thickTop="1" thickBot="1">
+    <row r="49" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L49" s="19"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
@@ -6867,7 +7103,7 @@
       <c r="BE49" s="23"/>
       <c r="BF49" s="23"/>
     </row>
-    <row r="50" spans="12:58" thickTop="1" thickBot="1">
+    <row r="50" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L50" s="19"/>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
@@ -6881,7 +7117,7 @@
       <c r="BE50" s="23"/>
       <c r="BF50" s="23"/>
     </row>
-    <row r="51" spans="12:58" thickTop="1" thickBot="1">
+    <row r="51" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L51" s="19"/>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
@@ -6895,7 +7131,7 @@
       <c r="BE51" s="23"/>
       <c r="BF51" s="23"/>
     </row>
-    <row r="52" spans="12:58" thickTop="1" thickBot="1">
+    <row r="52" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L52" s="19"/>
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
@@ -6909,7 +7145,7 @@
       <c r="BE52" s="23"/>
       <c r="BF52" s="23"/>
     </row>
-    <row r="53" spans="12:58" thickTop="1" thickBot="1">
+    <row r="53" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L53" s="19"/>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
@@ -6923,7 +7159,7 @@
       <c r="BE53" s="23"/>
       <c r="BF53" s="23"/>
     </row>
-    <row r="54" spans="12:58" thickTop="1" thickBot="1">
+    <row r="54" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L54" s="19"/>
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
@@ -6937,7 +7173,7 @@
       <c r="BE54" s="23"/>
       <c r="BF54" s="23"/>
     </row>
-    <row r="55" spans="12:58" thickTop="1" thickBot="1">
+    <row r="55" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L55" s="19"/>
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
@@ -6951,7 +7187,7 @@
       <c r="BE55" s="23"/>
       <c r="BF55" s="23"/>
     </row>
-    <row r="56" spans="12:58" thickTop="1" thickBot="1">
+    <row r="56" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L56" s="19"/>
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
@@ -6965,7 +7201,7 @@
       <c r="BE56" s="23"/>
       <c r="BF56" s="23"/>
     </row>
-    <row r="57" spans="12:58" thickTop="1" thickBot="1">
+    <row r="57" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L57" s="19"/>
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
@@ -6979,7 +7215,7 @@
       <c r="BE57" s="23"/>
       <c r="BF57" s="23"/>
     </row>
-    <row r="58" spans="12:58" thickTop="1" thickBot="1">
+    <row r="58" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L58" s="19"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
@@ -6993,7 +7229,7 @@
       <c r="BE58" s="23"/>
       <c r="BF58" s="23"/>
     </row>
-    <row r="59" spans="12:58" thickTop="1" thickBot="1">
+    <row r="59" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L59" s="19"/>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
@@ -7007,7 +7243,7 @@
       <c r="BE59" s="23"/>
       <c r="BF59" s="23"/>
     </row>
-    <row r="60" spans="12:58" thickTop="1" thickBot="1">
+    <row r="60" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L60" s="19"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
@@ -7021,7 +7257,7 @@
       <c r="BE60" s="23"/>
       <c r="BF60" s="23"/>
     </row>
-    <row r="61" spans="12:58" thickTop="1" thickBot="1">
+    <row r="61" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L61" s="19"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
@@ -7035,7 +7271,7 @@
       <c r="BE61" s="23"/>
       <c r="BF61" s="23"/>
     </row>
-    <row r="62" spans="12:58" thickTop="1" thickBot="1">
+    <row r="62" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L62" s="19"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
@@ -7049,7 +7285,7 @@
       <c r="BE62" s="23"/>
       <c r="BF62" s="23"/>
     </row>
-    <row r="63" spans="12:58" thickTop="1" thickBot="1">
+    <row r="63" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L63" s="19"/>
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
@@ -7063,7 +7299,7 @@
       <c r="BE63" s="23"/>
       <c r="BF63" s="23"/>
     </row>
-    <row r="64" spans="12:58" thickTop="1" thickBot="1">
+    <row r="64" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L64" s="19"/>
       <c r="M64" s="23"/>
       <c r="N64" s="23"/>
@@ -7077,7 +7313,7 @@
       <c r="BE64" s="23"/>
       <c r="BF64" s="23"/>
     </row>
-    <row r="65" spans="12:58" thickTop="1" thickBot="1">
+    <row r="65" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L65" s="19"/>
       <c r="M65" s="23"/>
       <c r="N65" s="23"/>
@@ -7091,7 +7327,7 @@
       <c r="BE65" s="23"/>
       <c r="BF65" s="23"/>
     </row>
-    <row r="66" spans="12:58" thickTop="1" thickBot="1">
+    <row r="66" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L66" s="19"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
@@ -7105,7 +7341,7 @@
       <c r="BE66" s="23"/>
       <c r="BF66" s="23"/>
     </row>
-    <row r="67" spans="12:58" thickTop="1" thickBot="1">
+    <row r="67" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L67" s="19"/>
       <c r="M67" s="23"/>
       <c r="N67" s="23"/>
@@ -7119,7 +7355,7 @@
       <c r="BE67" s="23"/>
       <c r="BF67" s="23"/>
     </row>
-    <row r="68" spans="12:58" thickTop="1" thickBot="1">
+    <row r="68" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L68" s="19"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
@@ -7133,7 +7369,7 @@
       <c r="BE68" s="23"/>
       <c r="BF68" s="23"/>
     </row>
-    <row r="69" spans="12:58" thickTop="1" thickBot="1">
+    <row r="69" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L69" s="19"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
@@ -7147,7 +7383,7 @@
       <c r="BE69" s="23"/>
       <c r="BF69" s="23"/>
     </row>
-    <row r="70" spans="12:58" thickTop="1" thickBot="1">
+    <row r="70" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L70" s="19"/>
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
@@ -7161,7 +7397,7 @@
       <c r="BE70" s="23"/>
       <c r="BF70" s="23"/>
     </row>
-    <row r="71" spans="12:58" thickTop="1" thickBot="1">
+    <row r="71" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L71" s="19"/>
       <c r="M71" s="23"/>
       <c r="N71" s="23"/>
@@ -7175,7 +7411,7 @@
       <c r="BE71" s="23"/>
       <c r="BF71" s="23"/>
     </row>
-    <row r="72" spans="12:58" thickTop="1" thickBot="1">
+    <row r="72" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L72" s="19"/>
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
@@ -7189,7 +7425,7 @@
       <c r="BE72" s="23"/>
       <c r="BF72" s="23"/>
     </row>
-    <row r="73" spans="12:58" thickTop="1" thickBot="1">
+    <row r="73" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L73" s="19"/>
       <c r="M73" s="23"/>
       <c r="N73" s="23"/>
@@ -7203,7 +7439,7 @@
       <c r="BE73" s="23"/>
       <c r="BF73" s="23"/>
     </row>
-    <row r="74" spans="12:58" thickTop="1" thickBot="1">
+    <row r="74" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L74" s="19"/>
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
@@ -7217,7 +7453,7 @@
       <c r="BE74" s="23"/>
       <c r="BF74" s="23"/>
     </row>
-    <row r="75" spans="12:58" thickTop="1" thickBot="1">
+    <row r="75" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L75" s="19"/>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
@@ -7231,7 +7467,7 @@
       <c r="BE75" s="23"/>
       <c r="BF75" s="23"/>
     </row>
-    <row r="76" spans="12:58" thickTop="1" thickBot="1">
+    <row r="76" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L76" s="19"/>
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
@@ -7245,7 +7481,7 @@
       <c r="BE76" s="23"/>
       <c r="BF76" s="23"/>
     </row>
-    <row r="77" spans="12:58" thickTop="1" thickBot="1">
+    <row r="77" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L77" s="19"/>
       <c r="M77" s="23"/>
       <c r="N77" s="23"/>
@@ -7259,7 +7495,7 @@
       <c r="BE77" s="23"/>
       <c r="BF77" s="23"/>
     </row>
-    <row r="78" spans="12:58" thickTop="1" thickBot="1">
+    <row r="78" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L78" s="19"/>
       <c r="M78" s="23"/>
       <c r="N78" s="23"/>
@@ -7273,7 +7509,7 @@
       <c r="BE78" s="23"/>
       <c r="BF78" s="23"/>
     </row>
-    <row r="79" spans="12:58" thickTop="1" thickBot="1">
+    <row r="79" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L79" s="19"/>
       <c r="M79" s="23"/>
       <c r="N79" s="23"/>
@@ -7287,7 +7523,7 @@
       <c r="BE79" s="23"/>
       <c r="BF79" s="23"/>
     </row>
-    <row r="80" spans="12:58" thickTop="1" thickBot="1">
+    <row r="80" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L80" s="19"/>
       <c r="M80" s="23"/>
       <c r="N80" s="23"/>
@@ -7301,7 +7537,7 @@
       <c r="BE80" s="23"/>
       <c r="BF80" s="23"/>
     </row>
-    <row r="81" spans="12:58" thickTop="1" thickBot="1">
+    <row r="81" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L81" s="19"/>
       <c r="M81" s="23"/>
       <c r="N81" s="23"/>
@@ -7315,7 +7551,7 @@
       <c r="BE81" s="23"/>
       <c r="BF81" s="23"/>
     </row>
-    <row r="82" spans="12:58" thickTop="1" thickBot="1">
+    <row r="82" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L82" s="19"/>
       <c r="M82" s="23"/>
       <c r="N82" s="23"/>
@@ -7329,7 +7565,7 @@
       <c r="BE82" s="23"/>
       <c r="BF82" s="23"/>
     </row>
-    <row r="83" spans="12:58" thickTop="1" thickBot="1">
+    <row r="83" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L83" s="19"/>
       <c r="M83" s="23"/>
       <c r="N83" s="23"/>
@@ -7343,7 +7579,7 @@
       <c r="BE83" s="23"/>
       <c r="BF83" s="23"/>
     </row>
-    <row r="84" spans="12:58" thickTop="1" thickBot="1">
+    <row r="84" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L84" s="19"/>
       <c r="M84" s="23"/>
       <c r="N84" s="23"/>
@@ -7357,7 +7593,7 @@
       <c r="BE84" s="23"/>
       <c r="BF84" s="23"/>
     </row>
-    <row r="85" spans="12:58" thickTop="1" thickBot="1">
+    <row r="85" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L85" s="19"/>
       <c r="M85" s="23"/>
       <c r="N85" s="23"/>
@@ -7371,7 +7607,7 @@
       <c r="BE85" s="23"/>
       <c r="BF85" s="23"/>
     </row>
-    <row r="86" spans="12:58" thickTop="1" thickBot="1">
+    <row r="86" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L86" s="19"/>
       <c r="M86" s="23"/>
       <c r="N86" s="23"/>
@@ -7385,7 +7621,7 @@
       <c r="BE86" s="23"/>
       <c r="BF86" s="23"/>
     </row>
-    <row r="87" spans="12:58" thickTop="1" thickBot="1">
+    <row r="87" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L87" s="19"/>
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
@@ -7399,7 +7635,7 @@
       <c r="BE87" s="23"/>
       <c r="BF87" s="23"/>
     </row>
-    <row r="88" spans="12:58" thickTop="1" thickBot="1">
+    <row r="88" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L88" s="19"/>
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
@@ -7413,7 +7649,7 @@
       <c r="BE88" s="23"/>
       <c r="BF88" s="23"/>
     </row>
-    <row r="89" spans="12:58" thickTop="1" thickBot="1">
+    <row r="89" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L89" s="19"/>
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
@@ -7427,7 +7663,7 @@
       <c r="BE89" s="23"/>
       <c r="BF89" s="23"/>
     </row>
-    <row r="90" spans="12:58" thickTop="1" thickBot="1">
+    <row r="90" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L90" s="19"/>
       <c r="M90" s="23"/>
       <c r="N90" s="23"/>
@@ -7441,7 +7677,7 @@
       <c r="BE90" s="23"/>
       <c r="BF90" s="23"/>
     </row>
-    <row r="91" spans="12:58" thickTop="1" thickBot="1">
+    <row r="91" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L91" s="19"/>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
@@ -7455,7 +7691,7 @@
       <c r="BE91" s="23"/>
       <c r="BF91" s="23"/>
     </row>
-    <row r="92" spans="12:58" thickTop="1" thickBot="1">
+    <row r="92" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L92" s="19"/>
       <c r="M92" s="23"/>
       <c r="N92" s="23"/>
@@ -7469,7 +7705,7 @@
       <c r="BE92" s="23"/>
       <c r="BF92" s="23"/>
     </row>
-    <row r="93" spans="12:58" thickTop="1" thickBot="1">
+    <row r="93" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L93" s="19"/>
       <c r="M93" s="23"/>
       <c r="N93" s="23"/>
@@ -7483,7 +7719,7 @@
       <c r="BE93" s="23"/>
       <c r="BF93" s="23"/>
     </row>
-    <row r="94" spans="12:58" thickTop="1" thickBot="1">
+    <row r="94" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L94" s="19"/>
       <c r="M94" s="23"/>
       <c r="N94" s="23"/>
@@ -7497,7 +7733,7 @@
       <c r="BE94" s="23"/>
       <c r="BF94" s="23"/>
     </row>
-    <row r="95" spans="12:58" thickTop="1" thickBot="1">
+    <row r="95" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L95" s="19"/>
       <c r="M95" s="23"/>
       <c r="N95" s="23"/>
@@ -7511,7 +7747,7 @@
       <c r="BE95" s="23"/>
       <c r="BF95" s="23"/>
     </row>
-    <row r="96" spans="12:58" thickTop="1" thickBot="1">
+    <row r="96" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L96" s="19"/>
       <c r="M96" s="23"/>
       <c r="N96" s="23"/>
@@ -7525,7 +7761,7 @@
       <c r="BE96" s="23"/>
       <c r="BF96" s="23"/>
     </row>
-    <row r="97" spans="12:58" thickTop="1" thickBot="1">
+    <row r="97" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L97" s="19"/>
       <c r="M97" s="23"/>
       <c r="N97" s="23"/>
@@ -7539,7 +7775,7 @@
       <c r="BE97" s="23"/>
       <c r="BF97" s="23"/>
     </row>
-    <row r="98" spans="12:58" thickTop="1" thickBot="1">
+    <row r="98" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L98" s="19"/>
       <c r="M98" s="23"/>
       <c r="N98" s="23"/>
@@ -7553,7 +7789,7 @@
       <c r="BE98" s="23"/>
       <c r="BF98" s="23"/>
     </row>
-    <row r="99" spans="12:58" thickTop="1" thickBot="1">
+    <row r="99" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L99" s="19"/>
       <c r="M99" s="23"/>
       <c r="N99" s="23"/>
@@ -7567,7 +7803,7 @@
       <c r="BE99" s="23"/>
       <c r="BF99" s="23"/>
     </row>
-    <row r="100" spans="12:58" thickTop="1" thickBot="1">
+    <row r="100" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L100" s="19"/>
       <c r="M100" s="23"/>
       <c r="N100" s="23"/>
@@ -7581,7 +7817,7 @@
       <c r="BE100" s="23"/>
       <c r="BF100" s="23"/>
     </row>
-    <row r="101" spans="12:58" thickTop="1" thickBot="1">
+    <row r="101" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L101" s="19"/>
       <c r="M101" s="23"/>
       <c r="N101" s="23"/>
@@ -7595,7 +7831,7 @@
       <c r="BE101" s="23"/>
       <c r="BF101" s="23"/>
     </row>
-    <row r="102" spans="12:58" thickTop="1" thickBot="1">
+    <row r="102" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L102" s="19"/>
       <c r="M102" s="23"/>
       <c r="N102" s="23"/>
@@ -7609,7 +7845,7 @@
       <c r="BE102" s="23"/>
       <c r="BF102" s="23"/>
     </row>
-    <row r="103" spans="12:58" thickTop="1" thickBot="1">
+    <row r="103" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L103" s="19"/>
       <c r="M103" s="23"/>
       <c r="T103" s="23"/>
@@ -7622,7 +7858,7 @@
       <c r="BE103" s="23"/>
       <c r="BF103" s="23"/>
     </row>
-    <row r="104" spans="12:58" thickTop="1" thickBot="1">
+    <row r="104" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L104" s="19"/>
       <c r="M104" s="23"/>
       <c r="T104" s="23"/>
@@ -7635,7 +7871,7 @@
       <c r="BE104" s="23"/>
       <c r="BF104" s="23"/>
     </row>
-    <row r="105" spans="12:58" thickTop="1" thickBot="1">
+    <row r="105" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L105" s="19"/>
       <c r="M105" s="23"/>
       <c r="T105" s="23"/>
@@ -7648,7 +7884,7 @@
       <c r="BE105" s="23"/>
       <c r="BF105" s="23"/>
     </row>
-    <row r="106" spans="12:58" thickTop="1" thickBot="1">
+    <row r="106" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L106" s="19"/>
       <c r="M106" s="23"/>
       <c r="T106" s="23"/>
@@ -7661,7 +7897,7 @@
       <c r="BE106" s="23"/>
       <c r="BF106" s="23"/>
     </row>
-    <row r="107" spans="12:58" thickTop="1" thickBot="1">
+    <row r="107" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L107" s="19"/>
       <c r="M107" s="23"/>
       <c r="T107" s="23"/>
@@ -7674,7 +7910,7 @@
       <c r="BE107" s="23"/>
       <c r="BF107" s="23"/>
     </row>
-    <row r="108" spans="12:58" thickTop="1" thickBot="1">
+    <row r="108" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L108" s="19"/>
       <c r="M108" s="23"/>
       <c r="X108" s="23"/>
@@ -7686,7 +7922,7 @@
       <c r="BE108" s="23"/>
       <c r="BF108" s="23"/>
     </row>
-    <row r="109" spans="12:58" thickTop="1" thickBot="1">
+    <row r="109" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z109" s="23"/>
       <c r="AD109" s="23"/>
       <c r="AG109" s="23"/>
@@ -7695,7 +7931,7 @@
       <c r="BE109" s="23"/>
       <c r="BF109" s="23"/>
     </row>
-    <row r="110" spans="12:58" thickTop="1" thickBot="1">
+    <row r="110" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z110" s="23"/>
       <c r="AD110" s="23"/>
       <c r="AG110" s="23"/>
@@ -7704,7 +7940,7 @@
       <c r="BE110" s="23"/>
       <c r="BF110" s="23"/>
     </row>
-    <row r="111" spans="12:58" thickTop="1" thickBot="1">
+    <row r="111" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z111" s="23"/>
       <c r="AD111" s="23"/>
       <c r="AG111" s="23"/>
@@ -7713,7 +7949,7 @@
       <c r="BE111" s="23"/>
       <c r="BF111" s="23"/>
     </row>
-    <row r="112" spans="12:58" thickTop="1" thickBot="1">
+    <row r="112" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z112" s="23"/>
       <c r="AD112" s="23"/>
       <c r="AG112" s="23"/>
@@ -7722,7 +7958,7 @@
       <c r="BE112" s="23"/>
       <c r="BF112" s="23"/>
     </row>
-    <row r="113" spans="26:58" thickTop="1" thickBot="1">
+    <row r="113" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z113" s="23"/>
       <c r="AD113" s="23"/>
       <c r="AG113" s="23"/>
@@ -7731,7 +7967,7 @@
       <c r="BE113" s="23"/>
       <c r="BF113" s="23"/>
     </row>
-    <row r="114" spans="26:58" thickTop="1" thickBot="1">
+    <row r="114" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z114" s="23"/>
       <c r="AD114" s="23"/>
       <c r="AG114" s="23"/>
@@ -7740,7 +7976,7 @@
       <c r="BE114" s="23"/>
       <c r="BF114" s="23"/>
     </row>
-    <row r="115" spans="26:58" thickTop="1" thickBot="1">
+    <row r="115" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z115" s="23"/>
       <c r="AD115" s="23"/>
       <c r="AG115" s="23"/>
@@ -7749,7 +7985,7 @@
       <c r="BE115" s="23"/>
       <c r="BF115" s="23"/>
     </row>
-    <row r="116" spans="26:58" thickTop="1" thickBot="1">
+    <row r="116" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z116" s="23"/>
       <c r="AD116" s="23"/>
       <c r="AG116" s="23"/>
@@ -7758,7 +7994,7 @@
       <c r="BE116" s="23"/>
       <c r="BF116" s="23"/>
     </row>
-    <row r="117" spans="26:58" thickTop="1" thickBot="1">
+    <row r="117" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z117" s="23"/>
       <c r="AD117" s="23"/>
       <c r="AG117" s="23"/>
@@ -7767,7 +8003,7 @@
       <c r="BE117" s="23"/>
       <c r="BF117" s="23"/>
     </row>
-    <row r="118" spans="26:58" thickTop="1" thickBot="1">
+    <row r="118" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z118" s="23"/>
       <c r="AD118" s="23"/>
       <c r="AG118" s="23"/>
@@ -7776,7 +8012,7 @@
       <c r="BE118" s="23"/>
       <c r="BF118" s="23"/>
     </row>
-    <row r="119" spans="26:58" thickTop="1" thickBot="1">
+    <row r="119" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z119" s="23"/>
       <c r="AD119" s="23"/>
       <c r="AG119" s="23"/>
@@ -7785,7 +8021,7 @@
       <c r="BE119" s="23"/>
       <c r="BF119" s="23"/>
     </row>
-    <row r="120" spans="26:58" thickTop="1" thickBot="1">
+    <row r="120" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z120" s="23"/>
       <c r="AD120" s="23"/>
       <c r="AG120" s="23"/>
@@ -7794,7 +8030,7 @@
       <c r="BE120" s="23"/>
       <c r="BF120" s="23"/>
     </row>
-    <row r="121" spans="26:58" thickTop="1" thickBot="1">
+    <row r="121" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z121" s="23"/>
       <c r="AD121" s="23"/>
       <c r="AG121" s="23"/>
@@ -7803,7 +8039,7 @@
       <c r="BE121" s="23"/>
       <c r="BF121" s="23"/>
     </row>
-    <row r="122" spans="26:58" thickTop="1" thickBot="1">
+    <row r="122" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z122" s="23"/>
       <c r="AD122" s="23"/>
       <c r="AG122" s="23"/>
@@ -7812,7 +8048,7 @@
       <c r="BE122" s="23"/>
       <c r="BF122" s="23"/>
     </row>
-    <row r="123" spans="26:58" thickTop="1" thickBot="1">
+    <row r="123" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z123" s="23"/>
       <c r="AD123" s="23"/>
       <c r="AG123" s="23"/>
@@ -7821,7 +8057,7 @@
       <c r="BE123" s="23"/>
       <c r="BF123" s="23"/>
     </row>
-    <row r="124" spans="26:58" thickTop="1" thickBot="1">
+    <row r="124" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z124" s="23"/>
       <c r="AD124" s="23"/>
       <c r="AG124" s="23"/>
@@ -7830,7 +8066,7 @@
       <c r="BE124" s="23"/>
       <c r="BF124" s="23"/>
     </row>
-    <row r="125" spans="26:58" thickTop="1" thickBot="1">
+    <row r="125" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z125" s="23"/>
       <c r="AD125" s="23"/>
       <c r="AG125" s="23"/>
@@ -7839,7 +8075,7 @@
       <c r="BE125" s="23"/>
       <c r="BF125" s="23"/>
     </row>
-    <row r="126" spans="26:58" thickTop="1" thickBot="1">
+    <row r="126" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z126" s="23"/>
       <c r="AD126" s="23"/>
       <c r="AG126" s="23"/>
@@ -7848,7 +8084,7 @@
       <c r="BE126" s="23"/>
       <c r="BF126" s="23"/>
     </row>
-    <row r="127" spans="26:58" thickTop="1" thickBot="1">
+    <row r="127" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z127" s="23"/>
       <c r="AD127" s="23"/>
       <c r="AG127" s="23"/>
@@ -7857,7 +8093,7 @@
       <c r="BE127" s="23"/>
       <c r="BF127" s="23"/>
     </row>
-    <row r="128" spans="26:58" thickTop="1" thickBot="1">
+    <row r="128" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z128" s="23"/>
       <c r="AD128" s="23"/>
       <c r="AG128" s="23"/>
@@ -7866,7 +8102,7 @@
       <c r="BE128" s="23"/>
       <c r="BF128" s="23"/>
     </row>
-    <row r="129" spans="26:58" thickTop="1" thickBot="1">
+    <row r="129" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z129" s="23"/>
       <c r="AD129" s="23"/>
       <c r="AG129" s="23"/>
@@ -7875,7 +8111,7 @@
       <c r="BE129" s="23"/>
       <c r="BF129" s="23"/>
     </row>
-    <row r="130" spans="26:58" thickTop="1" thickBot="1">
+    <row r="130" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z130" s="23"/>
       <c r="AD130" s="23"/>
       <c r="AG130" s="23"/>
@@ -7884,7 +8120,7 @@
       <c r="BE130" s="23"/>
       <c r="BF130" s="23"/>
     </row>
-    <row r="131" spans="26:58" thickTop="1" thickBot="1">
+    <row r="131" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z131" s="23"/>
       <c r="AD131" s="23"/>
       <c r="AG131" s="23"/>
@@ -7893,7 +8129,7 @@
       <c r="BE131" s="23"/>
       <c r="BF131" s="23"/>
     </row>
-    <row r="132" spans="26:58" thickTop="1" thickBot="1">
+    <row r="132" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z132" s="23"/>
       <c r="AD132" s="23"/>
       <c r="AG132" s="23"/>
@@ -7902,7 +8138,7 @@
       <c r="BE132" s="23"/>
       <c r="BF132" s="23"/>
     </row>
-    <row r="133" spans="26:58" thickTop="1" thickBot="1">
+    <row r="133" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z133" s="23"/>
       <c r="AD133" s="23"/>
       <c r="AG133" s="23"/>
@@ -7911,7 +8147,7 @@
       <c r="BE133" s="23"/>
       <c r="BF133" s="23"/>
     </row>
-    <row r="134" spans="26:58" thickTop="1" thickBot="1">
+    <row r="134" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z134" s="23"/>
       <c r="AD134" s="23"/>
       <c r="AG134" s="23"/>
@@ -7920,7 +8156,7 @@
       <c r="BE134" s="23"/>
       <c r="BF134" s="23"/>
     </row>
-    <row r="135" spans="26:58" thickTop="1" thickBot="1">
+    <row r="135" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z135" s="23"/>
       <c r="AD135" s="23"/>
       <c r="AG135" s="23"/>
@@ -7929,7 +8165,7 @@
       <c r="BE135" s="23"/>
       <c r="BF135" s="23"/>
     </row>
-    <row r="136" spans="26:58" thickTop="1" thickBot="1">
+    <row r="136" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z136" s="23"/>
       <c r="AD136" s="23"/>
       <c r="AG136" s="23"/>
@@ -7938,7 +8174,7 @@
       <c r="BE136" s="23"/>
       <c r="BF136" s="23"/>
     </row>
-    <row r="137" spans="26:58" thickTop="1" thickBot="1">
+    <row r="137" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z137" s="23"/>
       <c r="AD137" s="23"/>
       <c r="AG137" s="23"/>
@@ -7947,7 +8183,7 @@
       <c r="BE137" s="23"/>
       <c r="BF137" s="23"/>
     </row>
-    <row r="138" spans="26:58" thickTop="1" thickBot="1">
+    <row r="138" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z138" s="23"/>
       <c r="AD138" s="23"/>
       <c r="AG138" s="23"/>
@@ -7956,7 +8192,7 @@
       <c r="BE138" s="23"/>
       <c r="BF138" s="23"/>
     </row>
-    <row r="139" spans="26:58" thickTop="1" thickBot="1">
+    <row r="139" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z139" s="23"/>
       <c r="AD139" s="23"/>
       <c r="AG139" s="23"/>
@@ -7965,7 +8201,7 @@
       <c r="BE139" s="23"/>
       <c r="BF139" s="23"/>
     </row>
-    <row r="140" spans="26:58" thickTop="1" thickBot="1">
+    <row r="140" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z140" s="23"/>
       <c r="AD140" s="23"/>
       <c r="AG140" s="23"/>
@@ -7974,7 +8210,7 @@
       <c r="BE140" s="23"/>
       <c r="BF140" s="23"/>
     </row>
-    <row r="141" spans="26:58" thickTop="1" thickBot="1">
+    <row r="141" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z141" s="23"/>
       <c r="AD141" s="23"/>
       <c r="AG141" s="23"/>
@@ -7983,7 +8219,7 @@
       <c r="BE141" s="23"/>
       <c r="BF141" s="23"/>
     </row>
-    <row r="142" spans="26:58" thickTop="1" thickBot="1">
+    <row r="142" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z142" s="23"/>
       <c r="AD142" s="23"/>
       <c r="AG142" s="23"/>
@@ -7992,7 +8228,7 @@
       <c r="BE142" s="23"/>
       <c r="BF142" s="23"/>
     </row>
-    <row r="143" spans="26:58" thickTop="1" thickBot="1">
+    <row r="143" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z143" s="23"/>
       <c r="AD143" s="23"/>
       <c r="AG143" s="23"/>
@@ -8001,7 +8237,7 @@
       <c r="BE143" s="23"/>
       <c r="BF143" s="23"/>
     </row>
-    <row r="144" spans="26:58" thickTop="1" thickBot="1">
+    <row r="144" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z144" s="23"/>
       <c r="AD144" s="23"/>
       <c r="AG144" s="23"/>
@@ -8010,7 +8246,7 @@
       <c r="BE144" s="23"/>
       <c r="BF144" s="23"/>
     </row>
-    <row r="145" spans="26:58" thickTop="1" thickBot="1">
+    <row r="145" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z145" s="23"/>
       <c r="AD145" s="23"/>
       <c r="AG145" s="23"/>
@@ -8019,7 +8255,7 @@
       <c r="BE145" s="23"/>
       <c r="BF145" s="23"/>
     </row>
-    <row r="146" spans="26:58" thickTop="1" thickBot="1">
+    <row r="146" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z146" s="23"/>
       <c r="AD146" s="23"/>
       <c r="AG146" s="23"/>
@@ -8028,7 +8264,7 @@
       <c r="BE146" s="23"/>
       <c r="BF146" s="23"/>
     </row>
-    <row r="147" spans="26:58" thickTop="1" thickBot="1">
+    <row r="147" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z147" s="23"/>
       <c r="AD147" s="23"/>
       <c r="AG147" s="23"/>
@@ -8037,7 +8273,7 @@
       <c r="BE147" s="23"/>
       <c r="BF147" s="23"/>
     </row>
-    <row r="148" spans="26:58" thickTop="1" thickBot="1">
+    <row r="148" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z148" s="23"/>
       <c r="AD148" s="23"/>
       <c r="AG148" s="23"/>
@@ -8046,7 +8282,7 @@
       <c r="BE148" s="23"/>
       <c r="BF148" s="23"/>
     </row>
-    <row r="149" spans="26:58" thickTop="1" thickBot="1">
+    <row r="149" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z149" s="23"/>
       <c r="AD149" s="23"/>
       <c r="AG149" s="23"/>
@@ -8055,7 +8291,7 @@
       <c r="BE149" s="23"/>
       <c r="BF149" s="23"/>
     </row>
-    <row r="150" spans="26:58" thickTop="1" thickBot="1">
+    <row r="150" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z150" s="23"/>
       <c r="AD150" s="23"/>
       <c r="AG150" s="23"/>
@@ -8064,7 +8300,7 @@
       <c r="BE150" s="23"/>
       <c r="BF150" s="23"/>
     </row>
-    <row r="151" spans="26:58" thickTop="1" thickBot="1">
+    <row r="151" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z151" s="23"/>
       <c r="AD151" s="23"/>
       <c r="AG151" s="23"/>
@@ -8073,7 +8309,7 @@
       <c r="BE151" s="23"/>
       <c r="BF151" s="23"/>
     </row>
-    <row r="152" spans="26:58" thickTop="1" thickBot="1">
+    <row r="152" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z152" s="23"/>
       <c r="AD152" s="23"/>
       <c r="AG152" s="23"/>
@@ -8082,7 +8318,7 @@
       <c r="BE152" s="23"/>
       <c r="BF152" s="23"/>
     </row>
-    <row r="153" spans="26:58" thickTop="1" thickBot="1">
+    <row r="153" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z153" s="23"/>
       <c r="AD153" s="23"/>
       <c r="AG153" s="23"/>
@@ -8091,7 +8327,7 @@
       <c r="BE153" s="23"/>
       <c r="BF153" s="23"/>
     </row>
-    <row r="154" spans="26:58" thickTop="1" thickBot="1">
+    <row r="154" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z154" s="23"/>
       <c r="AD154" s="23"/>
       <c r="AG154" s="23"/>
@@ -8100,7 +8336,7 @@
       <c r="BE154" s="23"/>
       <c r="BF154" s="23"/>
     </row>
-    <row r="155" spans="26:58" thickTop="1" thickBot="1">
+    <row r="155" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z155" s="23"/>
       <c r="AD155" s="23"/>
       <c r="AG155" s="23"/>
@@ -8109,7 +8345,7 @@
       <c r="BE155" s="23"/>
       <c r="BF155" s="23"/>
     </row>
-    <row r="156" spans="26:58" thickTop="1" thickBot="1">
+    <row r="156" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z156" s="23"/>
       <c r="AD156" s="23"/>
       <c r="AG156" s="23"/>
@@ -8118,7 +8354,7 @@
       <c r="BE156" s="23"/>
       <c r="BF156" s="23"/>
     </row>
-    <row r="157" spans="26:58" thickTop="1" thickBot="1">
+    <row r="157" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z157" s="23"/>
       <c r="AD157" s="23"/>
       <c r="AG157" s="23"/>
@@ -8127,7 +8363,7 @@
       <c r="BE157" s="23"/>
       <c r="BF157" s="23"/>
     </row>
-    <row r="158" spans="26:58" thickTop="1" thickBot="1">
+    <row r="158" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z158" s="23"/>
       <c r="AD158" s="23"/>
       <c r="AG158" s="23"/>
@@ -8136,7 +8372,7 @@
       <c r="BE158" s="23"/>
       <c r="BF158" s="23"/>
     </row>
-    <row r="159" spans="26:58" thickTop="1" thickBot="1">
+    <row r="159" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z159" s="23"/>
       <c r="AD159" s="23"/>
       <c r="AG159" s="23"/>
@@ -8145,7 +8381,7 @@
       <c r="BE159" s="23"/>
       <c r="BF159" s="23"/>
     </row>
-    <row r="160" spans="26:58" thickTop="1" thickBot="1">
+    <row r="160" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z160" s="23"/>
       <c r="AD160" s="23"/>
       <c r="AG160" s="23"/>
@@ -8154,7 +8390,7 @@
       <c r="BE160" s="23"/>
       <c r="BF160" s="23"/>
     </row>
-    <row r="161" spans="26:58" thickTop="1" thickBot="1">
+    <row r="161" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z161" s="23"/>
       <c r="AD161" s="23"/>
       <c r="AG161" s="23"/>
@@ -8163,7 +8399,7 @@
       <c r="BE161" s="23"/>
       <c r="BF161" s="23"/>
     </row>
-    <row r="162" spans="26:58" thickTop="1" thickBot="1">
+    <row r="162" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z162" s="23"/>
       <c r="AD162" s="23"/>
       <c r="AG162" s="23"/>
@@ -8172,7 +8408,7 @@
       <c r="BE162" s="23"/>
       <c r="BF162" s="23"/>
     </row>
-    <row r="163" spans="26:58" thickTop="1" thickBot="1">
+    <row r="163" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z163" s="23"/>
       <c r="AD163" s="23"/>
       <c r="AG163" s="23"/>
@@ -8181,7 +8417,7 @@
       <c r="BE163" s="23"/>
       <c r="BF163" s="23"/>
     </row>
-    <row r="164" spans="26:58" thickTop="1" thickBot="1">
+    <row r="164" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z164" s="23"/>
       <c r="AD164" s="23"/>
       <c r="AG164" s="23"/>
@@ -8190,7 +8426,7 @@
       <c r="BE164" s="23"/>
       <c r="BF164" s="23"/>
     </row>
-    <row r="165" spans="26:58" thickTop="1" thickBot="1">
+    <row r="165" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z165" s="23"/>
       <c r="AD165" s="23"/>
       <c r="AG165" s="23"/>
@@ -8199,7 +8435,7 @@
       <c r="BE165" s="23"/>
       <c r="BF165" s="23"/>
     </row>
-    <row r="166" spans="26:58" thickTop="1" thickBot="1">
+    <row r="166" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z166" s="23"/>
       <c r="AD166" s="23"/>
       <c r="AG166" s="23"/>
@@ -8208,7 +8444,7 @@
       <c r="BE166" s="23"/>
       <c r="BF166" s="23"/>
     </row>
-    <row r="167" spans="26:58" thickTop="1" thickBot="1">
+    <row r="167" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z167" s="23"/>
       <c r="AD167" s="23"/>
       <c r="AG167" s="23"/>
@@ -8217,7 +8453,7 @@
       <c r="BE167" s="23"/>
       <c r="BF167" s="23"/>
     </row>
-    <row r="168" spans="26:58" thickTop="1" thickBot="1">
+    <row r="168" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z168" s="23"/>
       <c r="AD168" s="23"/>
       <c r="AG168" s="23"/>
@@ -8226,7 +8462,7 @@
       <c r="BE168" s="23"/>
       <c r="BF168" s="23"/>
     </row>
-    <row r="169" spans="26:58" thickTop="1" thickBot="1">
+    <row r="169" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z169" s="23"/>
       <c r="AD169" s="23"/>
       <c r="AG169" s="23"/>
@@ -8235,7 +8471,7 @@
       <c r="BE169" s="23"/>
       <c r="BF169" s="23"/>
     </row>
-    <row r="170" spans="26:58" thickTop="1" thickBot="1">
+    <row r="170" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z170" s="23"/>
       <c r="AD170" s="23"/>
       <c r="AG170" s="23"/>
@@ -8244,7 +8480,7 @@
       <c r="BE170" s="23"/>
       <c r="BF170" s="23"/>
     </row>
-    <row r="171" spans="26:58" thickTop="1" thickBot="1">
+    <row r="171" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z171" s="23"/>
       <c r="AD171" s="23"/>
       <c r="AG171" s="23"/>
@@ -8253,7 +8489,7 @@
       <c r="BE171" s="23"/>
       <c r="BF171" s="23"/>
     </row>
-    <row r="172" spans="26:58" thickTop="1" thickBot="1">
+    <row r="172" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z172" s="23"/>
       <c r="AD172" s="23"/>
       <c r="AG172" s="23"/>
@@ -8262,7 +8498,7 @@
       <c r="BE172" s="23"/>
       <c r="BF172" s="23"/>
     </row>
-    <row r="173" spans="26:58" thickTop="1" thickBot="1">
+    <row r="173" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z173" s="23"/>
       <c r="AD173" s="23"/>
       <c r="AG173" s="23"/>
@@ -8271,7 +8507,7 @@
       <c r="BE173" s="23"/>
       <c r="BF173" s="23"/>
     </row>
-    <row r="174" spans="26:58" thickTop="1" thickBot="1">
+    <row r="174" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z174" s="23"/>
       <c r="AD174" s="23"/>
       <c r="AG174" s="23"/>
@@ -8280,7 +8516,7 @@
       <c r="BE174" s="23"/>
       <c r="BF174" s="23"/>
     </row>
-    <row r="175" spans="26:58" thickTop="1" thickBot="1">
+    <row r="175" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z175" s="23"/>
       <c r="AD175" s="23"/>
       <c r="AG175" s="23"/>
@@ -8289,7 +8525,7 @@
       <c r="BE175" s="23"/>
       <c r="BF175" s="23"/>
     </row>
-    <row r="176" spans="26:58" thickTop="1" thickBot="1">
+    <row r="176" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z176" s="23"/>
       <c r="AD176" s="23"/>
       <c r="AG176" s="23"/>
@@ -8298,7 +8534,7 @@
       <c r="BE176" s="23"/>
       <c r="BF176" s="23"/>
     </row>
-    <row r="177" spans="26:58" thickTop="1" thickBot="1">
+    <row r="177" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z177" s="23"/>
       <c r="AD177" s="23"/>
       <c r="AG177" s="23"/>
@@ -8307,7 +8543,7 @@
       <c r="BE177" s="23"/>
       <c r="BF177" s="23"/>
     </row>
-    <row r="178" spans="26:58" thickTop="1" thickBot="1">
+    <row r="178" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z178" s="23"/>
       <c r="AD178" s="23"/>
       <c r="AG178" s="23"/>
@@ -8316,7 +8552,7 @@
       <c r="BE178" s="23"/>
       <c r="BF178" s="23"/>
     </row>
-    <row r="179" spans="26:58" thickTop="1" thickBot="1">
+    <row r="179" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z179" s="23"/>
       <c r="AD179" s="23"/>
       <c r="AG179" s="23"/>
@@ -8325,7 +8561,7 @@
       <c r="BE179" s="23"/>
       <c r="BF179" s="23"/>
     </row>
-    <row r="180" spans="26:58" thickTop="1" thickBot="1">
+    <row r="180" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z180" s="23"/>
       <c r="AD180" s="23"/>
       <c r="AG180" s="23"/>
@@ -8334,7 +8570,7 @@
       <c r="BE180" s="23"/>
       <c r="BF180" s="23"/>
     </row>
-    <row r="181" spans="26:58" thickTop="1" thickBot="1">
+    <row r="181" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z181" s="23"/>
       <c r="AD181" s="23"/>
       <c r="AG181" s="23"/>
@@ -8343,7 +8579,7 @@
       <c r="BE181" s="23"/>
       <c r="BF181" s="23"/>
     </row>
-    <row r="182" spans="26:58" thickTop="1" thickBot="1">
+    <row r="182" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z182" s="23"/>
       <c r="AD182" s="23"/>
       <c r="AG182" s="23"/>
@@ -8352,7 +8588,7 @@
       <c r="BE182" s="23"/>
       <c r="BF182" s="23"/>
     </row>
-    <row r="183" spans="26:58" thickTop="1" thickBot="1">
+    <row r="183" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z183" s="23"/>
       <c r="AD183" s="23"/>
       <c r="AG183" s="23"/>
@@ -8361,7 +8597,7 @@
       <c r="BE183" s="23"/>
       <c r="BF183" s="23"/>
     </row>
-    <row r="184" spans="26:58" thickTop="1" thickBot="1">
+    <row r="184" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z184" s="23"/>
       <c r="AD184" s="23"/>
       <c r="AG184" s="23"/>
@@ -8370,7 +8606,7 @@
       <c r="BE184" s="23"/>
       <c r="BF184" s="23"/>
     </row>
-    <row r="185" spans="26:58" thickTop="1" thickBot="1">
+    <row r="185" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z185" s="23"/>
       <c r="AG185" s="23"/>
       <c r="AI185" s="23"/>
@@ -8378,7 +8614,7 @@
       <c r="BE185" s="23"/>
       <c r="BF185" s="23"/>
     </row>
-    <row r="186" spans="26:58" thickTop="1" thickBot="1">
+    <row r="186" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z186" s="23"/>
       <c r="AG186" s="23"/>
       <c r="AI186" s="23"/>
@@ -8386,1692 +8622,1692 @@
       <c r="BE186" s="23"/>
       <c r="BF186" s="23"/>
     </row>
-    <row r="187" spans="26:58" thickTop="1" thickBot="1">
+    <row r="187" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AG187" s="23"/>
       <c r="AI187" s="23"/>
       <c r="AQ187" s="30"/>
       <c r="BE187" s="23"/>
       <c r="BF187" s="23"/>
     </row>
-    <row r="188" spans="26:58" thickTop="1" thickBot="1">
+    <row r="188" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AG188" s="23"/>
       <c r="AI188" s="23"/>
       <c r="AQ188" s="30"/>
       <c r="BE188" s="23"/>
       <c r="BF188" s="23"/>
     </row>
-    <row r="189" spans="26:58" thickTop="1" thickBot="1">
+    <row r="189" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI189" s="23"/>
       <c r="AQ189" s="30"/>
       <c r="BE189" s="23"/>
       <c r="BF189" s="23"/>
     </row>
-    <row r="190" spans="26:58" thickTop="1" thickBot="1">
+    <row r="190" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI190" s="23"/>
       <c r="AQ190" s="30"/>
       <c r="BE190" s="23"/>
       <c r="BF190" s="23"/>
     </row>
-    <row r="191" spans="26:58" thickTop="1" thickBot="1">
+    <row r="191" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI191" s="23"/>
       <c r="AQ191" s="30"/>
       <c r="BE191" s="23"/>
       <c r="BF191" s="23"/>
     </row>
-    <row r="192" spans="26:58" thickTop="1" thickBot="1">
+    <row r="192" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI192" s="23"/>
       <c r="AQ192" s="30"/>
       <c r="BE192" s="23"/>
       <c r="BF192" s="23"/>
     </row>
-    <row r="193" spans="35:58" thickTop="1" thickBot="1">
+    <row r="193" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI193" s="23"/>
       <c r="AQ193" s="30"/>
       <c r="BE193" s="23"/>
       <c r="BF193" s="23"/>
     </row>
-    <row r="194" spans="35:58" thickTop="1" thickBot="1">
+    <row r="194" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI194" s="23"/>
       <c r="AQ194" s="30"/>
       <c r="BE194" s="23"/>
       <c r="BF194" s="23"/>
     </row>
-    <row r="195" spans="35:58" thickTop="1" thickBot="1">
+    <row r="195" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI195" s="23"/>
       <c r="AQ195" s="30"/>
       <c r="BE195" s="23"/>
       <c r="BF195" s="23"/>
     </row>
-    <row r="196" spans="35:58" thickTop="1" thickBot="1">
+    <row r="196" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI196" s="23"/>
       <c r="AQ196" s="30"/>
       <c r="BE196" s="23"/>
       <c r="BF196" s="23"/>
     </row>
-    <row r="197" spans="35:58" thickTop="1" thickBot="1">
+    <row r="197" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI197" s="23"/>
       <c r="AQ197" s="30"/>
       <c r="BE197" s="23"/>
       <c r="BF197" s="23"/>
     </row>
-    <row r="198" spans="35:58" thickTop="1" thickBot="1">
+    <row r="198" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI198" s="23"/>
       <c r="AQ198" s="30"/>
       <c r="BE198" s="23"/>
       <c r="BF198" s="23"/>
     </row>
-    <row r="199" spans="35:58" thickTop="1" thickBot="1">
+    <row r="199" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI199" s="23"/>
       <c r="AQ199" s="30"/>
       <c r="BE199" s="23"/>
       <c r="BF199" s="23"/>
     </row>
-    <row r="200" spans="35:58" thickTop="1" thickBot="1">
+    <row r="200" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI200" s="23"/>
       <c r="AQ200" s="30"/>
       <c r="BE200" s="23"/>
       <c r="BF200" s="23"/>
     </row>
-    <row r="201" spans="35:58" thickTop="1" thickBot="1">
+    <row r="201" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI201" s="23"/>
       <c r="AQ201" s="30"/>
       <c r="BE201" s="23"/>
       <c r="BF201" s="23"/>
     </row>
-    <row r="202" spans="35:58" thickTop="1" thickBot="1">
+    <row r="202" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI202" s="23"/>
       <c r="AQ202" s="30"/>
       <c r="BE202" s="23"/>
       <c r="BF202" s="23"/>
     </row>
-    <row r="203" spans="35:58" thickTop="1" thickBot="1">
+    <row r="203" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI203" s="23"/>
       <c r="AQ203" s="30"/>
       <c r="BE203" s="23"/>
       <c r="BF203" s="23"/>
     </row>
-    <row r="204" spans="35:58" thickTop="1" thickBot="1">
+    <row r="204" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI204" s="23"/>
       <c r="AQ204" s="30"/>
       <c r="BE204" s="23"/>
       <c r="BF204" s="23"/>
     </row>
-    <row r="205" spans="35:58" thickTop="1" thickBot="1">
+    <row r="205" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI205" s="23"/>
       <c r="AQ205" s="30"/>
       <c r="BE205" s="23"/>
       <c r="BF205" s="23"/>
     </row>
-    <row r="206" spans="35:58" thickTop="1" thickBot="1">
+    <row r="206" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI206" s="23"/>
       <c r="AQ206" s="30"/>
       <c r="BE206" s="23"/>
       <c r="BF206" s="23"/>
     </row>
-    <row r="207" spans="35:58" thickTop="1" thickBot="1">
+    <row r="207" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI207" s="23"/>
       <c r="AQ207" s="30"/>
       <c r="BE207" s="23"/>
       <c r="BF207" s="23"/>
     </row>
-    <row r="208" spans="35:58" thickTop="1" thickBot="1">
+    <row r="208" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI208" s="23"/>
       <c r="AQ208" s="30"/>
       <c r="BE208" s="23"/>
       <c r="BF208" s="23"/>
     </row>
-    <row r="209" spans="35:58" thickTop="1" thickBot="1">
+    <row r="209" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI209" s="23"/>
       <c r="AQ209" s="30"/>
       <c r="BE209" s="23"/>
       <c r="BF209" s="23"/>
     </row>
-    <row r="210" spans="35:58" thickTop="1" thickBot="1">
+    <row r="210" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI210" s="23"/>
       <c r="AQ210" s="30"/>
       <c r="BE210" s="23"/>
       <c r="BF210" s="23"/>
     </row>
-    <row r="211" spans="35:58" thickTop="1" thickBot="1">
+    <row r="211" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI211" s="23"/>
       <c r="AQ211" s="30"/>
       <c r="BE211" s="23"/>
       <c r="BF211" s="23"/>
     </row>
-    <row r="212" spans="35:58" thickTop="1" thickBot="1">
+    <row r="212" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI212" s="23"/>
       <c r="AQ212" s="30"/>
       <c r="BE212" s="23"/>
       <c r="BF212" s="23"/>
     </row>
-    <row r="213" spans="35:58" thickTop="1" thickBot="1">
+    <row r="213" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI213" s="23"/>
       <c r="AQ213" s="30"/>
       <c r="BE213" s="23"/>
       <c r="BF213" s="23"/>
     </row>
-    <row r="214" spans="35:58" thickTop="1" thickBot="1">
+    <row r="214" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI214" s="23"/>
       <c r="AQ214" s="30"/>
       <c r="BE214" s="23"/>
       <c r="BF214" s="23"/>
     </row>
-    <row r="215" spans="35:58" thickTop="1" thickBot="1">
+    <row r="215" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI215" s="23"/>
       <c r="AQ215" s="30"/>
       <c r="BE215" s="23"/>
       <c r="BF215" s="23"/>
     </row>
-    <row r="216" spans="35:58" thickTop="1" thickBot="1">
+    <row r="216" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI216" s="23"/>
       <c r="AQ216" s="30"/>
       <c r="BE216" s="23"/>
       <c r="BF216" s="23"/>
     </row>
-    <row r="217" spans="35:58" thickTop="1" thickBot="1">
+    <row r="217" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI217" s="23"/>
       <c r="AQ217" s="30"/>
       <c r="BE217" s="23"/>
       <c r="BF217" s="23"/>
     </row>
-    <row r="218" spans="35:58" thickTop="1" thickBot="1">
+    <row r="218" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI218" s="23"/>
       <c r="AQ218" s="30"/>
       <c r="BE218" s="23"/>
       <c r="BF218" s="23"/>
     </row>
-    <row r="219" spans="35:58" thickTop="1" thickBot="1">
+    <row r="219" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI219" s="23"/>
       <c r="AQ219" s="30"/>
       <c r="BE219" s="23"/>
       <c r="BF219" s="23"/>
     </row>
-    <row r="220" spans="35:58" thickTop="1" thickBot="1">
+    <row r="220" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI220" s="23"/>
       <c r="AQ220" s="30"/>
       <c r="BE220" s="23"/>
       <c r="BF220" s="23"/>
     </row>
-    <row r="221" spans="35:58" thickTop="1" thickBot="1">
+    <row r="221" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI221" s="23"/>
       <c r="AQ221" s="30"/>
       <c r="BE221" s="23"/>
       <c r="BF221" s="23"/>
     </row>
-    <row r="222" spans="35:58" thickTop="1" thickBot="1">
+    <row r="222" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI222" s="23"/>
       <c r="AQ222" s="30"/>
       <c r="BE222" s="23"/>
       <c r="BF222" s="23"/>
     </row>
-    <row r="223" spans="35:58" thickTop="1" thickBot="1">
+    <row r="223" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI223" s="23"/>
       <c r="AQ223" s="30"/>
       <c r="BE223" s="23"/>
       <c r="BF223" s="23"/>
     </row>
-    <row r="224" spans="35:58" thickTop="1" thickBot="1">
+    <row r="224" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI224" s="23"/>
       <c r="AQ224" s="30"/>
       <c r="BE224" s="23"/>
       <c r="BF224" s="23"/>
     </row>
-    <row r="225" spans="35:58" thickTop="1" thickBot="1">
+    <row r="225" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI225" s="23"/>
       <c r="AQ225" s="30"/>
       <c r="BE225" s="23"/>
       <c r="BF225" s="23"/>
     </row>
-    <row r="226" spans="35:58" thickTop="1" thickBot="1">
+    <row r="226" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI226" s="23"/>
       <c r="AQ226" s="30"/>
       <c r="BE226" s="23"/>
       <c r="BF226" s="23"/>
     </row>
-    <row r="227" spans="35:58" thickTop="1" thickBot="1">
+    <row r="227" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI227" s="23"/>
       <c r="AQ227" s="30"/>
       <c r="BE227" s="23"/>
       <c r="BF227" s="23"/>
     </row>
-    <row r="228" spans="35:58" thickTop="1" thickBot="1">
+    <row r="228" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI228" s="23"/>
       <c r="AQ228" s="30"/>
       <c r="BE228" s="23"/>
       <c r="BF228" s="23"/>
     </row>
-    <row r="229" spans="35:58" thickTop="1" thickBot="1">
+    <row r="229" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI229" s="23"/>
       <c r="AQ229" s="30"/>
       <c r="BE229" s="23"/>
       <c r="BF229" s="23"/>
     </row>
-    <row r="230" spans="35:58" thickTop="1" thickBot="1">
+    <row r="230" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI230" s="23"/>
       <c r="AQ230" s="30"/>
       <c r="BE230" s="23"/>
       <c r="BF230" s="23"/>
     </row>
-    <row r="231" spans="35:58" thickTop="1" thickBot="1">
+    <row r="231" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI231" s="23"/>
       <c r="AQ231" s="30"/>
       <c r="BE231" s="23"/>
       <c r="BF231" s="23"/>
     </row>
-    <row r="232" spans="35:58" thickTop="1" thickBot="1">
+    <row r="232" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI232" s="23"/>
       <c r="AQ232" s="30"/>
       <c r="BE232" s="23"/>
       <c r="BF232" s="23"/>
     </row>
-    <row r="233" spans="35:58" thickTop="1" thickBot="1">
+    <row r="233" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI233" s="23"/>
       <c r="AQ233" s="30"/>
       <c r="BE233" s="23"/>
       <c r="BF233" s="23"/>
     </row>
-    <row r="234" spans="35:58" thickTop="1" thickBot="1">
+    <row r="234" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI234" s="23"/>
       <c r="AQ234" s="30"/>
       <c r="BE234" s="23"/>
       <c r="BF234" s="23"/>
     </row>
-    <row r="235" spans="35:58" thickTop="1" thickBot="1">
+    <row r="235" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI235" s="23"/>
       <c r="AQ235" s="30"/>
       <c r="BE235" s="23"/>
       <c r="BF235" s="23"/>
     </row>
-    <row r="236" spans="35:58" thickTop="1" thickBot="1">
+    <row r="236" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI236" s="23"/>
       <c r="AQ236" s="30"/>
       <c r="BE236" s="23"/>
       <c r="BF236" s="23"/>
     </row>
-    <row r="237" spans="35:58" thickTop="1" thickBot="1">
+    <row r="237" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI237" s="23"/>
       <c r="AQ237" s="30"/>
       <c r="BE237" s="23"/>
       <c r="BF237" s="23"/>
     </row>
-    <row r="238" spans="35:58" thickTop="1" thickBot="1">
+    <row r="238" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI238" s="23"/>
       <c r="AQ238" s="30"/>
       <c r="BE238" s="23"/>
       <c r="BF238" s="23"/>
     </row>
-    <row r="239" spans="35:58" thickTop="1" thickBot="1">
+    <row r="239" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI239" s="23"/>
       <c r="AQ239" s="30"/>
       <c r="BE239" s="23"/>
       <c r="BF239" s="23"/>
     </row>
-    <row r="240" spans="35:58" thickTop="1" thickBot="1">
+    <row r="240" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI240" s="23"/>
       <c r="AQ240" s="30"/>
       <c r="BE240" s="23"/>
       <c r="BF240" s="23"/>
     </row>
-    <row r="241" spans="35:58" thickTop="1" thickBot="1">
+    <row r="241" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI241" s="23"/>
       <c r="AQ241" s="30"/>
       <c r="BE241" s="23"/>
       <c r="BF241" s="23"/>
     </row>
-    <row r="242" spans="35:58" thickTop="1" thickBot="1">
+    <row r="242" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI242" s="23"/>
       <c r="AQ242" s="30"/>
       <c r="BE242" s="23"/>
       <c r="BF242" s="23"/>
     </row>
-    <row r="243" spans="35:58" thickTop="1" thickBot="1">
+    <row r="243" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI243" s="23"/>
       <c r="AQ243" s="30"/>
       <c r="BE243" s="23"/>
       <c r="BF243" s="23"/>
     </row>
-    <row r="244" spans="35:58" thickTop="1" thickBot="1">
+    <row r="244" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI244" s="23"/>
       <c r="AQ244" s="30"/>
       <c r="BE244" s="23"/>
       <c r="BF244" s="23"/>
     </row>
-    <row r="245" spans="35:58" thickTop="1" thickBot="1">
+    <row r="245" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI245" s="23"/>
       <c r="AQ245" s="30"/>
       <c r="BE245" s="23"/>
       <c r="BF245" s="23"/>
     </row>
-    <row r="246" spans="35:58" thickTop="1" thickBot="1">
+    <row r="246" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI246" s="23"/>
       <c r="AQ246" s="30"/>
       <c r="BE246" s="23"/>
       <c r="BF246" s="23"/>
     </row>
-    <row r="247" spans="35:58" thickTop="1" thickBot="1">
+    <row r="247" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI247" s="23"/>
       <c r="AQ247" s="30"/>
       <c r="BE247" s="23"/>
       <c r="BF247" s="23"/>
     </row>
-    <row r="248" spans="35:58" thickTop="1" thickBot="1">
+    <row r="248" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI248" s="23"/>
       <c r="AQ248" s="30"/>
       <c r="BE248" s="23"/>
       <c r="BF248" s="23"/>
     </row>
-    <row r="249" spans="35:58" thickTop="1" thickBot="1">
+    <row r="249" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI249" s="23"/>
       <c r="AQ249" s="30"/>
       <c r="BE249" s="23"/>
       <c r="BF249" s="23"/>
     </row>
-    <row r="250" spans="35:58" thickTop="1" thickBot="1">
+    <row r="250" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI250" s="23"/>
       <c r="AQ250" s="30"/>
       <c r="BE250" s="23"/>
       <c r="BF250" s="23"/>
     </row>
-    <row r="251" spans="35:58" thickTop="1" thickBot="1">
+    <row r="251" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI251" s="23"/>
       <c r="AQ251" s="30"/>
       <c r="BE251" s="23"/>
       <c r="BF251" s="23"/>
     </row>
-    <row r="252" spans="35:58" thickTop="1" thickBot="1">
+    <row r="252" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI252" s="23"/>
       <c r="AQ252" s="30"/>
       <c r="BE252" s="23"/>
       <c r="BF252" s="23"/>
     </row>
-    <row r="253" spans="35:58" thickTop="1" thickBot="1">
+    <row r="253" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI253" s="23"/>
       <c r="AQ253" s="30"/>
       <c r="BE253" s="23"/>
       <c r="BF253" s="23"/>
     </row>
-    <row r="254" spans="35:58" thickTop="1" thickBot="1">
+    <row r="254" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI254" s="23"/>
       <c r="AQ254" s="30"/>
       <c r="BE254" s="23"/>
       <c r="BF254" s="23"/>
     </row>
-    <row r="255" spans="35:58" thickTop="1" thickBot="1">
+    <row r="255" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI255" s="23"/>
       <c r="AQ255" s="30"/>
       <c r="BE255" s="23"/>
       <c r="BF255" s="23"/>
     </row>
-    <row r="256" spans="35:58" thickTop="1" thickBot="1">
+    <row r="256" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI256" s="23"/>
       <c r="AQ256" s="30"/>
       <c r="BE256" s="23"/>
       <c r="BF256" s="23"/>
     </row>
-    <row r="257" spans="35:58" thickTop="1" thickBot="1">
+    <row r="257" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI257" s="23"/>
       <c r="AQ257" s="30"/>
       <c r="BE257" s="23"/>
       <c r="BF257" s="23"/>
     </row>
-    <row r="258" spans="35:58" thickTop="1" thickBot="1">
+    <row r="258" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI258" s="23"/>
       <c r="AQ258" s="30"/>
       <c r="BE258" s="23"/>
       <c r="BF258" s="23"/>
     </row>
-    <row r="259" spans="35:58" thickTop="1" thickBot="1">
+    <row r="259" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI259" s="23"/>
       <c r="AQ259" s="30"/>
       <c r="BE259" s="23"/>
       <c r="BF259" s="23"/>
     </row>
-    <row r="260" spans="35:58" thickTop="1" thickBot="1">
+    <row r="260" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI260" s="23"/>
       <c r="AQ260" s="30"/>
       <c r="BE260" s="23"/>
       <c r="BF260" s="23"/>
     </row>
-    <row r="261" spans="35:58" thickTop="1" thickBot="1">
+    <row r="261" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI261" s="23"/>
       <c r="AQ261" s="30"/>
       <c r="BE261" s="23"/>
       <c r="BF261" s="23"/>
     </row>
-    <row r="262" spans="35:58" thickTop="1" thickBot="1">
+    <row r="262" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI262" s="23"/>
       <c r="AQ262" s="30"/>
       <c r="BE262" s="23"/>
       <c r="BF262" s="23"/>
     </row>
-    <row r="263" spans="35:58" thickTop="1" thickBot="1">
+    <row r="263" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI263" s="23"/>
       <c r="AQ263" s="30"/>
       <c r="BE263" s="23"/>
       <c r="BF263" s="23"/>
     </row>
-    <row r="264" spans="35:58" thickTop="1" thickBot="1">
+    <row r="264" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI264" s="23"/>
       <c r="AQ264" s="30"/>
       <c r="BE264" s="23"/>
       <c r="BF264" s="23"/>
     </row>
-    <row r="265" spans="35:58" thickTop="1" thickBot="1">
+    <row r="265" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI265" s="23"/>
       <c r="AQ265" s="30"/>
       <c r="BE265" s="23"/>
       <c r="BF265" s="23"/>
     </row>
-    <row r="266" spans="35:58" thickTop="1" thickBot="1">
+    <row r="266" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI266" s="23"/>
       <c r="AQ266" s="30"/>
       <c r="BE266" s="23"/>
       <c r="BF266" s="23"/>
     </row>
-    <row r="267" spans="35:58" thickTop="1" thickBot="1">
+    <row r="267" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI267" s="23"/>
       <c r="AQ267" s="30"/>
       <c r="BE267" s="23"/>
       <c r="BF267" s="23"/>
     </row>
-    <row r="268" spans="35:58" thickTop="1" thickBot="1">
+    <row r="268" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI268" s="23"/>
       <c r="AQ268" s="30"/>
       <c r="BE268" s="23"/>
       <c r="BF268" s="23"/>
     </row>
-    <row r="269" spans="35:58" thickTop="1" thickBot="1">
+    <row r="269" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI269" s="23"/>
       <c r="AQ269" s="30"/>
       <c r="BE269" s="23"/>
       <c r="BF269" s="23"/>
     </row>
-    <row r="270" spans="35:58" thickTop="1" thickBot="1">
+    <row r="270" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI270" s="23"/>
       <c r="AQ270" s="30"/>
       <c r="BE270" s="23"/>
       <c r="BF270" s="23"/>
     </row>
-    <row r="271" spans="35:58" thickTop="1" thickBot="1">
+    <row r="271" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI271" s="23"/>
       <c r="AQ271" s="30"/>
       <c r="BE271" s="23"/>
       <c r="BF271" s="23"/>
     </row>
-    <row r="272" spans="35:58" thickTop="1" thickBot="1">
+    <row r="272" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI272" s="23"/>
       <c r="AQ272" s="30"/>
       <c r="BE272" s="23"/>
       <c r="BF272" s="23"/>
     </row>
-    <row r="273" spans="35:58" thickTop="1" thickBot="1">
+    <row r="273" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI273" s="23"/>
       <c r="AQ273" s="30"/>
       <c r="BE273" s="23"/>
       <c r="BF273" s="23"/>
     </row>
-    <row r="274" spans="35:58" thickTop="1" thickBot="1">
+    <row r="274" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI274" s="23"/>
       <c r="AQ274" s="30"/>
       <c r="BE274" s="23"/>
       <c r="BF274" s="23"/>
     </row>
-    <row r="275" spans="35:58" thickTop="1" thickBot="1">
+    <row r="275" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI275" s="23"/>
       <c r="AQ275" s="30"/>
       <c r="BE275" s="23"/>
       <c r="BF275" s="23"/>
     </row>
-    <row r="276" spans="35:58" thickTop="1" thickBot="1">
+    <row r="276" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI276" s="23"/>
       <c r="AQ276" s="30"/>
       <c r="BE276" s="23"/>
       <c r="BF276" s="23"/>
     </row>
-    <row r="277" spans="35:58" thickTop="1" thickBot="1">
+    <row r="277" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI277" s="23"/>
       <c r="AQ277" s="30"/>
       <c r="BE277" s="23"/>
       <c r="BF277" s="23"/>
     </row>
-    <row r="278" spans="35:58" thickTop="1" thickBot="1">
+    <row r="278" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI278" s="23"/>
       <c r="AQ278" s="30"/>
       <c r="BE278" s="23"/>
       <c r="BF278" s="23"/>
     </row>
-    <row r="279" spans="35:58" thickTop="1" thickBot="1">
+    <row r="279" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI279" s="23"/>
       <c r="AQ279" s="30"/>
       <c r="BE279" s="23"/>
       <c r="BF279" s="23"/>
     </row>
-    <row r="280" spans="35:58" thickTop="1" thickBot="1">
+    <row r="280" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI280" s="23"/>
       <c r="AQ280" s="30"/>
       <c r="BE280" s="23"/>
       <c r="BF280" s="23"/>
     </row>
-    <row r="281" spans="35:58" thickTop="1" thickBot="1">
+    <row r="281" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI281" s="23"/>
       <c r="AQ281" s="30"/>
       <c r="BE281" s="23"/>
       <c r="BF281" s="23"/>
     </row>
-    <row r="282" spans="35:58" thickTop="1" thickBot="1">
+    <row r="282" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI282" s="23"/>
       <c r="AQ282" s="30"/>
       <c r="BE282" s="23"/>
       <c r="BF282" s="23"/>
     </row>
-    <row r="283" spans="35:58" thickTop="1" thickBot="1">
+    <row r="283" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI283" s="23"/>
       <c r="AQ283" s="30"/>
       <c r="BE283" s="23"/>
       <c r="BF283" s="23"/>
     </row>
-    <row r="284" spans="35:58" thickTop="1" thickBot="1">
+    <row r="284" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI284" s="23"/>
       <c r="AQ284" s="30"/>
       <c r="BE284" s="23"/>
       <c r="BF284" s="23"/>
     </row>
-    <row r="285" spans="35:58" thickTop="1" thickBot="1">
+    <row r="285" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI285" s="23"/>
       <c r="AQ285" s="30"/>
       <c r="BE285" s="23"/>
       <c r="BF285" s="23"/>
     </row>
-    <row r="286" spans="35:58" thickTop="1" thickBot="1">
+    <row r="286" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI286" s="23"/>
       <c r="AQ286" s="30"/>
       <c r="BE286" s="23"/>
       <c r="BF286" s="23"/>
     </row>
-    <row r="287" spans="35:58" thickTop="1" thickBot="1">
+    <row r="287" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI287" s="23"/>
       <c r="AQ287" s="30"/>
       <c r="BE287" s="23"/>
       <c r="BF287" s="23"/>
     </row>
-    <row r="288" spans="35:58" thickTop="1" thickBot="1">
+    <row r="288" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI288" s="23"/>
       <c r="AQ288" s="30"/>
       <c r="BE288" s="23"/>
       <c r="BF288" s="23"/>
     </row>
-    <row r="289" spans="35:58" thickTop="1" thickBot="1">
+    <row r="289" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI289" s="23"/>
       <c r="AQ289" s="30"/>
       <c r="BE289" s="23"/>
       <c r="BF289" s="23"/>
     </row>
-    <row r="290" spans="35:58" thickTop="1" thickBot="1">
+    <row r="290" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI290" s="23"/>
       <c r="AQ290" s="30"/>
       <c r="BE290" s="23"/>
       <c r="BF290" s="23"/>
     </row>
-    <row r="291" spans="35:58" thickTop="1" thickBot="1">
+    <row r="291" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI291" s="23"/>
       <c r="AQ291" s="30"/>
       <c r="BE291" s="23"/>
       <c r="BF291" s="23"/>
     </row>
-    <row r="292" spans="35:58" thickTop="1" thickBot="1">
+    <row r="292" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI292" s="23"/>
       <c r="AQ292" s="30"/>
       <c r="BE292" s="23"/>
       <c r="BF292" s="23"/>
     </row>
-    <row r="293" spans="35:58" thickTop="1" thickBot="1">
+    <row r="293" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI293" s="23"/>
       <c r="AQ293" s="30"/>
       <c r="BE293" s="23"/>
       <c r="BF293" s="23"/>
     </row>
-    <row r="294" spans="35:58" thickTop="1" thickBot="1">
+    <row r="294" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI294" s="23"/>
       <c r="AQ294" s="30"/>
       <c r="BE294" s="23"/>
       <c r="BF294" s="23"/>
     </row>
-    <row r="295" spans="35:58" thickTop="1" thickBot="1">
+    <row r="295" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI295" s="23"/>
       <c r="AQ295" s="30"/>
       <c r="BE295" s="23"/>
       <c r="BF295" s="23"/>
     </row>
-    <row r="296" spans="35:58" thickTop="1" thickBot="1">
+    <row r="296" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI296" s="23"/>
       <c r="AQ296" s="30"/>
       <c r="BE296" s="23"/>
       <c r="BF296" s="23"/>
     </row>
-    <row r="297" spans="35:58" thickTop="1" thickBot="1">
+    <row r="297" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI297" s="23"/>
       <c r="AQ297" s="30"/>
       <c r="BE297" s="23"/>
       <c r="BF297" s="23"/>
     </row>
-    <row r="298" spans="35:58" thickTop="1" thickBot="1">
+    <row r="298" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI298" s="23"/>
       <c r="AQ298" s="30"/>
       <c r="BE298" s="23"/>
       <c r="BF298" s="23"/>
     </row>
-    <row r="299" spans="35:58" thickTop="1" thickBot="1">
+    <row r="299" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI299" s="23"/>
       <c r="AQ299" s="30"/>
       <c r="BE299" s="23"/>
       <c r="BF299" s="23"/>
     </row>
-    <row r="300" spans="35:58" thickTop="1" thickBot="1">
+    <row r="300" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI300" s="23"/>
       <c r="AQ300" s="30"/>
       <c r="BE300" s="23"/>
       <c r="BF300" s="23"/>
     </row>
-    <row r="301" spans="35:58" thickTop="1" thickBot="1">
+    <row r="301" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI301" s="23"/>
       <c r="AQ301" s="30"/>
       <c r="BE301" s="23"/>
       <c r="BF301" s="23"/>
     </row>
-    <row r="302" spans="35:58" thickTop="1" thickBot="1">
+    <row r="302" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI302" s="23"/>
       <c r="AQ302" s="30"/>
       <c r="BE302" s="23"/>
       <c r="BF302" s="23"/>
     </row>
-    <row r="303" spans="35:58" thickTop="1" thickBot="1">
+    <row r="303" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI303" s="23"/>
       <c r="AQ303" s="30"/>
       <c r="BE303" s="23"/>
       <c r="BF303" s="23"/>
     </row>
-    <row r="304" spans="35:58" thickTop="1" thickBot="1">
+    <row r="304" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI304" s="23"/>
       <c r="AQ304" s="30"/>
       <c r="BE304" s="23"/>
       <c r="BF304" s="23"/>
     </row>
-    <row r="305" spans="35:58" thickTop="1" thickBot="1">
+    <row r="305" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI305" s="23"/>
       <c r="AQ305" s="30"/>
       <c r="BE305" s="23"/>
       <c r="BF305" s="23"/>
     </row>
-    <row r="306" spans="35:58" thickTop="1" thickBot="1">
+    <row r="306" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI306" s="23"/>
       <c r="AQ306" s="30"/>
       <c r="BE306" s="23"/>
       <c r="BF306" s="23"/>
     </row>
-    <row r="307" spans="35:58" thickTop="1" thickBot="1">
+    <row r="307" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI307" s="23"/>
       <c r="AQ307" s="30"/>
       <c r="BE307" s="23"/>
       <c r="BF307" s="23"/>
     </row>
-    <row r="308" spans="35:58" thickTop="1" thickBot="1">
+    <row r="308" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI308" s="23"/>
       <c r="AQ308" s="30"/>
       <c r="BE308" s="23"/>
       <c r="BF308" s="23"/>
     </row>
-    <row r="309" spans="35:58" thickTop="1" thickBot="1">
+    <row r="309" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI309" s="23"/>
       <c r="AQ309" s="30"/>
       <c r="BE309" s="23"/>
       <c r="BF309" s="23"/>
     </row>
-    <row r="310" spans="35:58" thickTop="1" thickBot="1">
+    <row r="310" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI310" s="23"/>
       <c r="AQ310" s="30"/>
       <c r="BE310" s="23"/>
       <c r="BF310" s="23"/>
     </row>
-    <row r="311" spans="35:58" thickTop="1" thickBot="1">
+    <row r="311" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI311" s="23"/>
       <c r="AQ311" s="30"/>
       <c r="BE311" s="23"/>
       <c r="BF311" s="23"/>
     </row>
-    <row r="312" spans="35:58" thickTop="1" thickBot="1">
+    <row r="312" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI312" s="23"/>
       <c r="AQ312" s="30"/>
       <c r="BE312" s="23"/>
       <c r="BF312" s="23"/>
     </row>
-    <row r="313" spans="35:58" thickTop="1" thickBot="1">
+    <row r="313" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI313" s="23"/>
       <c r="AQ313" s="30"/>
       <c r="BE313" s="23"/>
       <c r="BF313" s="23"/>
     </row>
-    <row r="314" spans="35:58" thickTop="1" thickBot="1">
+    <row r="314" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI314" s="23"/>
       <c r="AQ314" s="30"/>
       <c r="BE314" s="23"/>
       <c r="BF314" s="23"/>
     </row>
-    <row r="315" spans="35:58" thickTop="1" thickBot="1">
+    <row r="315" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI315" s="23"/>
       <c r="AQ315" s="30"/>
       <c r="BE315" s="23"/>
       <c r="BF315" s="23"/>
     </row>
-    <row r="316" spans="35:58" thickTop="1" thickBot="1">
+    <row r="316" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI316" s="23"/>
       <c r="AQ316" s="30"/>
       <c r="BE316" s="23"/>
       <c r="BF316" s="23"/>
     </row>
-    <row r="317" spans="35:58" thickTop="1" thickBot="1">
+    <row r="317" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI317" s="23"/>
       <c r="AQ317" s="30"/>
       <c r="BE317" s="23"/>
       <c r="BF317" s="23"/>
     </row>
-    <row r="318" spans="35:58" thickTop="1" thickBot="1">
+    <row r="318" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI318" s="23"/>
       <c r="AQ318" s="30"/>
       <c r="BE318" s="23"/>
       <c r="BF318" s="23"/>
     </row>
-    <row r="319" spans="35:58" thickTop="1" thickBot="1">
+    <row r="319" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI319" s="23"/>
       <c r="AQ319" s="30"/>
       <c r="BE319" s="23"/>
       <c r="BF319" s="23"/>
     </row>
-    <row r="320" spans="35:58" thickTop="1" thickBot="1">
+    <row r="320" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI320" s="23"/>
       <c r="AQ320" s="30"/>
       <c r="BE320" s="23"/>
       <c r="BF320" s="23"/>
     </row>
-    <row r="321" spans="35:58" thickTop="1" thickBot="1">
+    <row r="321" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI321" s="23"/>
       <c r="AQ321" s="30"/>
       <c r="BE321" s="23"/>
       <c r="BF321" s="23"/>
     </row>
-    <row r="322" spans="35:58" thickTop="1" thickBot="1">
+    <row r="322" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI322" s="23"/>
       <c r="AQ322" s="30"/>
       <c r="BE322" s="23"/>
       <c r="BF322" s="23"/>
     </row>
-    <row r="323" spans="35:58" thickTop="1" thickBot="1">
+    <row r="323" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI323" s="23"/>
       <c r="AQ323" s="30"/>
       <c r="BE323" s="23"/>
       <c r="BF323" s="23"/>
     </row>
-    <row r="324" spans="35:58" thickTop="1" thickBot="1">
+    <row r="324" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI324" s="23"/>
       <c r="AQ324" s="30"/>
       <c r="BE324" s="23"/>
       <c r="BF324" s="23"/>
     </row>
-    <row r="325" spans="35:58" thickTop="1" thickBot="1">
+    <row r="325" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI325" s="23"/>
       <c r="AQ325" s="30"/>
       <c r="BE325" s="23"/>
       <c r="BF325" s="23"/>
     </row>
-    <row r="326" spans="35:58" thickTop="1" thickBot="1">
+    <row r="326" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI326" s="23"/>
       <c r="AQ326" s="30"/>
       <c r="BE326" s="23"/>
       <c r="BF326" s="23"/>
     </row>
-    <row r="327" spans="35:58" thickTop="1" thickBot="1">
+    <row r="327" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI327" s="23"/>
       <c r="AQ327" s="30"/>
       <c r="BE327" s="23"/>
       <c r="BF327" s="23"/>
     </row>
-    <row r="328" spans="35:58" thickTop="1" thickBot="1">
+    <row r="328" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI328" s="23"/>
       <c r="AQ328" s="30"/>
       <c r="BE328" s="23"/>
       <c r="BF328" s="23"/>
     </row>
-    <row r="329" spans="35:58" thickTop="1" thickBot="1">
+    <row r="329" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI329" s="23"/>
       <c r="AQ329" s="30"/>
       <c r="BE329" s="23"/>
       <c r="BF329" s="23"/>
     </row>
-    <row r="330" spans="35:58" thickTop="1" thickBot="1">
+    <row r="330" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI330" s="23"/>
       <c r="AQ330" s="30"/>
       <c r="BE330" s="23"/>
       <c r="BF330" s="23"/>
     </row>
-    <row r="331" spans="35:58" thickTop="1" thickBot="1">
+    <row r="331" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI331" s="23"/>
       <c r="AQ331" s="30"/>
       <c r="BE331" s="23"/>
       <c r="BF331" s="23"/>
     </row>
-    <row r="332" spans="35:58" thickTop="1" thickBot="1">
+    <row r="332" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI332" s="23"/>
       <c r="AQ332" s="30"/>
       <c r="BE332" s="23"/>
       <c r="BF332" s="23"/>
     </row>
-    <row r="333" spans="35:58" thickTop="1" thickBot="1">
+    <row r="333" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI333" s="23"/>
       <c r="AQ333" s="30"/>
       <c r="BE333" s="23"/>
       <c r="BF333" s="23"/>
     </row>
-    <row r="334" spans="35:58" thickTop="1" thickBot="1">
+    <row r="334" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI334" s="23"/>
       <c r="AQ334" s="30"/>
       <c r="BE334" s="23"/>
       <c r="BF334" s="23"/>
     </row>
-    <row r="335" spans="35:58" thickTop="1" thickBot="1">
+    <row r="335" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI335" s="23"/>
       <c r="AQ335" s="30"/>
       <c r="BE335" s="23"/>
       <c r="BF335" s="23"/>
     </row>
-    <row r="336" spans="35:58" thickTop="1" thickBot="1">
+    <row r="336" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI336" s="23"/>
       <c r="AQ336" s="30"/>
       <c r="BE336" s="23"/>
       <c r="BF336" s="23"/>
     </row>
-    <row r="337" spans="35:58" thickTop="1" thickBot="1">
+    <row r="337" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI337" s="23"/>
       <c r="AQ337" s="30"/>
       <c r="BE337" s="23"/>
       <c r="BF337" s="23"/>
     </row>
-    <row r="338" spans="35:58" thickTop="1" thickBot="1">
+    <row r="338" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI338" s="23"/>
       <c r="AQ338" s="30"/>
       <c r="BE338" s="23"/>
       <c r="BF338" s="23"/>
     </row>
-    <row r="339" spans="35:58" thickTop="1" thickBot="1">
+    <row r="339" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI339" s="23"/>
       <c r="AQ339" s="30"/>
       <c r="BE339" s="23"/>
       <c r="BF339" s="23"/>
     </row>
-    <row r="340" spans="35:58" thickTop="1" thickBot="1">
+    <row r="340" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI340" s="23"/>
       <c r="AQ340" s="30"/>
       <c r="BE340" s="23"/>
       <c r="BF340" s="23"/>
     </row>
-    <row r="341" spans="35:58" thickTop="1" thickBot="1">
+    <row r="341" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI341" s="23"/>
       <c r="AQ341" s="30"/>
       <c r="BE341" s="23"/>
       <c r="BF341" s="23"/>
     </row>
-    <row r="342" spans="35:58" thickTop="1" thickBot="1">
+    <row r="342" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI342" s="23"/>
       <c r="AQ342" s="30"/>
       <c r="BE342" s="23"/>
       <c r="BF342" s="23"/>
     </row>
-    <row r="343" spans="35:58" thickTop="1" thickBot="1">
+    <row r="343" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI343" s="23"/>
       <c r="AQ343" s="30"/>
       <c r="BE343" s="23"/>
       <c r="BF343" s="23"/>
     </row>
-    <row r="344" spans="35:58" thickTop="1" thickBot="1">
+    <row r="344" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI344" s="23"/>
       <c r="AQ344" s="30"/>
       <c r="BE344" s="23"/>
       <c r="BF344" s="23"/>
     </row>
-    <row r="345" spans="35:58" thickTop="1" thickBot="1">
+    <row r="345" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI345" s="23"/>
       <c r="AQ345" s="30"/>
       <c r="BE345" s="23"/>
       <c r="BF345" s="23"/>
     </row>
-    <row r="346" spans="35:58" thickTop="1" thickBot="1">
+    <row r="346" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI346" s="23"/>
       <c r="AQ346" s="30"/>
       <c r="BE346" s="23"/>
       <c r="BF346" s="23"/>
     </row>
-    <row r="347" spans="35:58" thickTop="1" thickBot="1">
+    <row r="347" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI347" s="23"/>
       <c r="AQ347" s="30"/>
       <c r="BE347" s="23"/>
       <c r="BF347" s="23"/>
     </row>
-    <row r="348" spans="35:58" thickTop="1" thickBot="1">
+    <row r="348" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI348" s="23"/>
       <c r="AQ348" s="30"/>
       <c r="BE348" s="23"/>
       <c r="BF348" s="23"/>
     </row>
-    <row r="349" spans="35:58" thickTop="1" thickBot="1">
+    <row r="349" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI349" s="23"/>
       <c r="AQ349" s="30"/>
       <c r="BE349" s="23"/>
       <c r="BF349" s="23"/>
     </row>
-    <row r="350" spans="35:58" thickTop="1" thickBot="1">
+    <row r="350" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI350" s="23"/>
       <c r="AQ350" s="30"/>
       <c r="BE350" s="23"/>
       <c r="BF350" s="23"/>
     </row>
-    <row r="351" spans="35:58" thickTop="1" thickBot="1">
+    <row r="351" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI351" s="23"/>
       <c r="AQ351" s="30"/>
       <c r="BE351" s="23"/>
       <c r="BF351" s="23"/>
     </row>
-    <row r="352" spans="35:58" thickTop="1" thickBot="1">
+    <row r="352" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI352" s="23"/>
       <c r="AQ352" s="30"/>
       <c r="BE352" s="23"/>
       <c r="BF352" s="23"/>
     </row>
-    <row r="353" spans="35:58" thickTop="1" thickBot="1">
+    <row r="353" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI353" s="23"/>
       <c r="AQ353" s="30"/>
       <c r="BE353" s="23"/>
       <c r="BF353" s="23"/>
     </row>
-    <row r="354" spans="35:58" thickTop="1" thickBot="1">
+    <row r="354" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI354" s="23"/>
       <c r="AQ354" s="30"/>
       <c r="BE354" s="23"/>
       <c r="BF354" s="23"/>
     </row>
-    <row r="355" spans="35:58" thickTop="1" thickBot="1">
+    <row r="355" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI355" s="23"/>
       <c r="AQ355" s="30"/>
       <c r="BE355" s="23"/>
       <c r="BF355" s="23"/>
     </row>
-    <row r="356" spans="35:58" thickTop="1" thickBot="1">
+    <row r="356" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI356" s="23"/>
       <c r="AQ356" s="30"/>
       <c r="BE356" s="23"/>
       <c r="BF356" s="23"/>
     </row>
-    <row r="357" spans="35:58" thickTop="1" thickBot="1">
+    <row r="357" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI357" s="23"/>
       <c r="AQ357" s="30"/>
       <c r="BE357" s="23"/>
       <c r="BF357" s="23"/>
     </row>
-    <row r="358" spans="35:58" thickTop="1" thickBot="1">
+    <row r="358" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI358" s="23"/>
       <c r="AQ358" s="30"/>
       <c r="BE358" s="23"/>
       <c r="BF358" s="23"/>
     </row>
-    <row r="359" spans="35:58" thickTop="1" thickBot="1">
+    <row r="359" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI359" s="23"/>
       <c r="AQ359" s="30"/>
       <c r="BE359" s="23"/>
       <c r="BF359" s="23"/>
     </row>
-    <row r="360" spans="35:58" thickTop="1" thickBot="1">
+    <row r="360" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI360" s="23"/>
       <c r="AQ360" s="30"/>
       <c r="BE360" s="23"/>
       <c r="BF360" s="23"/>
     </row>
-    <row r="361" spans="35:58" thickTop="1" thickBot="1">
+    <row r="361" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI361" s="23"/>
       <c r="AQ361" s="30"/>
       <c r="BE361" s="23"/>
       <c r="BF361" s="23"/>
     </row>
-    <row r="362" spans="35:58" thickTop="1" thickBot="1">
+    <row r="362" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI362" s="23"/>
       <c r="AQ362" s="30"/>
       <c r="BE362" s="23"/>
       <c r="BF362" s="23"/>
     </row>
-    <row r="363" spans="35:58" thickTop="1" thickBot="1">
+    <row r="363" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI363" s="23"/>
       <c r="AQ363" s="30"/>
       <c r="BE363" s="23"/>
       <c r="BF363" s="23"/>
     </row>
-    <row r="364" spans="35:58" thickTop="1" thickBot="1">
+    <row r="364" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI364" s="23"/>
       <c r="AQ364" s="30"/>
       <c r="BE364" s="23"/>
       <c r="BF364" s="23"/>
     </row>
-    <row r="365" spans="35:58" thickTop="1" thickBot="1">
+    <row r="365" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI365" s="23"/>
       <c r="AQ365" s="30"/>
       <c r="BE365" s="23"/>
       <c r="BF365" s="23"/>
     </row>
-    <row r="366" spans="35:58" thickTop="1" thickBot="1">
+    <row r="366" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI366" s="23"/>
       <c r="AQ366" s="30"/>
       <c r="BE366" s="23"/>
       <c r="BF366" s="23"/>
     </row>
-    <row r="367" spans="35:58" thickTop="1" thickBot="1">
+    <row r="367" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI367" s="23"/>
       <c r="AQ367" s="30"/>
       <c r="BE367" s="23"/>
       <c r="BF367" s="23"/>
     </row>
-    <row r="368" spans="35:58" thickTop="1" thickBot="1">
+    <row r="368" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI368" s="23"/>
       <c r="AQ368" s="30"/>
       <c r="BE368" s="23"/>
       <c r="BF368" s="23"/>
     </row>
-    <row r="369" spans="35:58" thickTop="1" thickBot="1">
+    <row r="369" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI369" s="23"/>
       <c r="AQ369" s="30"/>
       <c r="BE369" s="23"/>
       <c r="BF369" s="23"/>
     </row>
-    <row r="370" spans="35:58" thickTop="1" thickBot="1">
+    <row r="370" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI370" s="23"/>
       <c r="AQ370" s="30"/>
       <c r="BE370" s="23"/>
       <c r="BF370" s="23"/>
     </row>
-    <row r="371" spans="35:58" thickTop="1" thickBot="1">
+    <row r="371" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI371" s="23"/>
       <c r="AQ371" s="30"/>
       <c r="BE371" s="23"/>
       <c r="BF371" s="23"/>
     </row>
-    <row r="372" spans="35:58" thickTop="1" thickBot="1">
+    <row r="372" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI372" s="23"/>
       <c r="AQ372" s="30"/>
       <c r="BE372" s="23"/>
       <c r="BF372" s="23"/>
     </row>
-    <row r="373" spans="35:58" thickTop="1" thickBot="1">
+    <row r="373" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI373" s="23"/>
       <c r="AQ373" s="30"/>
       <c r="BE373" s="23"/>
       <c r="BF373" s="23"/>
     </row>
-    <row r="374" spans="35:58" thickTop="1" thickBot="1">
+    <row r="374" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI374" s="23"/>
       <c r="AQ374" s="30"/>
       <c r="BE374" s="23"/>
       <c r="BF374" s="23"/>
     </row>
-    <row r="375" spans="35:58" thickTop="1" thickBot="1">
+    <row r="375" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI375" s="23"/>
       <c r="AQ375" s="30"/>
       <c r="BE375" s="23"/>
       <c r="BF375" s="23"/>
     </row>
-    <row r="376" spans="35:58" thickTop="1" thickBot="1">
+    <row r="376" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI376" s="23"/>
       <c r="AQ376" s="30"/>
       <c r="BE376" s="23"/>
       <c r="BF376" s="23"/>
     </row>
-    <row r="377" spans="35:58" thickTop="1" thickBot="1">
+    <row r="377" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI377" s="23"/>
       <c r="AQ377" s="30"/>
       <c r="BE377" s="23"/>
       <c r="BF377" s="23"/>
     </row>
-    <row r="378" spans="35:58" thickTop="1" thickBot="1">
+    <row r="378" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI378" s="23"/>
       <c r="AQ378" s="30"/>
       <c r="BE378" s="23"/>
       <c r="BF378" s="23"/>
     </row>
-    <row r="379" spans="35:58" thickTop="1" thickBot="1">
+    <row r="379" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI379" s="23"/>
       <c r="AQ379" s="30"/>
       <c r="BE379" s="23"/>
       <c r="BF379" s="23"/>
     </row>
-    <row r="380" spans="35:58" thickTop="1" thickBot="1">
+    <row r="380" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI380" s="23"/>
       <c r="AQ380" s="30"/>
       <c r="BE380" s="23"/>
       <c r="BF380" s="23"/>
     </row>
-    <row r="381" spans="35:58" thickTop="1" thickBot="1">
+    <row r="381" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI381" s="23"/>
       <c r="AQ381" s="30"/>
       <c r="BE381" s="23"/>
       <c r="BF381" s="23"/>
     </row>
-    <row r="382" spans="35:58" thickTop="1" thickBot="1">
+    <row r="382" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI382" s="23"/>
       <c r="AQ382" s="30"/>
       <c r="BE382" s="23"/>
       <c r="BF382" s="23"/>
     </row>
-    <row r="383" spans="35:58" thickTop="1" thickBot="1">
+    <row r="383" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI383" s="23"/>
       <c r="AQ383" s="30"/>
       <c r="BE383" s="23"/>
       <c r="BF383" s="23"/>
     </row>
-    <row r="384" spans="35:58" thickTop="1" thickBot="1">
+    <row r="384" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI384" s="23"/>
       <c r="AQ384" s="30"/>
       <c r="BE384" s="23"/>
       <c r="BF384" s="23"/>
     </row>
-    <row r="385" spans="35:58" thickTop="1" thickBot="1">
+    <row r="385" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI385" s="23"/>
       <c r="AQ385" s="30"/>
       <c r="BE385" s="23"/>
       <c r="BF385" s="23"/>
     </row>
-    <row r="386" spans="35:58" thickTop="1" thickBot="1">
+    <row r="386" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI386" s="23"/>
       <c r="AQ386" s="30"/>
       <c r="BE386" s="23"/>
       <c r="BF386" s="23"/>
     </row>
-    <row r="387" spans="35:58" thickTop="1" thickBot="1">
+    <row r="387" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI387" s="23"/>
       <c r="AQ387" s="30"/>
       <c r="BE387" s="23"/>
       <c r="BF387" s="23"/>
     </row>
-    <row r="388" spans="35:58" thickTop="1" thickBot="1">
+    <row r="388" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI388" s="23"/>
       <c r="AQ388" s="30"/>
       <c r="BE388" s="23"/>
       <c r="BF388" s="23"/>
     </row>
-    <row r="389" spans="35:58" thickTop="1" thickBot="1">
+    <row r="389" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI389" s="23"/>
       <c r="AQ389" s="30"/>
       <c r="BE389" s="23"/>
       <c r="BF389" s="23"/>
     </row>
-    <row r="390" spans="35:58" thickTop="1" thickBot="1">
+    <row r="390" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI390" s="23"/>
       <c r="AQ390" s="30"/>
       <c r="BE390" s="23"/>
       <c r="BF390" s="23"/>
     </row>
-    <row r="391" spans="35:58" thickTop="1" thickBot="1">
+    <row r="391" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI391" s="23"/>
       <c r="AQ391" s="30"/>
       <c r="BE391" s="23"/>
       <c r="BF391" s="23"/>
     </row>
-    <row r="392" spans="35:58" thickTop="1" thickBot="1">
+    <row r="392" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI392" s="23"/>
       <c r="AQ392" s="30"/>
       <c r="BE392" s="23"/>
       <c r="BF392" s="23"/>
     </row>
-    <row r="393" spans="35:58" thickTop="1" thickBot="1">
+    <row r="393" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI393" s="23"/>
       <c r="AQ393" s="30"/>
       <c r="BE393" s="23"/>
       <c r="BF393" s="23"/>
     </row>
-    <row r="394" spans="35:58" thickTop="1" thickBot="1">
+    <row r="394" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI394" s="23"/>
       <c r="AQ394" s="30"/>
       <c r="BE394" s="23"/>
       <c r="BF394" s="23"/>
     </row>
-    <row r="395" spans="35:58" thickTop="1" thickBot="1">
+    <row r="395" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI395" s="23"/>
       <c r="AQ395" s="30"/>
       <c r="BE395" s="23"/>
       <c r="BF395" s="23"/>
     </row>
-    <row r="396" spans="35:58" thickTop="1" thickBot="1">
+    <row r="396" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI396" s="23"/>
       <c r="AQ396" s="30"/>
       <c r="BE396" s="23"/>
       <c r="BF396" s="23"/>
     </row>
-    <row r="397" spans="35:58" thickTop="1" thickBot="1">
+    <row r="397" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI397" s="23"/>
       <c r="AQ397" s="30"/>
       <c r="BE397" s="23"/>
       <c r="BF397" s="23"/>
     </row>
-    <row r="398" spans="35:58" thickTop="1" thickBot="1">
+    <row r="398" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI398" s="23"/>
       <c r="AQ398" s="30"/>
       <c r="BE398" s="23"/>
       <c r="BF398" s="23"/>
     </row>
-    <row r="399" spans="35:58" thickTop="1" thickBot="1">
+    <row r="399" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI399" s="23"/>
       <c r="AQ399" s="30"/>
       <c r="BE399" s="23"/>
       <c r="BF399" s="23"/>
     </row>
-    <row r="400" spans="35:58" thickTop="1" thickBot="1">
+    <row r="400" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI400" s="23"/>
       <c r="AQ400" s="30"/>
       <c r="BE400" s="23"/>
       <c r="BF400" s="23"/>
     </row>
-    <row r="401" spans="35:58" thickTop="1" thickBot="1">
+    <row r="401" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI401" s="23"/>
       <c r="AQ401" s="30"/>
       <c r="BE401" s="23"/>
       <c r="BF401" s="23"/>
     </row>
-    <row r="402" spans="35:58" thickTop="1" thickBot="1">
+    <row r="402" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI402" s="23"/>
       <c r="AQ402" s="30"/>
       <c r="BE402" s="23"/>
       <c r="BF402" s="23"/>
     </row>
-    <row r="403" spans="35:58" thickTop="1" thickBot="1">
+    <row r="403" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI403" s="23"/>
       <c r="AQ403" s="30"/>
       <c r="BE403" s="23"/>
       <c r="BF403" s="23"/>
     </row>
-    <row r="404" spans="35:58" thickTop="1" thickBot="1">
+    <row r="404" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI404" s="23"/>
       <c r="AQ404" s="30"/>
       <c r="BE404" s="23"/>
       <c r="BF404" s="23"/>
     </row>
-    <row r="405" spans="35:58" thickTop="1" thickBot="1">
+    <row r="405" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI405" s="23"/>
       <c r="AQ405" s="30"/>
       <c r="BE405" s="23"/>
       <c r="BF405" s="23"/>
     </row>
-    <row r="406" spans="35:58" thickTop="1" thickBot="1">
+    <row r="406" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI406" s="23"/>
       <c r="AQ406" s="30"/>
       <c r="BE406" s="23"/>
       <c r="BF406" s="23"/>
     </row>
-    <row r="407" spans="35:58" thickTop="1" thickBot="1">
+    <row r="407" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI407" s="23"/>
       <c r="AQ407" s="30"/>
       <c r="BE407" s="23"/>
       <c r="BF407" s="23"/>
     </row>
-    <row r="408" spans="35:58" thickTop="1" thickBot="1">
+    <row r="408" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI408" s="23"/>
       <c r="AQ408" s="30"/>
       <c r="BE408" s="23"/>
       <c r="BF408" s="23"/>
     </row>
-    <row r="409" spans="35:58" thickTop="1" thickBot="1">
+    <row r="409" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI409" s="23"/>
       <c r="AQ409" s="30"/>
       <c r="BE409" s="23"/>
       <c r="BF409" s="23"/>
     </row>
-    <row r="410" spans="35:58" thickTop="1" thickBot="1">
+    <row r="410" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI410" s="23"/>
       <c r="AQ410" s="30"/>
       <c r="BE410" s="23"/>
       <c r="BF410" s="23"/>
     </row>
-    <row r="411" spans="35:58" thickTop="1" thickBot="1">
+    <row r="411" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI411" s="23"/>
       <c r="AQ411" s="30"/>
       <c r="BE411" s="23"/>
       <c r="BF411" s="23"/>
     </row>
-    <row r="412" spans="35:58" thickTop="1" thickBot="1">
+    <row r="412" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI412" s="23"/>
       <c r="AQ412" s="30"/>
       <c r="BE412" s="23"/>
       <c r="BF412" s="23"/>
     </row>
-    <row r="413" spans="35:58" thickTop="1" thickBot="1">
+    <row r="413" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI413" s="23"/>
       <c r="AQ413" s="30"/>
       <c r="BE413" s="23"/>
       <c r="BF413" s="23"/>
     </row>
-    <row r="414" spans="35:58" thickTop="1" thickBot="1">
+    <row r="414" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI414" s="23"/>
       <c r="AQ414" s="30"/>
       <c r="BE414" s="23"/>
       <c r="BF414" s="23"/>
     </row>
-    <row r="415" spans="35:58" thickTop="1" thickBot="1">
+    <row r="415" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI415" s="23"/>
       <c r="AQ415" s="30"/>
       <c r="BE415" s="23"/>
       <c r="BF415" s="23"/>
     </row>
-    <row r="416" spans="35:58" thickTop="1" thickBot="1">
+    <row r="416" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI416" s="23"/>
       <c r="AQ416" s="30"/>
       <c r="BE416" s="23"/>
       <c r="BF416" s="23"/>
     </row>
-    <row r="417" spans="35:58" thickTop="1" thickBot="1">
+    <row r="417" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI417" s="23"/>
       <c r="AQ417" s="30"/>
       <c r="BE417" s="23"/>
       <c r="BF417" s="23"/>
     </row>
-    <row r="418" spans="35:58" thickTop="1" thickBot="1">
+    <row r="418" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI418" s="23"/>
       <c r="AQ418" s="30"/>
       <c r="BE418" s="23"/>
       <c r="BF418" s="23"/>
     </row>
-    <row r="419" spans="35:58" thickTop="1" thickBot="1">
+    <row r="419" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI419" s="23"/>
       <c r="AQ419" s="30"/>
       <c r="BE419" s="23"/>
       <c r="BF419" s="23"/>
     </row>
-    <row r="420" spans="35:58" thickTop="1" thickBot="1">
+    <row r="420" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI420" s="23"/>
       <c r="AQ420" s="30"/>
       <c r="BE420" s="23"/>
       <c r="BF420" s="23"/>
     </row>
-    <row r="421" spans="35:58" thickTop="1" thickBot="1">
+    <row r="421" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI421" s="23"/>
       <c r="AQ421" s="30"/>
       <c r="BE421" s="23"/>
       <c r="BF421" s="23"/>
     </row>
-    <row r="422" spans="35:58" thickTop="1" thickBot="1">
+    <row r="422" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI422" s="23"/>
       <c r="AQ422" s="30"/>
       <c r="BE422" s="23"/>
       <c r="BF422" s="23"/>
     </row>
-    <row r="423" spans="35:58" thickTop="1" thickBot="1">
+    <row r="423" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI423" s="23"/>
       <c r="AQ423" s="30"/>
       <c r="BE423" s="23"/>
       <c r="BF423" s="23"/>
     </row>
-    <row r="424" spans="35:58" thickTop="1" thickBot="1">
+    <row r="424" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI424" s="23"/>
       <c r="AQ424" s="30"/>
       <c r="BE424" s="23"/>
       <c r="BF424" s="23"/>
     </row>
-    <row r="425" spans="35:58" thickTop="1" thickBot="1">
+    <row r="425" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI425" s="23"/>
       <c r="AQ425" s="30"/>
       <c r="BE425" s="23"/>
       <c r="BF425" s="23"/>
     </row>
-    <row r="426" spans="35:58" thickTop="1" thickBot="1">
+    <row r="426" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI426" s="23"/>
       <c r="AQ426" s="30"/>
       <c r="BE426" s="23"/>
       <c r="BF426" s="23"/>
     </row>
-    <row r="427" spans="35:58" thickTop="1" thickBot="1">
+    <row r="427" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI427" s="23"/>
       <c r="AQ427" s="30"/>
       <c r="BE427" s="23"/>
       <c r="BF427" s="23"/>
     </row>
-    <row r="428" spans="35:58" thickTop="1" thickBot="1">
+    <row r="428" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI428" s="23"/>
       <c r="AQ428" s="30"/>
       <c r="BE428" s="23"/>
       <c r="BF428" s="23"/>
     </row>
-    <row r="429" spans="35:58" thickTop="1" thickBot="1">
+    <row r="429" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI429" s="23"/>
       <c r="AQ429" s="30"/>
       <c r="BE429" s="23"/>
       <c r="BF429" s="23"/>
     </row>
-    <row r="430" spans="35:58" thickTop="1" thickBot="1">
+    <row r="430" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI430" s="23"/>
       <c r="AQ430" s="30"/>
       <c r="BE430" s="23"/>
       <c r="BF430" s="23"/>
     </row>
-    <row r="431" spans="35:58" thickTop="1" thickBot="1">
+    <row r="431" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI431" s="23"/>
       <c r="AQ431" s="30"/>
       <c r="BE431" s="23"/>
       <c r="BF431" s="23"/>
     </row>
-    <row r="432" spans="35:58" thickTop="1" thickBot="1">
+    <row r="432" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI432" s="23"/>
       <c r="AQ432" s="30"/>
       <c r="BE432" s="23"/>
       <c r="BF432" s="23"/>
     </row>
-    <row r="433" spans="35:58" thickTop="1" thickBot="1">
+    <row r="433" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI433" s="23"/>
       <c r="AQ433" s="30"/>
       <c r="BE433" s="23"/>
       <c r="BF433" s="23"/>
     </row>
-    <row r="434" spans="35:58" thickTop="1" thickBot="1">
+    <row r="434" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI434" s="23"/>
       <c r="AQ434" s="30"/>
       <c r="BE434" s="23"/>
       <c r="BF434" s="23"/>
     </row>
-    <row r="435" spans="35:58" thickTop="1" thickBot="1">
+    <row r="435" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI435" s="23"/>
       <c r="BE435" s="23"/>
       <c r="BF435" s="23"/>
     </row>
-    <row r="436" spans="35:58" thickTop="1" thickBot="1">
+    <row r="436" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI436" s="23"/>
       <c r="BE436" s="23"/>
       <c r="BF436" s="23"/>
     </row>
-    <row r="437" spans="35:58" thickTop="1" thickBot="1">
+    <row r="437" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI437" s="23"/>
       <c r="BE437" s="23"/>
       <c r="BF437" s="23"/>
     </row>
-    <row r="438" spans="35:58" thickTop="1" thickBot="1">
+    <row r="438" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI438" s="23"/>
       <c r="BE438" s="23"/>
       <c r="BF438" s="23"/>
     </row>
-    <row r="439" spans="35:58" thickTop="1" thickBot="1">
+    <row r="439" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI439" s="23"/>
       <c r="BE439" s="23"/>
       <c r="BF439" s="23"/>
     </row>
-    <row r="440" spans="35:58" thickTop="1" thickBot="1">
+    <row r="440" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI440" s="23"/>
       <c r="BE440" s="23"/>
       <c r="BF440" s="23"/>
     </row>
-    <row r="441" spans="35:58" thickTop="1" thickBot="1">
+    <row r="441" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI441" s="23"/>
       <c r="BE441" s="23"/>
       <c r="BF441" s="23"/>
     </row>
-    <row r="442" spans="35:58" thickTop="1" thickBot="1">
+    <row r="442" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI442" s="23"/>
       <c r="BE442" s="23"/>
       <c r="BF442" s="23"/>
     </row>
-    <row r="443" spans="35:58" thickTop="1" thickBot="1">
+    <row r="443" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI443" s="23"/>
       <c r="BE443" s="23"/>
       <c r="BF443" s="23"/>
     </row>
-    <row r="444" spans="35:58" thickTop="1" thickBot="1">
+    <row r="444" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI444" s="23"/>
       <c r="BE444" s="23"/>
       <c r="BF444" s="23"/>
     </row>
-    <row r="445" spans="35:58" thickTop="1" thickBot="1">
+    <row r="445" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI445" s="23"/>
       <c r="BE445" s="23"/>
       <c r="BF445" s="23"/>
     </row>
-    <row r="446" spans="35:58" thickTop="1" thickBot="1">
+    <row r="446" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI446" s="23"/>
       <c r="BE446" s="23"/>
       <c r="BF446" s="23"/>
     </row>
-    <row r="447" spans="35:58" thickTop="1" thickBot="1">
+    <row r="447" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI447" s="23"/>
       <c r="BE447" s="23"/>
       <c r="BF447" s="23"/>
     </row>
-    <row r="448" spans="35:58" thickTop="1" thickBot="1">
+    <row r="448" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI448" s="23"/>
       <c r="BE448" s="23"/>
       <c r="BF448" s="23"/>
     </row>
-    <row r="449" spans="35:58" thickTop="1" thickBot="1">
+    <row r="449" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI449" s="23"/>
       <c r="BE449" s="23"/>
       <c r="BF449" s="23"/>
     </row>
-    <row r="450" spans="35:58" thickTop="1" thickBot="1">
+    <row r="450" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI450" s="23"/>
       <c r="BE450" s="23"/>
       <c r="BF450" s="23"/>
     </row>
-    <row r="451" spans="35:58" thickTop="1" thickBot="1">
+    <row r="451" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI451" s="23"/>
       <c r="BE451" s="23"/>
       <c r="BF451" s="23"/>
     </row>
-    <row r="452" spans="35:58" thickTop="1" thickBot="1">
+    <row r="452" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI452" s="23"/>
       <c r="BE452" s="23"/>
       <c r="BF452" s="23"/>
     </row>
-    <row r="453" spans="35:58" thickTop="1" thickBot="1">
+    <row r="453" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI453" s="23"/>
       <c r="BE453" s="23"/>
       <c r="BF453" s="23"/>
     </row>
-    <row r="454" spans="35:58" thickTop="1" thickBot="1">
+    <row r="454" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI454" s="23"/>
       <c r="BE454" s="23"/>
       <c r="BF454" s="23"/>
     </row>
-    <row r="455" spans="35:58" thickTop="1" thickBot="1">
+    <row r="455" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI455" s="23"/>
       <c r="BE455" s="23"/>
       <c r="BF455" s="23"/>
     </row>
-    <row r="456" spans="35:58" thickTop="1" thickBot="1">
+    <row r="456" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI456" s="23"/>
       <c r="BE456" s="23"/>
       <c r="BF456" s="23"/>
     </row>
-    <row r="457" spans="35:58" thickTop="1" thickBot="1">
+    <row r="457" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI457" s="23"/>
       <c r="BE457" s="23"/>
       <c r="BF457" s="23"/>
     </row>
-    <row r="458" spans="35:58" thickTop="1" thickBot="1">
+    <row r="458" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI458" s="23"/>
       <c r="BE458" s="23"/>
       <c r="BF458" s="23"/>
     </row>
-    <row r="459" spans="35:58" thickTop="1" thickBot="1">
+    <row r="459" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI459" s="23"/>
       <c r="BE459" s="23"/>
       <c r="BF459" s="23"/>
     </row>
-    <row r="460" spans="35:58" thickTop="1" thickBot="1">
+    <row r="460" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI460" s="23"/>
       <c r="BE460" s="23"/>
       <c r="BF460" s="23"/>
     </row>
-    <row r="461" spans="35:58" thickTop="1" thickBot="1">
+    <row r="461" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI461" s="23"/>
       <c r="BE461" s="23"/>
       <c r="BF461" s="23"/>
     </row>
-    <row r="462" spans="35:58" thickTop="1" thickBot="1">
+    <row r="462" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI462" s="23"/>
       <c r="BE462" s="23"/>
       <c r="BF462" s="23"/>
     </row>
-    <row r="463" spans="35:58" thickTop="1" thickBot="1">
+    <row r="463" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI463" s="23"/>
       <c r="BE463" s="23"/>
       <c r="BF463" s="23"/>
     </row>
-    <row r="464" spans="35:58" thickTop="1" thickBot="1">
+    <row r="464" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI464" s="23"/>
       <c r="BE464" s="23"/>
       <c r="BF464" s="23"/>
     </row>
-    <row r="465" spans="35:58" thickTop="1" thickBot="1">
+    <row r="465" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI465" s="23"/>
       <c r="BE465" s="23"/>
       <c r="BF465" s="23"/>
     </row>
-    <row r="466" spans="35:58" thickTop="1" thickBot="1">
+    <row r="466" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI466" s="23"/>
       <c r="BE466" s="23"/>
       <c r="BF466" s="23"/>
     </row>
-    <row r="467" spans="35:58" thickTop="1" thickBot="1">
+    <row r="467" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI467" s="23"/>
       <c r="BE467" s="23"/>
       <c r="BF467" s="23"/>
     </row>
-    <row r="468" spans="35:58" thickTop="1" thickBot="1">
+    <row r="468" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI468" s="23"/>
       <c r="BE468" s="23"/>
       <c r="BF468" s="23"/>
     </row>
-    <row r="469" spans="35:58" thickTop="1" thickBot="1">
+    <row r="469" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI469" s="23"/>
       <c r="BE469" s="23"/>
       <c r="BF469" s="23"/>
     </row>
-    <row r="470" spans="35:58" thickTop="1" thickBot="1">
+    <row r="470" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI470" s="23"/>
       <c r="BE470" s="23"/>
     </row>
-    <row r="471" spans="35:58" thickTop="1" thickBot="1">
+    <row r="471" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI471" s="23"/>
       <c r="BE471" s="23"/>
     </row>
-    <row r="472" spans="35:58" thickTop="1" thickBot="1">
+    <row r="472" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI472" s="23"/>
       <c r="BE472" s="23"/>
     </row>
-    <row r="473" spans="35:58" thickTop="1" thickBot="1">
+    <row r="473" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI473" s="23"/>
       <c r="BE473" s="23"/>
     </row>
-    <row r="474" spans="35:58" thickTop="1" thickBot="1">
+    <row r="474" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI474" s="23"/>
       <c r="BE474" s="23"/>
     </row>
-    <row r="475" spans="35:58" thickTop="1" thickBot="1">
+    <row r="475" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI475" s="23"/>
     </row>
   </sheetData>

--- a/BD/Insumos/FORMATO_OFERTAS_OIC_V4.xlsx
+++ b/BD/Insumos/FORMATO_OFERTAS_OIC_V4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documentos\Trabajo_IGAC_2023\Repositorio_OIC_Ofertas_2\OIC\BD\Insumos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelPerez/Desktop/OIC/BD/Insumos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DAB9F9-67A2-46D3-9BCD-C66B859C0925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41539AF2-A013-EB4D-B425-08B7E1C90FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32180" yWindow="-400" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura_Datos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estructura_Datos!$A$1:$F$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estructura_Datos!$A$1:$G$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="529">
   <si>
     <t>ID</t>
   </si>
@@ -1509,6 +1509,129 @@
   </si>
   <si>
     <t>Perito</t>
+  </si>
+  <si>
+    <t>VAR_BD</t>
+  </si>
+  <si>
+    <t>Caracteristicas especial del bien inmueble</t>
+  </si>
+  <si>
+    <t>OFER_CARACTERISTICAS_ESPECIALES</t>
+  </si>
+  <si>
+    <t>Area del terreno en Hectareas si el inmueble es rural y en metros cuadrados si el inmueble es urbano de la oferta</t>
+  </si>
+  <si>
+    <t>Area construida en Metros cuadrados o Hectareas de la oferta</t>
+  </si>
+  <si>
+    <t>Area privada en metros cuadrados de la oferta</t>
+  </si>
+  <si>
+    <t>Area del terreno en Hectareas de la oferta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODIGO_HOMOLOGADO </t>
+  </si>
+  <si>
+    <t>SI_VALOR_INCLUYE_ANEXIDADES</t>
+  </si>
+  <si>
+    <t>VALOR_OFERTA_INICIAL</t>
+  </si>
+  <si>
+    <t>VALOR_OFERTA_FINAL</t>
+  </si>
+  <si>
+    <t>VALOR_ANEXIDADES</t>
+  </si>
+  <si>
+    <t>CARACTERISTICAS_ESPECIALES</t>
+  </si>
+  <si>
+    <t>OFER_RAA</t>
+  </si>
+  <si>
+    <t>RAA</t>
+  </si>
+  <si>
+    <t>Registro Abierto de Avaluadores</t>
+  </si>
+  <si>
+    <t>OFER_NUMERO_IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>OFER_TIPO_IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>OFER_CATEGORIAS_RAA</t>
+  </si>
+  <si>
+    <t>Categorias a las que pertenece el Perito en el Registro Abierto de Avaluadores</t>
+  </si>
+  <si>
+    <t>CATEGORIAS_RAA</t>
+  </si>
+  <si>
+    <t>NUMERO_IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>TIPO_IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la persona</t>
+  </si>
+  <si>
+    <t>Tipo de identificacion de la persona</t>
+  </si>
+  <si>
+    <t>OFER_PIN_VALIDACION_RAA</t>
+  </si>
+  <si>
+    <t>PIN_VALIDACION_RAA</t>
+  </si>
+  <si>
+    <t>Pin de validacion RAA de la fecha de firma del avaluo</t>
+  </si>
+  <si>
+    <t>OFER_USUARIO</t>
+  </si>
+  <si>
+    <t>OFER_CONTRASENA</t>
+  </si>
+  <si>
+    <t>Contrasena de acceso a perito</t>
+  </si>
+  <si>
+    <t>OFER_NOMBRES</t>
+  </si>
+  <si>
+    <t>OFER_APELLIDOS</t>
+  </si>
+  <si>
+    <t>Apellidos  de la persona</t>
+  </si>
+  <si>
+    <t>Nombres  de la persona</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>CONTRASENA</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>Usuario de acceso a perito</t>
   </si>
 </sst>
 </file>
@@ -1516,12 +1639,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1637,7 +1760,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1683,6 +1806,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,11 +1902,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1834,7 +1969,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1843,7 +1978,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,7 +1987,7 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1873,13 +2008,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1982,6 +2117,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -2009,7 +2159,7 @@
       <sheetName val="Dominios"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2278,24 +2428,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="59.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="216.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="10"/>
+    <col min="1" max="1" width="5.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="171.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2306,16 +2458,19 @@
         <v>483</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="G1" s="70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2323,18 +2478,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="F2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="H2" s="10" t="str">
+        <f>MID(B2,6,30)</f>
+        <v>ID</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72">
         <v>2</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -2343,18 +2505,25 @@
       <c r="C3" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="F3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="H3" s="10" t="str">
+        <f>MID(B3,6,30)</f>
+        <v>NUMERO_PREDIAL_NUEVO</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72">
         <v>3</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -2363,18 +2532,25 @@
       <c r="C4" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="F4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="H4" s="10" t="str">
+        <f>MID(B4,6,30)</f>
+        <v>NUMERO_PREDIAL_ANTIGUO</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
@@ -2383,18 +2559,25 @@
       <c r="C5" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="F5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="H5" s="10" t="str">
+        <f t="shared" ref="H5:H68" si="0">MID(B5,6,30)</f>
+        <v xml:space="preserve">CODIGO_HOMOLOGADO </v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72">
         <v>5</v>
       </c>
       <c r="B6" s="49" t="s">
@@ -2403,18 +2586,25 @@
       <c r="C6" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="F6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="H6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>DEPARTAMENTO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
         <v>6</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -2423,18 +2613,25 @@
       <c r="C7" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="F7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="H7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>MUNICIPIO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
         <v>7</v>
       </c>
       <c r="B8" s="49" t="s">
@@ -2443,18 +2640,25 @@
       <c r="C8" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="F8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="H8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VEREDA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
         <v>8</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -2463,18 +2667,25 @@
       <c r="C9" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="F9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>BARRIO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
@@ -2483,18 +2694,25 @@
       <c r="C10" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="F10" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>DIRECCION</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -2503,18 +2721,25 @@
       <c r="C11" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="F11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="H11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LATITUD</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72">
         <v>11</v>
       </c>
       <c r="B12" s="49" t="s">
@@ -2523,18 +2748,25 @@
       <c r="C12" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="F12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="48">
+      <c r="H12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LONGITUD</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
@@ -2543,18 +2775,25 @@
       <c r="C13" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="F13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="G13" s="48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48">
+      <c r="H13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TIPO_INMUEBLE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
         <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
@@ -2563,18 +2802,25 @@
       <c r="C14" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="F14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="G14" s="48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48">
+      <c r="H14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TIPO_OFERTA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
         <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -2583,18 +2829,25 @@
       <c r="C15" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="F15" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="G15" s="48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48">
+      <c r="H15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TIPO_PREDIO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72">
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -2603,18 +2856,25 @@
       <c r="C16" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="F16" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="G16" s="48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48">
+      <c r="H16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SI_VALOR_INCLUYE_ANEXIDADES</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72">
         <v>16</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -2623,18 +2883,25 @@
       <c r="C17" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="E17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="F17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="G17" s="48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="48">
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>FECHA_CAPTURA_OFERTA</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72">
         <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
@@ -2643,18 +2910,25 @@
       <c r="C18" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="F18" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="G18" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48">
+      <c r="H18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TIEMPO_OFERTA_MERCADO</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
         <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
@@ -2663,18 +2937,25 @@
       <c r="C19" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="F19" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="G19" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="48">
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>PROYECTO_INMOBILIARIO</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72">
         <v>19</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -2683,18 +2964,25 @@
       <c r="C20" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="F20" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="G20" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="48">
+      <c r="H20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>PROYECTO_DESCRIPCION</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72">
         <v>20</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -2703,18 +2991,25 @@
       <c r="C21" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="E21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="F21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="G21" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="H21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OFERTA_ORIGEN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2723,18 +3018,25 @@
       <c r="C22" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E22" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="F22" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="H22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AREA_TERRENO</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2743,18 +3045,25 @@
       <c r="C23" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E23" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="F23" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="H23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ANO_CONSTRUCCION</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2763,18 +3072,25 @@
       <c r="C24" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="F24" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="H24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AREA_CONSTRUCCION</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2783,18 +3099,25 @@
       <c r="C25" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E25" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="F25" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="H25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>CONSERVACION</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2803,18 +3126,25 @@
       <c r="C26" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="F26" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="H26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AREA_PRIVADA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2823,18 +3153,25 @@
       <c r="C27" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E27" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="F27" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="H27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>DESTINACION_ECONOMICA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2843,18 +3180,25 @@
       <c r="C28" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="F28" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="H28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTURA_EDIFICIO</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2863,18 +3207,25 @@
       <c r="C29" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E29" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="F29" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NUMERO_PISO</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2883,18 +3234,25 @@
       <c r="C30" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="F30" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TIPO_INMUEBLE_RURAL</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2903,18 +3261,25 @@
       <c r="C31" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="F31" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="H31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TIPOLOGIA_TIPO</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2923,18 +3288,25 @@
       <c r="C32" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E32" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="F32" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+      <c r="H32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AREA_CULTIVO</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2943,18 +3315,25 @@
       <c r="C33" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E33" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="F33" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="H33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>EDAD_CULTIVO</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="72">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2963,18 +3342,25 @@
       <c r="C34" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E34" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="F34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="H34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>TIPO_CULTIVO</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="72">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2983,18 +3369,25 @@
       <c r="C35" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E35" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="F35" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+      <c r="H35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>COEFICIENTE</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3003,18 +3396,25 @@
       <c r="C36" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E36" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="F36" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="H36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SERVICIOS_PUBLICOS</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3023,18 +3423,25 @@
       <c r="C37" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E37" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="F37" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="H37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ESTRATO</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3043,18 +3450,25 @@
       <c r="C38" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E38" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="F38" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+      <c r="H38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>GARAJES</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="72">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3063,18 +3477,25 @@
       <c r="C39" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E39" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="68" t="s">
+      <c r="F39" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+      <c r="H39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NUMERO_BANOS</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="72">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3083,18 +3504,25 @@
       <c r="C40" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E40" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="F40" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+      <c r="H40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NUMERO_HABITACIONES</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -3103,18 +3531,25 @@
       <c r="C41" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E41" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="F41" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+      <c r="H41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NUMERO_DEPOSITOS</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3123,18 +3558,25 @@
       <c r="C42" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E42" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="F42" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="H42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>CONSTRUCCIONES_ANEXAS</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="72">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3143,18 +3585,25 @@
       <c r="C43" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="F43" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="H43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_OFERTA_INICIAL</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="72">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3163,18 +3612,25 @@
       <c r="C44" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="F44" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="H44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>PORCENTAJE_NEGOCIACION</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="72">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3183,18 +3639,25 @@
       <c r="C45" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="H45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_OFERTA_FINAL</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="72">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3203,18 +3666,25 @@
       <c r="C46" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="H46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_TERRENO</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="72">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3223,18 +3693,25 @@
       <c r="C47" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="H47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_CONSTRUCCION_M²</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="72">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3243,18 +3720,25 @@
       <c r="C48" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+      <c r="H48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_AREA_PRIVADA</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="72">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3263,18 +3747,25 @@
       <c r="C49" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="H49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_CULTIVO</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="72">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -3283,18 +3774,25 @@
       <c r="C50" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+      <c r="H50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AVALUO_CATASTRAL</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="72">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3303,18 +3801,25 @@
       <c r="C51" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="H51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_ADMINISTRACION</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="72">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3323,18 +3828,25 @@
       <c r="C52" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
+      <c r="H52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_ARRIENDO_INICIAL</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="72">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3343,18 +3855,25 @@
       <c r="C53" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
+      <c r="H53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_ARRIENDO_FINAL</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="72">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3363,18 +3882,25 @@
       <c r="C54" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
+      <c r="H54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_TERRAZA_BALCON_PATIO</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -3383,18 +3909,25 @@
       <c r="C55" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
+      <c r="H55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_GARAJES</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="72">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3403,18 +3936,25 @@
       <c r="C56" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="F56" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
+      <c r="H56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_DEPOSITOS</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="72">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -3423,18 +3963,25 @@
       <c r="C57" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="44">
+      <c r="H57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR_ANEXIDADES</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="72">
         <v>57</v>
       </c>
       <c r="B58" s="43" t="s">
@@ -3443,18 +3990,25 @@
       <c r="C58" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="E58" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="F58" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="G58" s="44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="44">
+      <c r="H58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>MATRICULA_INMOBILIARIA</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="72">
         <v>58</v>
       </c>
       <c r="B59" s="43" t="s">
@@ -3463,18 +4017,25 @@
       <c r="C59" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="E59" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="F59" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="44" t="s">
+      <c r="G59" s="44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="44">
+      <c r="H59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>DERECHO_TIPO</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="72">
         <v>59</v>
       </c>
       <c r="B60" s="43" t="s">
@@ -3483,18 +4044,25 @@
       <c r="C60" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E60" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="46" t="s">
+      <c r="F60" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="G60" s="44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="55">
+      <c r="H60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>CONDICION_JURIDICA</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="72">
         <v>60</v>
       </c>
       <c r="B61" s="56" t="s">
@@ -3503,18 +4071,25 @@
       <c r="C61" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="E61" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="61" t="s">
+      <c r="F61" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="G61" s="55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="55">
+      <c r="H61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NOMBRE_OFERENTE</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="72">
         <v>61</v>
       </c>
       <c r="B62" s="56" t="s">
@@ -3523,18 +4098,25 @@
       <c r="C62" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="D62" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="E62" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="61" t="s">
+      <c r="F62" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="55" t="s">
+      <c r="G62" s="55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="55">
+      <c r="H62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>NUMERO_CONTACTO</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="72">
         <v>62</v>
       </c>
       <c r="B63" s="56" t="s">
@@ -3543,18 +4125,25 @@
       <c r="C63" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="D63" s="60" t="s">
+      <c r="D63" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="E63" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="61" t="s">
+      <c r="F63" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="G63" s="55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
+      <c r="H63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>URL</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="72">
         <v>63</v>
       </c>
       <c r="B64" s="52" t="s">
@@ -3563,18 +4152,25 @@
       <c r="C64" s="52" t="s">
         <v>485</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="53" t="s">
+      <c r="F64" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+      <c r="H64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ENLACE_INTERNO_FOTO_PREDIO</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="72">
         <v>64</v>
       </c>
       <c r="B65" s="52" t="s">
@@ -3583,18 +4179,25 @@
       <c r="C65" s="52" t="s">
         <v>485</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="53" t="s">
+      <c r="F65" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
+      <c r="H65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ENLACE_DOCUMENTOS</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="72">
         <v>65</v>
       </c>
       <c r="B66" s="52" t="s">
@@ -3603,18 +4206,25 @@
       <c r="C66" s="52" t="s">
         <v>485</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="F66" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
+      <c r="H66" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OBSERVACIONES</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="72">
         <v>66</v>
       </c>
       <c r="B67" s="54" t="s">
@@ -3623,18 +4233,25 @@
       <c r="C67" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="D67" s="58" t="s">
+      <c r="D67" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="59" t="s">
+      <c r="F67" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="G67" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="9">
+      <c r="H67" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>PROYECTO_AREA_RESPONSABLE</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="72">
         <v>67</v>
       </c>
       <c r="B68" s="54" t="s">
@@ -3643,18 +4260,25 @@
       <c r="C68" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="D68" s="58" t="s">
+      <c r="D68" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="E68" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="F68" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="G68" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
+      <c r="H68" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>PROYECTO_PERSONA_RESPONSABLE</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="72">
         <v>68</v>
       </c>
       <c r="B69" s="54" t="s">
@@ -3663,18 +4287,25 @@
       <c r="C69" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D69" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="E69" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="F69" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="9">
+      <c r="H69" s="10" t="str">
+        <f t="shared" ref="H69:H86" si="1">MID(B69,6,30)</f>
+        <v>PROYECTO_EMAIL_PERSONAL</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="72">
         <v>69</v>
       </c>
       <c r="B70" s="54" t="s">
@@ -3683,18 +4314,25 @@
       <c r="C70" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E70" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="59" t="s">
+      <c r="F70" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="9">
+      <c r="H70" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>REVISION_AREA_RESPONSABLE</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="72">
         <v>70</v>
       </c>
       <c r="B71" s="54" t="s">
@@ -3703,17 +4341,407 @@
       <c r="C71" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="E71" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="59" t="s">
+      <c r="F71" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="G71" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H71" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>REVISION_PERSONA_RESPONSABLE</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="73" t="s">
+        <v>490</v>
+      </c>
+      <c r="C72" s="73" t="s">
+        <v>484</v>
+      </c>
+      <c r="D72" s="73" t="s">
+        <v>500</v>
+      </c>
+      <c r="E72" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="G72" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>CARACTERISTICAS_ESPECIALES</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="72">
+        <v>72</v>
+      </c>
+      <c r="B73" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="D73" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="E73" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="75" t="s">
+        <v>491</v>
+      </c>
+      <c r="G73" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>AREA_TERRENO</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="72">
+        <v>73</v>
+      </c>
+      <c r="B74" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="D74" s="73" t="s">
+        <v>406</v>
+      </c>
+      <c r="E74" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="G74" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>AREA_CONSTRUCCION</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="72">
+        <v>74</v>
+      </c>
+      <c r="B75" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="D75" s="73" t="s">
+        <v>408</v>
+      </c>
+      <c r="E75" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="75" t="s">
+        <v>493</v>
+      </c>
+      <c r="G75" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>AREA_PRIVADA</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="72">
+        <v>75</v>
+      </c>
+      <c r="B76" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="D76" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="E76" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="75" t="s">
+        <v>494</v>
+      </c>
+      <c r="G76" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>AREA_CULTIVO</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="72">
+        <v>76</v>
+      </c>
+      <c r="B77" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="C77" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="D77" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="E77" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="75" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>RAA</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="72">
+        <v>77</v>
+      </c>
+      <c r="B78" s="73" t="s">
+        <v>507</v>
+      </c>
+      <c r="C78" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="D78" s="73" t="s">
+        <v>509</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="75" t="s">
+        <v>508</v>
+      </c>
+      <c r="G78" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>CATEGORIAS_RAA</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="72">
+        <v>78</v>
+      </c>
+      <c r="B79" s="73" t="s">
+        <v>514</v>
+      </c>
+      <c r="C79" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="D79" s="73" t="s">
+        <v>515</v>
+      </c>
+      <c r="E79" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="75" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>PIN_VALIDACION_RAA</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="72">
+        <v>79</v>
+      </c>
+      <c r="B80" s="73" t="s">
+        <v>517</v>
+      </c>
+      <c r="C80" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="D80" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="E80" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="G80" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>USUARIO</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="72">
+        <v>80</v>
+      </c>
+      <c r="B81" s="73" t="s">
+        <v>518</v>
+      </c>
+      <c r="C81" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="D81" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="E81" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="75" t="s">
+        <v>519</v>
+      </c>
+      <c r="G81" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>CONTRASENA</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="72">
+        <v>81</v>
+      </c>
+      <c r="B82" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C82" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="D82" s="73" t="s">
+        <v>510</v>
+      </c>
+      <c r="E82" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="75" t="s">
+        <v>512</v>
+      </c>
+      <c r="G82" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>NUMERO_IDENTIFICACION</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="72">
+        <v>82</v>
+      </c>
+      <c r="B83" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="C83" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="D83" s="73" t="s">
+        <v>511</v>
+      </c>
+      <c r="E83" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="75" t="s">
+        <v>513</v>
+      </c>
+      <c r="G83" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>TIPO_IDENTIFICACION</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="72">
+        <v>83</v>
+      </c>
+      <c r="B84" s="73" t="s">
+        <v>520</v>
+      </c>
+      <c r="C84" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="D84" s="73" t="s">
+        <v>526</v>
+      </c>
+      <c r="E84" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="75" t="s">
+        <v>523</v>
+      </c>
+      <c r="G84" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>NOMBRES</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="72">
+        <v>84</v>
+      </c>
+      <c r="B85" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="D85" s="73" t="s">
+        <v>527</v>
+      </c>
+      <c r="E85" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="75" t="s">
+        <v>522</v>
+      </c>
+      <c r="G85" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>APELLIDOS</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3728,17 +4756,17 @@
       <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="136.33203125" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="41"/>
+    <col min="6" max="16384" width="11.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>153</v>
       </c>
@@ -3755,7 +4783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -3772,7 +4800,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
@@ -3789,7 +4817,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -3806,7 +4834,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>129</v>
       </c>
@@ -3823,7 +4851,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>129</v>
       </c>
@@ -3840,7 +4868,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>129</v>
       </c>
@@ -3857,7 +4885,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>129</v>
       </c>
@@ -3874,7 +4902,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>129</v>
       </c>
@@ -3891,7 +4919,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>129</v>
       </c>
@@ -3908,7 +4936,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>129</v>
       </c>
@@ -3925,7 +4953,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>129</v>
       </c>
@@ -3942,7 +4970,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>129</v>
       </c>
@@ -3959,7 +4987,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>129</v>
       </c>
@@ -3976,7 +5004,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>129</v>
       </c>
@@ -3993,7 +5021,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>129</v>
       </c>
@@ -4010,7 +5038,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -4027,7 +5055,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -4044,7 +5072,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -4061,7 +5089,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
@@ -4078,7 +5106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>31</v>
       </c>
@@ -4095,7 +5123,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>31</v>
       </c>
@@ -4112,7 +5140,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -4129,7 +5157,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
@@ -4146,7 +5174,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -4163,7 +5191,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -4180,7 +5208,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>31</v>
       </c>
@@ -4197,7 +5225,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
@@ -4214,7 +5242,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
@@ -4231,7 +5259,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
@@ -4248,7 +5276,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
@@ -4265,7 +5293,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
@@ -4282,7 +5310,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
@@ -4299,7 +5327,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>58</v>
       </c>
@@ -4316,7 +5344,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>58</v>
       </c>
@@ -4333,7 +5361,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4350,7 +5378,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>58</v>
       </c>
@@ -4367,7 +5395,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>62</v>
       </c>
@@ -4384,7 +5412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>62</v>
       </c>
@@ -4401,7 +5429,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>62</v>
       </c>
@@ -4418,7 +5446,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
@@ -4435,7 +5463,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>62</v>
       </c>
@@ -4452,7 +5480,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
@@ -4469,7 +5497,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>62</v>
       </c>
@@ -4486,7 +5514,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>62</v>
       </c>
@@ -4503,7 +5531,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>62</v>
       </c>
@@ -4520,7 +5548,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>62</v>
       </c>
@@ -4537,7 +5565,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>62</v>
       </c>
@@ -4554,7 +5582,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>62</v>
       </c>
@@ -4571,7 +5599,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>62</v>
       </c>
@@ -4588,7 +5616,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>62</v>
       </c>
@@ -4605,7 +5633,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>62</v>
       </c>
@@ -4622,7 +5650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>62</v>
       </c>
@@ -4639,7 +5667,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>62</v>
       </c>
@@ -4656,7 +5684,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>62</v>
       </c>
@@ -4673,7 +5701,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>62</v>
       </c>
@@ -4690,7 +5718,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>62</v>
       </c>
@@ -4707,7 +5735,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>62</v>
       </c>
@@ -4724,7 +5752,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>62</v>
       </c>
@@ -4741,7 +5769,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>62</v>
       </c>
@@ -4758,7 +5786,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>62</v>
       </c>
@@ -4775,7 +5803,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>62</v>
       </c>
@@ -4792,7 +5820,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>62</v>
       </c>
@@ -4809,7 +5837,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>127</v>
       </c>
@@ -4826,7 +5854,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>127</v>
       </c>
@@ -4843,7 +5871,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>127</v>
       </c>
@@ -4860,7 +5888,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>70</v>
       </c>
@@ -4877,7 +5905,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>70</v>
       </c>
@@ -4894,7 +5922,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>70</v>
       </c>
@@ -4911,7 +5939,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>70</v>
       </c>
@@ -4928,7 +5956,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>70</v>
       </c>
@@ -4945,7 +5973,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>70</v>
       </c>
@@ -4962,7 +5990,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>70</v>
       </c>
@@ -4979,7 +6007,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>70</v>
       </c>
@@ -4996,7 +6024,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>70</v>
       </c>
@@ -5013,7 +6041,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>70</v>
       </c>
@@ -5030,7 +6058,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>70</v>
       </c>
@@ -5047,7 +6075,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>70</v>
       </c>
@@ -5064,7 +6092,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>70</v>
       </c>
@@ -5081,7 +6109,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>70</v>
       </c>
@@ -5098,7 +6126,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>70</v>
       </c>
@@ -5115,7 +6143,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>70</v>
       </c>
@@ -5132,7 +6160,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>70</v>
       </c>
@@ -5149,7 +6177,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>70</v>
       </c>
@@ -5166,7 +6194,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>70</v>
       </c>
@@ -5183,7 +6211,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>70</v>
       </c>
@@ -5200,7 +6228,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>70</v>
       </c>
@@ -5217,7 +6245,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>70</v>
       </c>
@@ -5234,7 +6262,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>70</v>
       </c>
@@ -5251,7 +6279,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>70</v>
       </c>
@@ -5268,7 +6296,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>70</v>
       </c>
@@ -5285,7 +6313,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>50</v>
       </c>
@@ -5302,7 +6330,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>50</v>
       </c>
@@ -5319,7 +6347,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>50</v>
       </c>
@@ -5336,7 +6364,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>50</v>
       </c>
@@ -5353,7 +6381,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>50</v>
       </c>
@@ -5370,7 +6398,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>76</v>
       </c>
@@ -5387,7 +6415,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>76</v>
       </c>
@@ -5404,7 +6432,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>76</v>
       </c>
@@ -5421,7 +6449,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>76</v>
       </c>
@@ -5438,7 +6466,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>80</v>
       </c>
@@ -5455,7 +6483,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>80</v>
       </c>
@@ -5472,7 +6500,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>80</v>
       </c>
@@ -5489,7 +6517,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>80</v>
       </c>
@@ -5506,7 +6534,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5520,79 +6548,79 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33.6640625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.5" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5" style="20" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="29" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="23" style="20" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="20.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="20.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.5" style="20" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="42" style="20" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="22" style="20" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="27" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="35.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.5" style="20" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="27.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.5" style="20" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="34.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.5" style="20" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="27.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="32.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.5" style="20" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="34" style="20" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="32.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="42.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="42.5" style="20" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="22.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="34.109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="24.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="34.1640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="57" max="57" width="43.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="28" style="20" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="26.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="27" style="20" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="123.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="123.5" style="20" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="41.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="181.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="41.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="181.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="41.5" style="20" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="46.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="37.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="39.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="37.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="39.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="44.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="11.44140625" style="18"/>
+    <col min="70" max="16384" width="11.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -5801,7 +6829,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" s="34" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -5928,7 +6956,7 @@
       <c r="BP2" s="23"/>
       <c r="BQ2" s="23"/>
     </row>
-    <row r="3" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" s="34" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -6055,7 +7083,7 @@
       <c r="BP3" s="23"/>
       <c r="BQ3" s="23"/>
     </row>
-    <row r="4" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:69" s="34" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -6204,7 +7232,7 @@
       <c r="BP4" s="23"/>
       <c r="BQ4" s="23"/>
     </row>
-    <row r="5" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" s="34" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -6347,7 +7375,7 @@
       <c r="BP5" s="23"/>
       <c r="BQ5" s="23"/>
     </row>
-    <row r="6" spans="1:69" s="34" customFormat="1" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:69" s="34" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -6501,7 +7529,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L7" s="19"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
@@ -6515,7 +7543,7 @@
       <c r="BE7" s="23"/>
       <c r="BF7" s="23"/>
     </row>
-    <row r="8" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L8" s="19"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -6529,7 +7557,7 @@
       <c r="BE8" s="23"/>
       <c r="BF8" s="23"/>
     </row>
-    <row r="9" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L9" s="19"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -6543,7 +7571,7 @@
       <c r="BE9" s="23"/>
       <c r="BF9" s="23"/>
     </row>
-    <row r="10" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L10" s="19"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
@@ -6557,7 +7585,7 @@
       <c r="BE10" s="23"/>
       <c r="BF10" s="23"/>
     </row>
-    <row r="11" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L11" s="19"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
@@ -6571,7 +7599,7 @@
       <c r="BE11" s="23"/>
       <c r="BF11" s="23"/>
     </row>
-    <row r="12" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L12" s="19"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -6585,7 +7613,7 @@
       <c r="BE12" s="23"/>
       <c r="BF12" s="23"/>
     </row>
-    <row r="13" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L13" s="19"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
@@ -6599,7 +7627,7 @@
       <c r="BE13" s="23"/>
       <c r="BF13" s="23"/>
     </row>
-    <row r="14" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L14" s="19"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
@@ -6613,7 +7641,7 @@
       <c r="BE14" s="23"/>
       <c r="BF14" s="23"/>
     </row>
-    <row r="15" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L15" s="19"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
@@ -6627,7 +7655,7 @@
       <c r="BE15" s="23"/>
       <c r="BF15" s="23"/>
     </row>
-    <row r="16" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L16" s="19"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
@@ -6641,7 +7669,7 @@
       <c r="BE16" s="23"/>
       <c r="BF16" s="23"/>
     </row>
-    <row r="17" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L17" s="19"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
@@ -6655,7 +7683,7 @@
       <c r="BE17" s="23"/>
       <c r="BF17" s="23"/>
     </row>
-    <row r="18" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L18" s="19"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
@@ -6669,7 +7697,7 @@
       <c r="BE18" s="23"/>
       <c r="BF18" s="23"/>
     </row>
-    <row r="19" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L19" s="19"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
@@ -6683,7 +7711,7 @@
       <c r="BE19" s="23"/>
       <c r="BF19" s="23"/>
     </row>
-    <row r="20" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L20" s="19"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
@@ -6697,7 +7725,7 @@
       <c r="BE20" s="23"/>
       <c r="BF20" s="23"/>
     </row>
-    <row r="21" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L21" s="19"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
@@ -6711,7 +7739,7 @@
       <c r="BE21" s="23"/>
       <c r="BF21" s="23"/>
     </row>
-    <row r="22" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L22" s="19"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
@@ -6725,7 +7753,7 @@
       <c r="BE22" s="23"/>
       <c r="BF22" s="23"/>
     </row>
-    <row r="23" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L23" s="19"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
@@ -6739,7 +7767,7 @@
       <c r="BE23" s="23"/>
       <c r="BF23" s="23"/>
     </row>
-    <row r="24" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="19"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
@@ -6753,7 +7781,7 @@
       <c r="BE24" s="23"/>
       <c r="BF24" s="23"/>
     </row>
-    <row r="25" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L25" s="19"/>
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
@@ -6767,7 +7795,7 @@
       <c r="BE25" s="23"/>
       <c r="BF25" s="23"/>
     </row>
-    <row r="26" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L26" s="19"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
@@ -6781,7 +7809,7 @@
       <c r="BE26" s="23"/>
       <c r="BF26" s="23"/>
     </row>
-    <row r="27" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L27" s="19"/>
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
@@ -6795,7 +7823,7 @@
       <c r="BE27" s="23"/>
       <c r="BF27" s="23"/>
     </row>
-    <row r="28" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L28" s="19"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
@@ -6809,7 +7837,7 @@
       <c r="BE28" s="23"/>
       <c r="BF28" s="23"/>
     </row>
-    <row r="29" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L29" s="19"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
@@ -6823,7 +7851,7 @@
       <c r="BE29" s="23"/>
       <c r="BF29" s="23"/>
     </row>
-    <row r="30" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L30" s="19"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
@@ -6837,7 +7865,7 @@
       <c r="BE30" s="23"/>
       <c r="BF30" s="23"/>
     </row>
-    <row r="31" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L31" s="19"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
@@ -6851,7 +7879,7 @@
       <c r="BE31" s="23"/>
       <c r="BF31" s="23"/>
     </row>
-    <row r="32" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L32" s="19"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
@@ -6865,7 +7893,7 @@
       <c r="BE32" s="23"/>
       <c r="BF32" s="23"/>
     </row>
-    <row r="33" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L33" s="19"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
@@ -6879,7 +7907,7 @@
       <c r="BE33" s="23"/>
       <c r="BF33" s="23"/>
     </row>
-    <row r="34" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L34" s="19"/>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
@@ -6893,7 +7921,7 @@
       <c r="BE34" s="23"/>
       <c r="BF34" s="23"/>
     </row>
-    <row r="35" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L35" s="19"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
@@ -6907,7 +7935,7 @@
       <c r="BE35" s="23"/>
       <c r="BF35" s="23"/>
     </row>
-    <row r="36" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L36" s="19"/>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
@@ -6921,7 +7949,7 @@
       <c r="BE36" s="23"/>
       <c r="BF36" s="23"/>
     </row>
-    <row r="37" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L37" s="19"/>
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
@@ -6935,7 +7963,7 @@
       <c r="BE37" s="23"/>
       <c r="BF37" s="23"/>
     </row>
-    <row r="38" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L38" s="19"/>
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
@@ -6949,7 +7977,7 @@
       <c r="BE38" s="23"/>
       <c r="BF38" s="23"/>
     </row>
-    <row r="39" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L39" s="19"/>
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
@@ -6963,7 +7991,7 @@
       <c r="BE39" s="23"/>
       <c r="BF39" s="23"/>
     </row>
-    <row r="40" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L40" s="19"/>
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
@@ -6977,7 +8005,7 @@
       <c r="BE40" s="23"/>
       <c r="BF40" s="23"/>
     </row>
-    <row r="41" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L41" s="19"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
@@ -6991,7 +8019,7 @@
       <c r="BE41" s="23"/>
       <c r="BF41" s="23"/>
     </row>
-    <row r="42" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L42" s="19"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
@@ -7005,7 +8033,7 @@
       <c r="BE42" s="23"/>
       <c r="BF42" s="23"/>
     </row>
-    <row r="43" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L43" s="19"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
@@ -7019,7 +8047,7 @@
       <c r="BE43" s="23"/>
       <c r="BF43" s="23"/>
     </row>
-    <row r="44" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L44" s="19"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
@@ -7033,7 +8061,7 @@
       <c r="BE44" s="23"/>
       <c r="BF44" s="23"/>
     </row>
-    <row r="45" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L45" s="19"/>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
@@ -7047,7 +8075,7 @@
       <c r="BE45" s="23"/>
       <c r="BF45" s="23"/>
     </row>
-    <row r="46" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L46" s="19"/>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
@@ -7061,7 +8089,7 @@
       <c r="BE46" s="23"/>
       <c r="BF46" s="23"/>
     </row>
-    <row r="47" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L47" s="19"/>
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
@@ -7075,7 +8103,7 @@
       <c r="BE47" s="23"/>
       <c r="BF47" s="23"/>
     </row>
-    <row r="48" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L48" s="19"/>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
@@ -7089,7 +8117,7 @@
       <c r="BE48" s="23"/>
       <c r="BF48" s="23"/>
     </row>
-    <row r="49" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L49" s="19"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
@@ -7103,7 +8131,7 @@
       <c r="BE49" s="23"/>
       <c r="BF49" s="23"/>
     </row>
-    <row r="50" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L50" s="19"/>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
@@ -7117,7 +8145,7 @@
       <c r="BE50" s="23"/>
       <c r="BF50" s="23"/>
     </row>
-    <row r="51" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L51" s="19"/>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
@@ -7131,7 +8159,7 @@
       <c r="BE51" s="23"/>
       <c r="BF51" s="23"/>
     </row>
-    <row r="52" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L52" s="19"/>
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
@@ -7145,7 +8173,7 @@
       <c r="BE52" s="23"/>
       <c r="BF52" s="23"/>
     </row>
-    <row r="53" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L53" s="19"/>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
@@ -7159,7 +8187,7 @@
       <c r="BE53" s="23"/>
       <c r="BF53" s="23"/>
     </row>
-    <row r="54" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L54" s="19"/>
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
@@ -7173,7 +8201,7 @@
       <c r="BE54" s="23"/>
       <c r="BF54" s="23"/>
     </row>
-    <row r="55" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L55" s="19"/>
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
@@ -7187,7 +8215,7 @@
       <c r="BE55" s="23"/>
       <c r="BF55" s="23"/>
     </row>
-    <row r="56" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L56" s="19"/>
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
@@ -7201,7 +8229,7 @@
       <c r="BE56" s="23"/>
       <c r="BF56" s="23"/>
     </row>
-    <row r="57" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L57" s="19"/>
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
@@ -7215,7 +8243,7 @@
       <c r="BE57" s="23"/>
       <c r="BF57" s="23"/>
     </row>
-    <row r="58" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L58" s="19"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
@@ -7229,7 +8257,7 @@
       <c r="BE58" s="23"/>
       <c r="BF58" s="23"/>
     </row>
-    <row r="59" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L59" s="19"/>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
@@ -7243,7 +8271,7 @@
       <c r="BE59" s="23"/>
       <c r="BF59" s="23"/>
     </row>
-    <row r="60" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L60" s="19"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
@@ -7257,7 +8285,7 @@
       <c r="BE60" s="23"/>
       <c r="BF60" s="23"/>
     </row>
-    <row r="61" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L61" s="19"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
@@ -7271,7 +8299,7 @@
       <c r="BE61" s="23"/>
       <c r="BF61" s="23"/>
     </row>
-    <row r="62" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L62" s="19"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
@@ -7285,7 +8313,7 @@
       <c r="BE62" s="23"/>
       <c r="BF62" s="23"/>
     </row>
-    <row r="63" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L63" s="19"/>
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
@@ -7299,7 +8327,7 @@
       <c r="BE63" s="23"/>
       <c r="BF63" s="23"/>
     </row>
-    <row r="64" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L64" s="19"/>
       <c r="M64" s="23"/>
       <c r="N64" s="23"/>
@@ -7313,7 +8341,7 @@
       <c r="BE64" s="23"/>
       <c r="BF64" s="23"/>
     </row>
-    <row r="65" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L65" s="19"/>
       <c r="M65" s="23"/>
       <c r="N65" s="23"/>
@@ -7327,7 +8355,7 @@
       <c r="BE65" s="23"/>
       <c r="BF65" s="23"/>
     </row>
-    <row r="66" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L66" s="19"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
@@ -7341,7 +8369,7 @@
       <c r="BE66" s="23"/>
       <c r="BF66" s="23"/>
     </row>
-    <row r="67" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L67" s="19"/>
       <c r="M67" s="23"/>
       <c r="N67" s="23"/>
@@ -7355,7 +8383,7 @@
       <c r="BE67" s="23"/>
       <c r="BF67" s="23"/>
     </row>
-    <row r="68" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="19"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
@@ -7369,7 +8397,7 @@
       <c r="BE68" s="23"/>
       <c r="BF68" s="23"/>
     </row>
-    <row r="69" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L69" s="19"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
@@ -7383,7 +8411,7 @@
       <c r="BE69" s="23"/>
       <c r="BF69" s="23"/>
     </row>
-    <row r="70" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L70" s="19"/>
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
@@ -7397,7 +8425,7 @@
       <c r="BE70" s="23"/>
       <c r="BF70" s="23"/>
     </row>
-    <row r="71" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L71" s="19"/>
       <c r="M71" s="23"/>
       <c r="N71" s="23"/>
@@ -7411,7 +8439,7 @@
       <c r="BE71" s="23"/>
       <c r="BF71" s="23"/>
     </row>
-    <row r="72" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L72" s="19"/>
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
@@ -7425,7 +8453,7 @@
       <c r="BE72" s="23"/>
       <c r="BF72" s="23"/>
     </row>
-    <row r="73" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L73" s="19"/>
       <c r="M73" s="23"/>
       <c r="N73" s="23"/>
@@ -7439,7 +8467,7 @@
       <c r="BE73" s="23"/>
       <c r="BF73" s="23"/>
     </row>
-    <row r="74" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L74" s="19"/>
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
@@ -7453,7 +8481,7 @@
       <c r="BE74" s="23"/>
       <c r="BF74" s="23"/>
     </row>
-    <row r="75" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L75" s="19"/>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
@@ -7467,7 +8495,7 @@
       <c r="BE75" s="23"/>
       <c r="BF75" s="23"/>
     </row>
-    <row r="76" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L76" s="19"/>
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
@@ -7481,7 +8509,7 @@
       <c r="BE76" s="23"/>
       <c r="BF76" s="23"/>
     </row>
-    <row r="77" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L77" s="19"/>
       <c r="M77" s="23"/>
       <c r="N77" s="23"/>
@@ -7495,7 +8523,7 @@
       <c r="BE77" s="23"/>
       <c r="BF77" s="23"/>
     </row>
-    <row r="78" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L78" s="19"/>
       <c r="M78" s="23"/>
       <c r="N78" s="23"/>
@@ -7509,7 +8537,7 @@
       <c r="BE78" s="23"/>
       <c r="BF78" s="23"/>
     </row>
-    <row r="79" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L79" s="19"/>
       <c r="M79" s="23"/>
       <c r="N79" s="23"/>
@@ -7523,7 +8551,7 @@
       <c r="BE79" s="23"/>
       <c r="BF79" s="23"/>
     </row>
-    <row r="80" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L80" s="19"/>
       <c r="M80" s="23"/>
       <c r="N80" s="23"/>
@@ -7537,7 +8565,7 @@
       <c r="BE80" s="23"/>
       <c r="BF80" s="23"/>
     </row>
-    <row r="81" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L81" s="19"/>
       <c r="M81" s="23"/>
       <c r="N81" s="23"/>
@@ -7551,7 +8579,7 @@
       <c r="BE81" s="23"/>
       <c r="BF81" s="23"/>
     </row>
-    <row r="82" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L82" s="19"/>
       <c r="M82" s="23"/>
       <c r="N82" s="23"/>
@@ -7565,7 +8593,7 @@
       <c r="BE82" s="23"/>
       <c r="BF82" s="23"/>
     </row>
-    <row r="83" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L83" s="19"/>
       <c r="M83" s="23"/>
       <c r="N83" s="23"/>
@@ -7579,7 +8607,7 @@
       <c r="BE83" s="23"/>
       <c r="BF83" s="23"/>
     </row>
-    <row r="84" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L84" s="19"/>
       <c r="M84" s="23"/>
       <c r="N84" s="23"/>
@@ -7593,7 +8621,7 @@
       <c r="BE84" s="23"/>
       <c r="BF84" s="23"/>
     </row>
-    <row r="85" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L85" s="19"/>
       <c r="M85" s="23"/>
       <c r="N85" s="23"/>
@@ -7607,7 +8635,7 @@
       <c r="BE85" s="23"/>
       <c r="BF85" s="23"/>
     </row>
-    <row r="86" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L86" s="19"/>
       <c r="M86" s="23"/>
       <c r="N86" s="23"/>
@@ -7621,7 +8649,7 @@
       <c r="BE86" s="23"/>
       <c r="BF86" s="23"/>
     </row>
-    <row r="87" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L87" s="19"/>
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
@@ -7635,7 +8663,7 @@
       <c r="BE87" s="23"/>
       <c r="BF87" s="23"/>
     </row>
-    <row r="88" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L88" s="19"/>
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
@@ -7649,7 +8677,7 @@
       <c r="BE88" s="23"/>
       <c r="BF88" s="23"/>
     </row>
-    <row r="89" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L89" s="19"/>
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
@@ -7663,7 +8691,7 @@
       <c r="BE89" s="23"/>
       <c r="BF89" s="23"/>
     </row>
-    <row r="90" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L90" s="19"/>
       <c r="M90" s="23"/>
       <c r="N90" s="23"/>
@@ -7677,7 +8705,7 @@
       <c r="BE90" s="23"/>
       <c r="BF90" s="23"/>
     </row>
-    <row r="91" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L91" s="19"/>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
@@ -7691,7 +8719,7 @@
       <c r="BE91" s="23"/>
       <c r="BF91" s="23"/>
     </row>
-    <row r="92" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L92" s="19"/>
       <c r="M92" s="23"/>
       <c r="N92" s="23"/>
@@ -7705,7 +8733,7 @@
       <c r="BE92" s="23"/>
       <c r="BF92" s="23"/>
     </row>
-    <row r="93" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L93" s="19"/>
       <c r="M93" s="23"/>
       <c r="N93" s="23"/>
@@ -7719,7 +8747,7 @@
       <c r="BE93" s="23"/>
       <c r="BF93" s="23"/>
     </row>
-    <row r="94" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L94" s="19"/>
       <c r="M94" s="23"/>
       <c r="N94" s="23"/>
@@ -7733,7 +8761,7 @@
       <c r="BE94" s="23"/>
       <c r="BF94" s="23"/>
     </row>
-    <row r="95" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L95" s="19"/>
       <c r="M95" s="23"/>
       <c r="N95" s="23"/>
@@ -7747,7 +8775,7 @@
       <c r="BE95" s="23"/>
       <c r="BF95" s="23"/>
     </row>
-    <row r="96" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L96" s="19"/>
       <c r="M96" s="23"/>
       <c r="N96" s="23"/>
@@ -7761,7 +8789,7 @@
       <c r="BE96" s="23"/>
       <c r="BF96" s="23"/>
     </row>
-    <row r="97" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L97" s="19"/>
       <c r="M97" s="23"/>
       <c r="N97" s="23"/>
@@ -7775,7 +8803,7 @@
       <c r="BE97" s="23"/>
       <c r="BF97" s="23"/>
     </row>
-    <row r="98" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L98" s="19"/>
       <c r="M98" s="23"/>
       <c r="N98" s="23"/>
@@ -7789,7 +8817,7 @@
       <c r="BE98" s="23"/>
       <c r="BF98" s="23"/>
     </row>
-    <row r="99" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L99" s="19"/>
       <c r="M99" s="23"/>
       <c r="N99" s="23"/>
@@ -7803,7 +8831,7 @@
       <c r="BE99" s="23"/>
       <c r="BF99" s="23"/>
     </row>
-    <row r="100" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L100" s="19"/>
       <c r="M100" s="23"/>
       <c r="N100" s="23"/>
@@ -7817,7 +8845,7 @@
       <c r="BE100" s="23"/>
       <c r="BF100" s="23"/>
     </row>
-    <row r="101" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L101" s="19"/>
       <c r="M101" s="23"/>
       <c r="N101" s="23"/>
@@ -7831,7 +8859,7 @@
       <c r="BE101" s="23"/>
       <c r="BF101" s="23"/>
     </row>
-    <row r="102" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L102" s="19"/>
       <c r="M102" s="23"/>
       <c r="N102" s="23"/>
@@ -7845,7 +8873,7 @@
       <c r="BE102" s="23"/>
       <c r="BF102" s="23"/>
     </row>
-    <row r="103" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L103" s="19"/>
       <c r="M103" s="23"/>
       <c r="T103" s="23"/>
@@ -7858,7 +8886,7 @@
       <c r="BE103" s="23"/>
       <c r="BF103" s="23"/>
     </row>
-    <row r="104" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L104" s="19"/>
       <c r="M104" s="23"/>
       <c r="T104" s="23"/>
@@ -7871,7 +8899,7 @@
       <c r="BE104" s="23"/>
       <c r="BF104" s="23"/>
     </row>
-    <row r="105" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L105" s="19"/>
       <c r="M105" s="23"/>
       <c r="T105" s="23"/>
@@ -7884,7 +8912,7 @@
       <c r="BE105" s="23"/>
       <c r="BF105" s="23"/>
     </row>
-    <row r="106" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L106" s="19"/>
       <c r="M106" s="23"/>
       <c r="T106" s="23"/>
@@ -7897,7 +8925,7 @@
       <c r="BE106" s="23"/>
       <c r="BF106" s="23"/>
     </row>
-    <row r="107" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L107" s="19"/>
       <c r="M107" s="23"/>
       <c r="T107" s="23"/>
@@ -7910,7 +8938,7 @@
       <c r="BE107" s="23"/>
       <c r="BF107" s="23"/>
     </row>
-    <row r="108" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L108" s="19"/>
       <c r="M108" s="23"/>
       <c r="X108" s="23"/>
@@ -7922,7 +8950,7 @@
       <c r="BE108" s="23"/>
       <c r="BF108" s="23"/>
     </row>
-    <row r="109" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z109" s="23"/>
       <c r="AD109" s="23"/>
       <c r="AG109" s="23"/>
@@ -7931,7 +8959,7 @@
       <c r="BE109" s="23"/>
       <c r="BF109" s="23"/>
     </row>
-    <row r="110" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z110" s="23"/>
       <c r="AD110" s="23"/>
       <c r="AG110" s="23"/>
@@ -7940,7 +8968,7 @@
       <c r="BE110" s="23"/>
       <c r="BF110" s="23"/>
     </row>
-    <row r="111" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z111" s="23"/>
       <c r="AD111" s="23"/>
       <c r="AG111" s="23"/>
@@ -7949,7 +8977,7 @@
       <c r="BE111" s="23"/>
       <c r="BF111" s="23"/>
     </row>
-    <row r="112" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z112" s="23"/>
       <c r="AD112" s="23"/>
       <c r="AG112" s="23"/>
@@ -7958,7 +8986,7 @@
       <c r="BE112" s="23"/>
       <c r="BF112" s="23"/>
     </row>
-    <row r="113" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z113" s="23"/>
       <c r="AD113" s="23"/>
       <c r="AG113" s="23"/>
@@ -7967,7 +8995,7 @@
       <c r="BE113" s="23"/>
       <c r="BF113" s="23"/>
     </row>
-    <row r="114" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z114" s="23"/>
       <c r="AD114" s="23"/>
       <c r="AG114" s="23"/>
@@ -7976,7 +9004,7 @@
       <c r="BE114" s="23"/>
       <c r="BF114" s="23"/>
     </row>
-    <row r="115" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z115" s="23"/>
       <c r="AD115" s="23"/>
       <c r="AG115" s="23"/>
@@ -7985,7 +9013,7 @@
       <c r="BE115" s="23"/>
       <c r="BF115" s="23"/>
     </row>
-    <row r="116" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z116" s="23"/>
       <c r="AD116" s="23"/>
       <c r="AG116" s="23"/>
@@ -7994,7 +9022,7 @@
       <c r="BE116" s="23"/>
       <c r="BF116" s="23"/>
     </row>
-    <row r="117" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z117" s="23"/>
       <c r="AD117" s="23"/>
       <c r="AG117" s="23"/>
@@ -8003,7 +9031,7 @@
       <c r="BE117" s="23"/>
       <c r="BF117" s="23"/>
     </row>
-    <row r="118" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z118" s="23"/>
       <c r="AD118" s="23"/>
       <c r="AG118" s="23"/>
@@ -8012,7 +9040,7 @@
       <c r="BE118" s="23"/>
       <c r="BF118" s="23"/>
     </row>
-    <row r="119" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z119" s="23"/>
       <c r="AD119" s="23"/>
       <c r="AG119" s="23"/>
@@ -8021,7 +9049,7 @@
       <c r="BE119" s="23"/>
       <c r="BF119" s="23"/>
     </row>
-    <row r="120" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z120" s="23"/>
       <c r="AD120" s="23"/>
       <c r="AG120" s="23"/>
@@ -8030,7 +9058,7 @@
       <c r="BE120" s="23"/>
       <c r="BF120" s="23"/>
     </row>
-    <row r="121" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z121" s="23"/>
       <c r="AD121" s="23"/>
       <c r="AG121" s="23"/>
@@ -8039,7 +9067,7 @@
       <c r="BE121" s="23"/>
       <c r="BF121" s="23"/>
     </row>
-    <row r="122" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z122" s="23"/>
       <c r="AD122" s="23"/>
       <c r="AG122" s="23"/>
@@ -8048,7 +9076,7 @@
       <c r="BE122" s="23"/>
       <c r="BF122" s="23"/>
     </row>
-    <row r="123" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z123" s="23"/>
       <c r="AD123" s="23"/>
       <c r="AG123" s="23"/>
@@ -8057,7 +9085,7 @@
       <c r="BE123" s="23"/>
       <c r="BF123" s="23"/>
     </row>
-    <row r="124" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z124" s="23"/>
       <c r="AD124" s="23"/>
       <c r="AG124" s="23"/>
@@ -8066,7 +9094,7 @@
       <c r="BE124" s="23"/>
       <c r="BF124" s="23"/>
     </row>
-    <row r="125" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z125" s="23"/>
       <c r="AD125" s="23"/>
       <c r="AG125" s="23"/>
@@ -8075,7 +9103,7 @@
       <c r="BE125" s="23"/>
       <c r="BF125" s="23"/>
     </row>
-    <row r="126" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z126" s="23"/>
       <c r="AD126" s="23"/>
       <c r="AG126" s="23"/>
@@ -8084,7 +9112,7 @@
       <c r="BE126" s="23"/>
       <c r="BF126" s="23"/>
     </row>
-    <row r="127" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z127" s="23"/>
       <c r="AD127" s="23"/>
       <c r="AG127" s="23"/>
@@ -8093,7 +9121,7 @@
       <c r="BE127" s="23"/>
       <c r="BF127" s="23"/>
     </row>
-    <row r="128" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z128" s="23"/>
       <c r="AD128" s="23"/>
       <c r="AG128" s="23"/>
@@ -8102,7 +9130,7 @@
       <c r="BE128" s="23"/>
       <c r="BF128" s="23"/>
     </row>
-    <row r="129" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z129" s="23"/>
       <c r="AD129" s="23"/>
       <c r="AG129" s="23"/>
@@ -8111,7 +9139,7 @@
       <c r="BE129" s="23"/>
       <c r="BF129" s="23"/>
     </row>
-    <row r="130" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z130" s="23"/>
       <c r="AD130" s="23"/>
       <c r="AG130" s="23"/>
@@ -8120,7 +9148,7 @@
       <c r="BE130" s="23"/>
       <c r="BF130" s="23"/>
     </row>
-    <row r="131" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z131" s="23"/>
       <c r="AD131" s="23"/>
       <c r="AG131" s="23"/>
@@ -8129,7 +9157,7 @@
       <c r="BE131" s="23"/>
       <c r="BF131" s="23"/>
     </row>
-    <row r="132" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z132" s="23"/>
       <c r="AD132" s="23"/>
       <c r="AG132" s="23"/>
@@ -8138,7 +9166,7 @@
       <c r="BE132" s="23"/>
       <c r="BF132" s="23"/>
     </row>
-    <row r="133" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z133" s="23"/>
       <c r="AD133" s="23"/>
       <c r="AG133" s="23"/>
@@ -8147,7 +9175,7 @@
       <c r="BE133" s="23"/>
       <c r="BF133" s="23"/>
     </row>
-    <row r="134" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z134" s="23"/>
       <c r="AD134" s="23"/>
       <c r="AG134" s="23"/>
@@ -8156,7 +9184,7 @@
       <c r="BE134" s="23"/>
       <c r="BF134" s="23"/>
     </row>
-    <row r="135" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z135" s="23"/>
       <c r="AD135" s="23"/>
       <c r="AG135" s="23"/>
@@ -8165,7 +9193,7 @@
       <c r="BE135" s="23"/>
       <c r="BF135" s="23"/>
     </row>
-    <row r="136" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z136" s="23"/>
       <c r="AD136" s="23"/>
       <c r="AG136" s="23"/>
@@ -8174,7 +9202,7 @@
       <c r="BE136" s="23"/>
       <c r="BF136" s="23"/>
     </row>
-    <row r="137" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z137" s="23"/>
       <c r="AD137" s="23"/>
       <c r="AG137" s="23"/>
@@ -8183,7 +9211,7 @@
       <c r="BE137" s="23"/>
       <c r="BF137" s="23"/>
     </row>
-    <row r="138" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z138" s="23"/>
       <c r="AD138" s="23"/>
       <c r="AG138" s="23"/>
@@ -8192,7 +9220,7 @@
       <c r="BE138" s="23"/>
       <c r="BF138" s="23"/>
     </row>
-    <row r="139" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z139" s="23"/>
       <c r="AD139" s="23"/>
       <c r="AG139" s="23"/>
@@ -8201,7 +9229,7 @@
       <c r="BE139" s="23"/>
       <c r="BF139" s="23"/>
     </row>
-    <row r="140" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z140" s="23"/>
       <c r="AD140" s="23"/>
       <c r="AG140" s="23"/>
@@ -8210,7 +9238,7 @@
       <c r="BE140" s="23"/>
       <c r="BF140" s="23"/>
     </row>
-    <row r="141" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z141" s="23"/>
       <c r="AD141" s="23"/>
       <c r="AG141" s="23"/>
@@ -8219,7 +9247,7 @@
       <c r="BE141" s="23"/>
       <c r="BF141" s="23"/>
     </row>
-    <row r="142" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z142" s="23"/>
       <c r="AD142" s="23"/>
       <c r="AG142" s="23"/>
@@ -8228,7 +9256,7 @@
       <c r="BE142" s="23"/>
       <c r="BF142" s="23"/>
     </row>
-    <row r="143" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z143" s="23"/>
       <c r="AD143" s="23"/>
       <c r="AG143" s="23"/>
@@ -8237,7 +9265,7 @@
       <c r="BE143" s="23"/>
       <c r="BF143" s="23"/>
     </row>
-    <row r="144" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z144" s="23"/>
       <c r="AD144" s="23"/>
       <c r="AG144" s="23"/>
@@ -8246,7 +9274,7 @@
       <c r="BE144" s="23"/>
       <c r="BF144" s="23"/>
     </row>
-    <row r="145" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z145" s="23"/>
       <c r="AD145" s="23"/>
       <c r="AG145" s="23"/>
@@ -8255,7 +9283,7 @@
       <c r="BE145" s="23"/>
       <c r="BF145" s="23"/>
     </row>
-    <row r="146" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z146" s="23"/>
       <c r="AD146" s="23"/>
       <c r="AG146" s="23"/>
@@ -8264,7 +9292,7 @@
       <c r="BE146" s="23"/>
       <c r="BF146" s="23"/>
     </row>
-    <row r="147" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z147" s="23"/>
       <c r="AD147" s="23"/>
       <c r="AG147" s="23"/>
@@ -8273,7 +9301,7 @@
       <c r="BE147" s="23"/>
       <c r="BF147" s="23"/>
     </row>
-    <row r="148" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z148" s="23"/>
       <c r="AD148" s="23"/>
       <c r="AG148" s="23"/>
@@ -8282,7 +9310,7 @@
       <c r="BE148" s="23"/>
       <c r="BF148" s="23"/>
     </row>
-    <row r="149" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z149" s="23"/>
       <c r="AD149" s="23"/>
       <c r="AG149" s="23"/>
@@ -8291,7 +9319,7 @@
       <c r="BE149" s="23"/>
       <c r="BF149" s="23"/>
     </row>
-    <row r="150" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z150" s="23"/>
       <c r="AD150" s="23"/>
       <c r="AG150" s="23"/>
@@ -8300,7 +9328,7 @@
       <c r="BE150" s="23"/>
       <c r="BF150" s="23"/>
     </row>
-    <row r="151" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z151" s="23"/>
       <c r="AD151" s="23"/>
       <c r="AG151" s="23"/>
@@ -8309,7 +9337,7 @@
       <c r="BE151" s="23"/>
       <c r="BF151" s="23"/>
     </row>
-    <row r="152" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z152" s="23"/>
       <c r="AD152" s="23"/>
       <c r="AG152" s="23"/>
@@ -8318,7 +9346,7 @@
       <c r="BE152" s="23"/>
       <c r="BF152" s="23"/>
     </row>
-    <row r="153" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z153" s="23"/>
       <c r="AD153" s="23"/>
       <c r="AG153" s="23"/>
@@ -8327,7 +9355,7 @@
       <c r="BE153" s="23"/>
       <c r="BF153" s="23"/>
     </row>
-    <row r="154" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z154" s="23"/>
       <c r="AD154" s="23"/>
       <c r="AG154" s="23"/>
@@ -8336,7 +9364,7 @@
       <c r="BE154" s="23"/>
       <c r="BF154" s="23"/>
     </row>
-    <row r="155" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z155" s="23"/>
       <c r="AD155" s="23"/>
       <c r="AG155" s="23"/>
@@ -8345,7 +9373,7 @@
       <c r="BE155" s="23"/>
       <c r="BF155" s="23"/>
     </row>
-    <row r="156" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z156" s="23"/>
       <c r="AD156" s="23"/>
       <c r="AG156" s="23"/>
@@ -8354,7 +9382,7 @@
       <c r="BE156" s="23"/>
       <c r="BF156" s="23"/>
     </row>
-    <row r="157" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z157" s="23"/>
       <c r="AD157" s="23"/>
       <c r="AG157" s="23"/>
@@ -8363,7 +9391,7 @@
       <c r="BE157" s="23"/>
       <c r="BF157" s="23"/>
     </row>
-    <row r="158" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z158" s="23"/>
       <c r="AD158" s="23"/>
       <c r="AG158" s="23"/>
@@ -8372,7 +9400,7 @@
       <c r="BE158" s="23"/>
       <c r="BF158" s="23"/>
     </row>
-    <row r="159" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z159" s="23"/>
       <c r="AD159" s="23"/>
       <c r="AG159" s="23"/>
@@ -8381,7 +9409,7 @@
       <c r="BE159" s="23"/>
       <c r="BF159" s="23"/>
     </row>
-    <row r="160" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z160" s="23"/>
       <c r="AD160" s="23"/>
       <c r="AG160" s="23"/>
@@ -8390,7 +9418,7 @@
       <c r="BE160" s="23"/>
       <c r="BF160" s="23"/>
     </row>
-    <row r="161" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z161" s="23"/>
       <c r="AD161" s="23"/>
       <c r="AG161" s="23"/>
@@ -8399,7 +9427,7 @@
       <c r="BE161" s="23"/>
       <c r="BF161" s="23"/>
     </row>
-    <row r="162" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z162" s="23"/>
       <c r="AD162" s="23"/>
       <c r="AG162" s="23"/>
@@ -8408,7 +9436,7 @@
       <c r="BE162" s="23"/>
       <c r="BF162" s="23"/>
     </row>
-    <row r="163" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z163" s="23"/>
       <c r="AD163" s="23"/>
       <c r="AG163" s="23"/>
@@ -8417,7 +9445,7 @@
       <c r="BE163" s="23"/>
       <c r="BF163" s="23"/>
     </row>
-    <row r="164" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z164" s="23"/>
       <c r="AD164" s="23"/>
       <c r="AG164" s="23"/>
@@ -8426,7 +9454,7 @@
       <c r="BE164" s="23"/>
       <c r="BF164" s="23"/>
     </row>
-    <row r="165" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z165" s="23"/>
       <c r="AD165" s="23"/>
       <c r="AG165" s="23"/>
@@ -8435,7 +9463,7 @@
       <c r="BE165" s="23"/>
       <c r="BF165" s="23"/>
     </row>
-    <row r="166" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z166" s="23"/>
       <c r="AD166" s="23"/>
       <c r="AG166" s="23"/>
@@ -8444,7 +9472,7 @@
       <c r="BE166" s="23"/>
       <c r="BF166" s="23"/>
     </row>
-    <row r="167" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z167" s="23"/>
       <c r="AD167" s="23"/>
       <c r="AG167" s="23"/>
@@ -8453,7 +9481,7 @@
       <c r="BE167" s="23"/>
       <c r="BF167" s="23"/>
     </row>
-    <row r="168" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z168" s="23"/>
       <c r="AD168" s="23"/>
       <c r="AG168" s="23"/>
@@ -8462,7 +9490,7 @@
       <c r="BE168" s="23"/>
       <c r="BF168" s="23"/>
     </row>
-    <row r="169" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z169" s="23"/>
       <c r="AD169" s="23"/>
       <c r="AG169" s="23"/>
@@ -8471,7 +9499,7 @@
       <c r="BE169" s="23"/>
       <c r="BF169" s="23"/>
     </row>
-    <row r="170" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z170" s="23"/>
       <c r="AD170" s="23"/>
       <c r="AG170" s="23"/>
@@ -8480,7 +9508,7 @@
       <c r="BE170" s="23"/>
       <c r="BF170" s="23"/>
     </row>
-    <row r="171" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z171" s="23"/>
       <c r="AD171" s="23"/>
       <c r="AG171" s="23"/>
@@ -8489,7 +9517,7 @@
       <c r="BE171" s="23"/>
       <c r="BF171" s="23"/>
     </row>
-    <row r="172" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z172" s="23"/>
       <c r="AD172" s="23"/>
       <c r="AG172" s="23"/>
@@ -8498,7 +9526,7 @@
       <c r="BE172" s="23"/>
       <c r="BF172" s="23"/>
     </row>
-    <row r="173" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z173" s="23"/>
       <c r="AD173" s="23"/>
       <c r="AG173" s="23"/>
@@ -8507,7 +9535,7 @@
       <c r="BE173" s="23"/>
       <c r="BF173" s="23"/>
     </row>
-    <row r="174" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z174" s="23"/>
       <c r="AD174" s="23"/>
       <c r="AG174" s="23"/>
@@ -8516,7 +9544,7 @@
       <c r="BE174" s="23"/>
       <c r="BF174" s="23"/>
     </row>
-    <row r="175" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z175" s="23"/>
       <c r="AD175" s="23"/>
       <c r="AG175" s="23"/>
@@ -8525,7 +9553,7 @@
       <c r="BE175" s="23"/>
       <c r="BF175" s="23"/>
     </row>
-    <row r="176" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z176" s="23"/>
       <c r="AD176" s="23"/>
       <c r="AG176" s="23"/>
@@ -8534,7 +9562,7 @@
       <c r="BE176" s="23"/>
       <c r="BF176" s="23"/>
     </row>
-    <row r="177" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z177" s="23"/>
       <c r="AD177" s="23"/>
       <c r="AG177" s="23"/>
@@ -8543,7 +9571,7 @@
       <c r="BE177" s="23"/>
       <c r="BF177" s="23"/>
     </row>
-    <row r="178" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z178" s="23"/>
       <c r="AD178" s="23"/>
       <c r="AG178" s="23"/>
@@ -8552,7 +9580,7 @@
       <c r="BE178" s="23"/>
       <c r="BF178" s="23"/>
     </row>
-    <row r="179" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z179" s="23"/>
       <c r="AD179" s="23"/>
       <c r="AG179" s="23"/>
@@ -8561,7 +9589,7 @@
       <c r="BE179" s="23"/>
       <c r="BF179" s="23"/>
     </row>
-    <row r="180" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z180" s="23"/>
       <c r="AD180" s="23"/>
       <c r="AG180" s="23"/>
@@ -8570,7 +9598,7 @@
       <c r="BE180" s="23"/>
       <c r="BF180" s="23"/>
     </row>
-    <row r="181" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z181" s="23"/>
       <c r="AD181" s="23"/>
       <c r="AG181" s="23"/>
@@ -8579,7 +9607,7 @@
       <c r="BE181" s="23"/>
       <c r="BF181" s="23"/>
     </row>
-    <row r="182" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z182" s="23"/>
       <c r="AD182" s="23"/>
       <c r="AG182" s="23"/>
@@ -8588,7 +9616,7 @@
       <c r="BE182" s="23"/>
       <c r="BF182" s="23"/>
     </row>
-    <row r="183" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z183" s="23"/>
       <c r="AD183" s="23"/>
       <c r="AG183" s="23"/>
@@ -8597,7 +9625,7 @@
       <c r="BE183" s="23"/>
       <c r="BF183" s="23"/>
     </row>
-    <row r="184" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z184" s="23"/>
       <c r="AD184" s="23"/>
       <c r="AG184" s="23"/>
@@ -8606,7 +9634,7 @@
       <c r="BE184" s="23"/>
       <c r="BF184" s="23"/>
     </row>
-    <row r="185" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z185" s="23"/>
       <c r="AG185" s="23"/>
       <c r="AI185" s="23"/>
@@ -8614,7 +9642,7 @@
       <c r="BE185" s="23"/>
       <c r="BF185" s="23"/>
     </row>
-    <row r="186" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z186" s="23"/>
       <c r="AG186" s="23"/>
       <c r="AI186" s="23"/>
@@ -8622,1692 +9650,1692 @@
       <c r="BE186" s="23"/>
       <c r="BF186" s="23"/>
     </row>
-    <row r="187" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AG187" s="23"/>
       <c r="AI187" s="23"/>
       <c r="AQ187" s="30"/>
       <c r="BE187" s="23"/>
       <c r="BF187" s="23"/>
     </row>
-    <row r="188" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AG188" s="23"/>
       <c r="AI188" s="23"/>
       <c r="AQ188" s="30"/>
       <c r="BE188" s="23"/>
       <c r="BF188" s="23"/>
     </row>
-    <row r="189" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI189" s="23"/>
       <c r="AQ189" s="30"/>
       <c r="BE189" s="23"/>
       <c r="BF189" s="23"/>
     </row>
-    <row r="190" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI190" s="23"/>
       <c r="AQ190" s="30"/>
       <c r="BE190" s="23"/>
       <c r="BF190" s="23"/>
     </row>
-    <row r="191" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI191" s="23"/>
       <c r="AQ191" s="30"/>
       <c r="BE191" s="23"/>
       <c r="BF191" s="23"/>
     </row>
-    <row r="192" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI192" s="23"/>
       <c r="AQ192" s="30"/>
       <c r="BE192" s="23"/>
       <c r="BF192" s="23"/>
     </row>
-    <row r="193" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI193" s="23"/>
       <c r="AQ193" s="30"/>
       <c r="BE193" s="23"/>
       <c r="BF193" s="23"/>
     </row>
-    <row r="194" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI194" s="23"/>
       <c r="AQ194" s="30"/>
       <c r="BE194" s="23"/>
       <c r="BF194" s="23"/>
     </row>
-    <row r="195" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI195" s="23"/>
       <c r="AQ195" s="30"/>
       <c r="BE195" s="23"/>
       <c r="BF195" s="23"/>
     </row>
-    <row r="196" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI196" s="23"/>
       <c r="AQ196" s="30"/>
       <c r="BE196" s="23"/>
       <c r="BF196" s="23"/>
     </row>
-    <row r="197" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI197" s="23"/>
       <c r="AQ197" s="30"/>
       <c r="BE197" s="23"/>
       <c r="BF197" s="23"/>
     </row>
-    <row r="198" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI198" s="23"/>
       <c r="AQ198" s="30"/>
       <c r="BE198" s="23"/>
       <c r="BF198" s="23"/>
     </row>
-    <row r="199" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI199" s="23"/>
       <c r="AQ199" s="30"/>
       <c r="BE199" s="23"/>
       <c r="BF199" s="23"/>
     </row>
-    <row r="200" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI200" s="23"/>
       <c r="AQ200" s="30"/>
       <c r="BE200" s="23"/>
       <c r="BF200" s="23"/>
     </row>
-    <row r="201" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI201" s="23"/>
       <c r="AQ201" s="30"/>
       <c r="BE201" s="23"/>
       <c r="BF201" s="23"/>
     </row>
-    <row r="202" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI202" s="23"/>
       <c r="AQ202" s="30"/>
       <c r="BE202" s="23"/>
       <c r="BF202" s="23"/>
     </row>
-    <row r="203" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI203" s="23"/>
       <c r="AQ203" s="30"/>
       <c r="BE203" s="23"/>
       <c r="BF203" s="23"/>
     </row>
-    <row r="204" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI204" s="23"/>
       <c r="AQ204" s="30"/>
       <c r="BE204" s="23"/>
       <c r="BF204" s="23"/>
     </row>
-    <row r="205" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI205" s="23"/>
       <c r="AQ205" s="30"/>
       <c r="BE205" s="23"/>
       <c r="BF205" s="23"/>
     </row>
-    <row r="206" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI206" s="23"/>
       <c r="AQ206" s="30"/>
       <c r="BE206" s="23"/>
       <c r="BF206" s="23"/>
     </row>
-    <row r="207" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI207" s="23"/>
       <c r="AQ207" s="30"/>
       <c r="BE207" s="23"/>
       <c r="BF207" s="23"/>
     </row>
-    <row r="208" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI208" s="23"/>
       <c r="AQ208" s="30"/>
       <c r="BE208" s="23"/>
       <c r="BF208" s="23"/>
     </row>
-    <row r="209" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI209" s="23"/>
       <c r="AQ209" s="30"/>
       <c r="BE209" s="23"/>
       <c r="BF209" s="23"/>
     </row>
-    <row r="210" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI210" s="23"/>
       <c r="AQ210" s="30"/>
       <c r="BE210" s="23"/>
       <c r="BF210" s="23"/>
     </row>
-    <row r="211" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI211" s="23"/>
       <c r="AQ211" s="30"/>
       <c r="BE211" s="23"/>
       <c r="BF211" s="23"/>
     </row>
-    <row r="212" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI212" s="23"/>
       <c r="AQ212" s="30"/>
       <c r="BE212" s="23"/>
       <c r="BF212" s="23"/>
     </row>
-    <row r="213" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI213" s="23"/>
       <c r="AQ213" s="30"/>
       <c r="BE213" s="23"/>
       <c r="BF213" s="23"/>
     </row>
-    <row r="214" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI214" s="23"/>
       <c r="AQ214" s="30"/>
       <c r="BE214" s="23"/>
       <c r="BF214" s="23"/>
     </row>
-    <row r="215" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI215" s="23"/>
       <c r="AQ215" s="30"/>
       <c r="BE215" s="23"/>
       <c r="BF215" s="23"/>
     </row>
-    <row r="216" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI216" s="23"/>
       <c r="AQ216" s="30"/>
       <c r="BE216" s="23"/>
       <c r="BF216" s="23"/>
     </row>
-    <row r="217" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI217" s="23"/>
       <c r="AQ217" s="30"/>
       <c r="BE217" s="23"/>
       <c r="BF217" s="23"/>
     </row>
-    <row r="218" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI218" s="23"/>
       <c r="AQ218" s="30"/>
       <c r="BE218" s="23"/>
       <c r="BF218" s="23"/>
     </row>
-    <row r="219" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI219" s="23"/>
       <c r="AQ219" s="30"/>
       <c r="BE219" s="23"/>
       <c r="BF219" s="23"/>
     </row>
-    <row r="220" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI220" s="23"/>
       <c r="AQ220" s="30"/>
       <c r="BE220" s="23"/>
       <c r="BF220" s="23"/>
     </row>
-    <row r="221" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI221" s="23"/>
       <c r="AQ221" s="30"/>
       <c r="BE221" s="23"/>
       <c r="BF221" s="23"/>
     </row>
-    <row r="222" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI222" s="23"/>
       <c r="AQ222" s="30"/>
       <c r="BE222" s="23"/>
       <c r="BF222" s="23"/>
     </row>
-    <row r="223" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI223" s="23"/>
       <c r="AQ223" s="30"/>
       <c r="BE223" s="23"/>
       <c r="BF223" s="23"/>
     </row>
-    <row r="224" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI224" s="23"/>
       <c r="AQ224" s="30"/>
       <c r="BE224" s="23"/>
       <c r="BF224" s="23"/>
     </row>
-    <row r="225" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI225" s="23"/>
       <c r="AQ225" s="30"/>
       <c r="BE225" s="23"/>
       <c r="BF225" s="23"/>
     </row>
-    <row r="226" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI226" s="23"/>
       <c r="AQ226" s="30"/>
       <c r="BE226" s="23"/>
       <c r="BF226" s="23"/>
     </row>
-    <row r="227" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI227" s="23"/>
       <c r="AQ227" s="30"/>
       <c r="BE227" s="23"/>
       <c r="BF227" s="23"/>
     </row>
-    <row r="228" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI228" s="23"/>
       <c r="AQ228" s="30"/>
       <c r="BE228" s="23"/>
       <c r="BF228" s="23"/>
     </row>
-    <row r="229" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI229" s="23"/>
       <c r="AQ229" s="30"/>
       <c r="BE229" s="23"/>
       <c r="BF229" s="23"/>
     </row>
-    <row r="230" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI230" s="23"/>
       <c r="AQ230" s="30"/>
       <c r="BE230" s="23"/>
       <c r="BF230" s="23"/>
     </row>
-    <row r="231" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI231" s="23"/>
       <c r="AQ231" s="30"/>
       <c r="BE231" s="23"/>
       <c r="BF231" s="23"/>
     </row>
-    <row r="232" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI232" s="23"/>
       <c r="AQ232" s="30"/>
       <c r="BE232" s="23"/>
       <c r="BF232" s="23"/>
     </row>
-    <row r="233" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI233" s="23"/>
       <c r="AQ233" s="30"/>
       <c r="BE233" s="23"/>
       <c r="BF233" s="23"/>
     </row>
-    <row r="234" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI234" s="23"/>
       <c r="AQ234" s="30"/>
       <c r="BE234" s="23"/>
       <c r="BF234" s="23"/>
     </row>
-    <row r="235" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI235" s="23"/>
       <c r="AQ235" s="30"/>
       <c r="BE235" s="23"/>
       <c r="BF235" s="23"/>
     </row>
-    <row r="236" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI236" s="23"/>
       <c r="AQ236" s="30"/>
       <c r="BE236" s="23"/>
       <c r="BF236" s="23"/>
     </row>
-    <row r="237" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI237" s="23"/>
       <c r="AQ237" s="30"/>
       <c r="BE237" s="23"/>
       <c r="BF237" s="23"/>
     </row>
-    <row r="238" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI238" s="23"/>
       <c r="AQ238" s="30"/>
       <c r="BE238" s="23"/>
       <c r="BF238" s="23"/>
     </row>
-    <row r="239" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI239" s="23"/>
       <c r="AQ239" s="30"/>
       <c r="BE239" s="23"/>
       <c r="BF239" s="23"/>
     </row>
-    <row r="240" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI240" s="23"/>
       <c r="AQ240" s="30"/>
       <c r="BE240" s="23"/>
       <c r="BF240" s="23"/>
     </row>
-    <row r="241" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI241" s="23"/>
       <c r="AQ241" s="30"/>
       <c r="BE241" s="23"/>
       <c r="BF241" s="23"/>
     </row>
-    <row r="242" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI242" s="23"/>
       <c r="AQ242" s="30"/>
       <c r="BE242" s="23"/>
       <c r="BF242" s="23"/>
     </row>
-    <row r="243" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI243" s="23"/>
       <c r="AQ243" s="30"/>
       <c r="BE243" s="23"/>
       <c r="BF243" s="23"/>
     </row>
-    <row r="244" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI244" s="23"/>
       <c r="AQ244" s="30"/>
       <c r="BE244" s="23"/>
       <c r="BF244" s="23"/>
     </row>
-    <row r="245" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI245" s="23"/>
       <c r="AQ245" s="30"/>
       <c r="BE245" s="23"/>
       <c r="BF245" s="23"/>
     </row>
-    <row r="246" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI246" s="23"/>
       <c r="AQ246" s="30"/>
       <c r="BE246" s="23"/>
       <c r="BF246" s="23"/>
     </row>
-    <row r="247" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI247" s="23"/>
       <c r="AQ247" s="30"/>
       <c r="BE247" s="23"/>
       <c r="BF247" s="23"/>
     </row>
-    <row r="248" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI248" s="23"/>
       <c r="AQ248" s="30"/>
       <c r="BE248" s="23"/>
       <c r="BF248" s="23"/>
     </row>
-    <row r="249" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI249" s="23"/>
       <c r="AQ249" s="30"/>
       <c r="BE249" s="23"/>
       <c r="BF249" s="23"/>
     </row>
-    <row r="250" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI250" s="23"/>
       <c r="AQ250" s="30"/>
       <c r="BE250" s="23"/>
       <c r="BF250" s="23"/>
     </row>
-    <row r="251" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI251" s="23"/>
       <c r="AQ251" s="30"/>
       <c r="BE251" s="23"/>
       <c r="BF251" s="23"/>
     </row>
-    <row r="252" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI252" s="23"/>
       <c r="AQ252" s="30"/>
       <c r="BE252" s="23"/>
       <c r="BF252" s="23"/>
     </row>
-    <row r="253" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI253" s="23"/>
       <c r="AQ253" s="30"/>
       <c r="BE253" s="23"/>
       <c r="BF253" s="23"/>
     </row>
-    <row r="254" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI254" s="23"/>
       <c r="AQ254" s="30"/>
       <c r="BE254" s="23"/>
       <c r="BF254" s="23"/>
     </row>
-    <row r="255" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI255" s="23"/>
       <c r="AQ255" s="30"/>
       <c r="BE255" s="23"/>
       <c r="BF255" s="23"/>
     </row>
-    <row r="256" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI256" s="23"/>
       <c r="AQ256" s="30"/>
       <c r="BE256" s="23"/>
       <c r="BF256" s="23"/>
     </row>
-    <row r="257" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI257" s="23"/>
       <c r="AQ257" s="30"/>
       <c r="BE257" s="23"/>
       <c r="BF257" s="23"/>
     </row>
-    <row r="258" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI258" s="23"/>
       <c r="AQ258" s="30"/>
       <c r="BE258" s="23"/>
       <c r="BF258" s="23"/>
     </row>
-    <row r="259" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI259" s="23"/>
       <c r="AQ259" s="30"/>
       <c r="BE259" s="23"/>
       <c r="BF259" s="23"/>
     </row>
-    <row r="260" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI260" s="23"/>
       <c r="AQ260" s="30"/>
       <c r="BE260" s="23"/>
       <c r="BF260" s="23"/>
     </row>
-    <row r="261" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI261" s="23"/>
       <c r="AQ261" s="30"/>
       <c r="BE261" s="23"/>
       <c r="BF261" s="23"/>
     </row>
-    <row r="262" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI262" s="23"/>
       <c r="AQ262" s="30"/>
       <c r="BE262" s="23"/>
       <c r="BF262" s="23"/>
     </row>
-    <row r="263" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI263" s="23"/>
       <c r="AQ263" s="30"/>
       <c r="BE263" s="23"/>
       <c r="BF263" s="23"/>
     </row>
-    <row r="264" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI264" s="23"/>
       <c r="AQ264" s="30"/>
       <c r="BE264" s="23"/>
       <c r="BF264" s="23"/>
     </row>
-    <row r="265" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI265" s="23"/>
       <c r="AQ265" s="30"/>
       <c r="BE265" s="23"/>
       <c r="BF265" s="23"/>
     </row>
-    <row r="266" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI266" s="23"/>
       <c r="AQ266" s="30"/>
       <c r="BE266" s="23"/>
       <c r="BF266" s="23"/>
     </row>
-    <row r="267" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI267" s="23"/>
       <c r="AQ267" s="30"/>
       <c r="BE267" s="23"/>
       <c r="BF267" s="23"/>
     </row>
-    <row r="268" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI268" s="23"/>
       <c r="AQ268" s="30"/>
       <c r="BE268" s="23"/>
       <c r="BF268" s="23"/>
     </row>
-    <row r="269" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI269" s="23"/>
       <c r="AQ269" s="30"/>
       <c r="BE269" s="23"/>
       <c r="BF269" s="23"/>
     </row>
-    <row r="270" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI270" s="23"/>
       <c r="AQ270" s="30"/>
       <c r="BE270" s="23"/>
       <c r="BF270" s="23"/>
     </row>
-    <row r="271" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI271" s="23"/>
       <c r="AQ271" s="30"/>
       <c r="BE271" s="23"/>
       <c r="BF271" s="23"/>
     </row>
-    <row r="272" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI272" s="23"/>
       <c r="AQ272" s="30"/>
       <c r="BE272" s="23"/>
       <c r="BF272" s="23"/>
     </row>
-    <row r="273" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI273" s="23"/>
       <c r="AQ273" s="30"/>
       <c r="BE273" s="23"/>
       <c r="BF273" s="23"/>
     </row>
-    <row r="274" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI274" s="23"/>
       <c r="AQ274" s="30"/>
       <c r="BE274" s="23"/>
       <c r="BF274" s="23"/>
     </row>
-    <row r="275" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI275" s="23"/>
       <c r="AQ275" s="30"/>
       <c r="BE275" s="23"/>
       <c r="BF275" s="23"/>
     </row>
-    <row r="276" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI276" s="23"/>
       <c r="AQ276" s="30"/>
       <c r="BE276" s="23"/>
       <c r="BF276" s="23"/>
     </row>
-    <row r="277" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI277" s="23"/>
       <c r="AQ277" s="30"/>
       <c r="BE277" s="23"/>
       <c r="BF277" s="23"/>
     </row>
-    <row r="278" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI278" s="23"/>
       <c r="AQ278" s="30"/>
       <c r="BE278" s="23"/>
       <c r="BF278" s="23"/>
     </row>
-    <row r="279" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI279" s="23"/>
       <c r="AQ279" s="30"/>
       <c r="BE279" s="23"/>
       <c r="BF279" s="23"/>
     </row>
-    <row r="280" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI280" s="23"/>
       <c r="AQ280" s="30"/>
       <c r="BE280" s="23"/>
       <c r="BF280" s="23"/>
     </row>
-    <row r="281" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI281" s="23"/>
       <c r="AQ281" s="30"/>
       <c r="BE281" s="23"/>
       <c r="BF281" s="23"/>
     </row>
-    <row r="282" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI282" s="23"/>
       <c r="AQ282" s="30"/>
       <c r="BE282" s="23"/>
       <c r="BF282" s="23"/>
     </row>
-    <row r="283" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI283" s="23"/>
       <c r="AQ283" s="30"/>
       <c r="BE283" s="23"/>
       <c r="BF283" s="23"/>
     </row>
-    <row r="284" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI284" s="23"/>
       <c r="AQ284" s="30"/>
       <c r="BE284" s="23"/>
       <c r="BF284" s="23"/>
     </row>
-    <row r="285" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI285" s="23"/>
       <c r="AQ285" s="30"/>
       <c r="BE285" s="23"/>
       <c r="BF285" s="23"/>
     </row>
-    <row r="286" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI286" s="23"/>
       <c r="AQ286" s="30"/>
       <c r="BE286" s="23"/>
       <c r="BF286" s="23"/>
     </row>
-    <row r="287" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI287" s="23"/>
       <c r="AQ287" s="30"/>
       <c r="BE287" s="23"/>
       <c r="BF287" s="23"/>
     </row>
-    <row r="288" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI288" s="23"/>
       <c r="AQ288" s="30"/>
       <c r="BE288" s="23"/>
       <c r="BF288" s="23"/>
     </row>
-    <row r="289" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI289" s="23"/>
       <c r="AQ289" s="30"/>
       <c r="BE289" s="23"/>
       <c r="BF289" s="23"/>
     </row>
-    <row r="290" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI290" s="23"/>
       <c r="AQ290" s="30"/>
       <c r="BE290" s="23"/>
       <c r="BF290" s="23"/>
     </row>
-    <row r="291" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI291" s="23"/>
       <c r="AQ291" s="30"/>
       <c r="BE291" s="23"/>
       <c r="BF291" s="23"/>
     </row>
-    <row r="292" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI292" s="23"/>
       <c r="AQ292" s="30"/>
       <c r="BE292" s="23"/>
       <c r="BF292" s="23"/>
     </row>
-    <row r="293" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI293" s="23"/>
       <c r="AQ293" s="30"/>
       <c r="BE293" s="23"/>
       <c r="BF293" s="23"/>
     </row>
-    <row r="294" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI294" s="23"/>
       <c r="AQ294" s="30"/>
       <c r="BE294" s="23"/>
       <c r="BF294" s="23"/>
     </row>
-    <row r="295" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI295" s="23"/>
       <c r="AQ295" s="30"/>
       <c r="BE295" s="23"/>
       <c r="BF295" s="23"/>
     </row>
-    <row r="296" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI296" s="23"/>
       <c r="AQ296" s="30"/>
       <c r="BE296" s="23"/>
       <c r="BF296" s="23"/>
     </row>
-    <row r="297" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI297" s="23"/>
       <c r="AQ297" s="30"/>
       <c r="BE297" s="23"/>
       <c r="BF297" s="23"/>
     </row>
-    <row r="298" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI298" s="23"/>
       <c r="AQ298" s="30"/>
       <c r="BE298" s="23"/>
       <c r="BF298" s="23"/>
     </row>
-    <row r="299" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI299" s="23"/>
       <c r="AQ299" s="30"/>
       <c r="BE299" s="23"/>
       <c r="BF299" s="23"/>
     </row>
-    <row r="300" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI300" s="23"/>
       <c r="AQ300" s="30"/>
       <c r="BE300" s="23"/>
       <c r="BF300" s="23"/>
     </row>
-    <row r="301" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI301" s="23"/>
       <c r="AQ301" s="30"/>
       <c r="BE301" s="23"/>
       <c r="BF301" s="23"/>
     </row>
-    <row r="302" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI302" s="23"/>
       <c r="AQ302" s="30"/>
       <c r="BE302" s="23"/>
       <c r="BF302" s="23"/>
     </row>
-    <row r="303" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI303" s="23"/>
       <c r="AQ303" s="30"/>
       <c r="BE303" s="23"/>
       <c r="BF303" s="23"/>
     </row>
-    <row r="304" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI304" s="23"/>
       <c r="AQ304" s="30"/>
       <c r="BE304" s="23"/>
       <c r="BF304" s="23"/>
     </row>
-    <row r="305" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI305" s="23"/>
       <c r="AQ305" s="30"/>
       <c r="BE305" s="23"/>
       <c r="BF305" s="23"/>
     </row>
-    <row r="306" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI306" s="23"/>
       <c r="AQ306" s="30"/>
       <c r="BE306" s="23"/>
       <c r="BF306" s="23"/>
     </row>
-    <row r="307" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI307" s="23"/>
       <c r="AQ307" s="30"/>
       <c r="BE307" s="23"/>
       <c r="BF307" s="23"/>
     </row>
-    <row r="308" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI308" s="23"/>
       <c r="AQ308" s="30"/>
       <c r="BE308" s="23"/>
       <c r="BF308" s="23"/>
     </row>
-    <row r="309" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI309" s="23"/>
       <c r="AQ309" s="30"/>
       <c r="BE309" s="23"/>
       <c r="BF309" s="23"/>
     </row>
-    <row r="310" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI310" s="23"/>
       <c r="AQ310" s="30"/>
       <c r="BE310" s="23"/>
       <c r="BF310" s="23"/>
     </row>
-    <row r="311" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI311" s="23"/>
       <c r="AQ311" s="30"/>
       <c r="BE311" s="23"/>
       <c r="BF311" s="23"/>
     </row>
-    <row r="312" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI312" s="23"/>
       <c r="AQ312" s="30"/>
       <c r="BE312" s="23"/>
       <c r="BF312" s="23"/>
     </row>
-    <row r="313" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI313" s="23"/>
       <c r="AQ313" s="30"/>
       <c r="BE313" s="23"/>
       <c r="BF313" s="23"/>
     </row>
-    <row r="314" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI314" s="23"/>
       <c r="AQ314" s="30"/>
       <c r="BE314" s="23"/>
       <c r="BF314" s="23"/>
     </row>
-    <row r="315" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI315" s="23"/>
       <c r="AQ315" s="30"/>
       <c r="BE315" s="23"/>
       <c r="BF315" s="23"/>
     </row>
-    <row r="316" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI316" s="23"/>
       <c r="AQ316" s="30"/>
       <c r="BE316" s="23"/>
       <c r="BF316" s="23"/>
     </row>
-    <row r="317" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI317" s="23"/>
       <c r="AQ317" s="30"/>
       <c r="BE317" s="23"/>
       <c r="BF317" s="23"/>
     </row>
-    <row r="318" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI318" s="23"/>
       <c r="AQ318" s="30"/>
       <c r="BE318" s="23"/>
       <c r="BF318" s="23"/>
     </row>
-    <row r="319" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI319" s="23"/>
       <c r="AQ319" s="30"/>
       <c r="BE319" s="23"/>
       <c r="BF319" s="23"/>
     </row>
-    <row r="320" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI320" s="23"/>
       <c r="AQ320" s="30"/>
       <c r="BE320" s="23"/>
       <c r="BF320" s="23"/>
     </row>
-    <row r="321" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI321" s="23"/>
       <c r="AQ321" s="30"/>
       <c r="BE321" s="23"/>
       <c r="BF321" s="23"/>
     </row>
-    <row r="322" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI322" s="23"/>
       <c r="AQ322" s="30"/>
       <c r="BE322" s="23"/>
       <c r="BF322" s="23"/>
     </row>
-    <row r="323" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI323" s="23"/>
       <c r="AQ323" s="30"/>
       <c r="BE323" s="23"/>
       <c r="BF323" s="23"/>
     </row>
-    <row r="324" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI324" s="23"/>
       <c r="AQ324" s="30"/>
       <c r="BE324" s="23"/>
       <c r="BF324" s="23"/>
     </row>
-    <row r="325" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI325" s="23"/>
       <c r="AQ325" s="30"/>
       <c r="BE325" s="23"/>
       <c r="BF325" s="23"/>
     </row>
-    <row r="326" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI326" s="23"/>
       <c r="AQ326" s="30"/>
       <c r="BE326" s="23"/>
       <c r="BF326" s="23"/>
     </row>
-    <row r="327" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI327" s="23"/>
       <c r="AQ327" s="30"/>
       <c r="BE327" s="23"/>
       <c r="BF327" s="23"/>
     </row>
-    <row r="328" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI328" s="23"/>
       <c r="AQ328" s="30"/>
       <c r="BE328" s="23"/>
       <c r="BF328" s="23"/>
     </row>
-    <row r="329" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI329" s="23"/>
       <c r="AQ329" s="30"/>
       <c r="BE329" s="23"/>
       <c r="BF329" s="23"/>
     </row>
-    <row r="330" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI330" s="23"/>
       <c r="AQ330" s="30"/>
       <c r="BE330" s="23"/>
       <c r="BF330" s="23"/>
     </row>
-    <row r="331" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI331" s="23"/>
       <c r="AQ331" s="30"/>
       <c r="BE331" s="23"/>
       <c r="BF331" s="23"/>
     </row>
-    <row r="332" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI332" s="23"/>
       <c r="AQ332" s="30"/>
       <c r="BE332" s="23"/>
       <c r="BF332" s="23"/>
     </row>
-    <row r="333" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI333" s="23"/>
       <c r="AQ333" s="30"/>
       <c r="BE333" s="23"/>
       <c r="BF333" s="23"/>
     </row>
-    <row r="334" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI334" s="23"/>
       <c r="AQ334" s="30"/>
       <c r="BE334" s="23"/>
       <c r="BF334" s="23"/>
     </row>
-    <row r="335" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI335" s="23"/>
       <c r="AQ335" s="30"/>
       <c r="BE335" s="23"/>
       <c r="BF335" s="23"/>
     </row>
-    <row r="336" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI336" s="23"/>
       <c r="AQ336" s="30"/>
       <c r="BE336" s="23"/>
       <c r="BF336" s="23"/>
     </row>
-    <row r="337" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI337" s="23"/>
       <c r="AQ337" s="30"/>
       <c r="BE337" s="23"/>
       <c r="BF337" s="23"/>
     </row>
-    <row r="338" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI338" s="23"/>
       <c r="AQ338" s="30"/>
       <c r="BE338" s="23"/>
       <c r="BF338" s="23"/>
     </row>
-    <row r="339" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI339" s="23"/>
       <c r="AQ339" s="30"/>
       <c r="BE339" s="23"/>
       <c r="BF339" s="23"/>
     </row>
-    <row r="340" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI340" s="23"/>
       <c r="AQ340" s="30"/>
       <c r="BE340" s="23"/>
       <c r="BF340" s="23"/>
     </row>
-    <row r="341" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI341" s="23"/>
       <c r="AQ341" s="30"/>
       <c r="BE341" s="23"/>
       <c r="BF341" s="23"/>
     </row>
-    <row r="342" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI342" s="23"/>
       <c r="AQ342" s="30"/>
       <c r="BE342" s="23"/>
       <c r="BF342" s="23"/>
     </row>
-    <row r="343" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI343" s="23"/>
       <c r="AQ343" s="30"/>
       <c r="BE343" s="23"/>
       <c r="BF343" s="23"/>
     </row>
-    <row r="344" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI344" s="23"/>
       <c r="AQ344" s="30"/>
       <c r="BE344" s="23"/>
       <c r="BF344" s="23"/>
     </row>
-    <row r="345" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI345" s="23"/>
       <c r="AQ345" s="30"/>
       <c r="BE345" s="23"/>
       <c r="BF345" s="23"/>
     </row>
-    <row r="346" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI346" s="23"/>
       <c r="AQ346" s="30"/>
       <c r="BE346" s="23"/>
       <c r="BF346" s="23"/>
     </row>
-    <row r="347" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI347" s="23"/>
       <c r="AQ347" s="30"/>
       <c r="BE347" s="23"/>
       <c r="BF347" s="23"/>
     </row>
-    <row r="348" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI348" s="23"/>
       <c r="AQ348" s="30"/>
       <c r="BE348" s="23"/>
       <c r="BF348" s="23"/>
     </row>
-    <row r="349" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI349" s="23"/>
       <c r="AQ349" s="30"/>
       <c r="BE349" s="23"/>
       <c r="BF349" s="23"/>
     </row>
-    <row r="350" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI350" s="23"/>
       <c r="AQ350" s="30"/>
       <c r="BE350" s="23"/>
       <c r="BF350" s="23"/>
     </row>
-    <row r="351" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI351" s="23"/>
       <c r="AQ351" s="30"/>
       <c r="BE351" s="23"/>
       <c r="BF351" s="23"/>
     </row>
-    <row r="352" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI352" s="23"/>
       <c r="AQ352" s="30"/>
       <c r="BE352" s="23"/>
       <c r="BF352" s="23"/>
     </row>
-    <row r="353" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI353" s="23"/>
       <c r="AQ353" s="30"/>
       <c r="BE353" s="23"/>
       <c r="BF353" s="23"/>
     </row>
-    <row r="354" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI354" s="23"/>
       <c r="AQ354" s="30"/>
       <c r="BE354" s="23"/>
       <c r="BF354" s="23"/>
     </row>
-    <row r="355" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI355" s="23"/>
       <c r="AQ355" s="30"/>
       <c r="BE355" s="23"/>
       <c r="BF355" s="23"/>
     </row>
-    <row r="356" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI356" s="23"/>
       <c r="AQ356" s="30"/>
       <c r="BE356" s="23"/>
       <c r="BF356" s="23"/>
     </row>
-    <row r="357" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI357" s="23"/>
       <c r="AQ357" s="30"/>
       <c r="BE357" s="23"/>
       <c r="BF357" s="23"/>
     </row>
-    <row r="358" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI358" s="23"/>
       <c r="AQ358" s="30"/>
       <c r="BE358" s="23"/>
       <c r="BF358" s="23"/>
     </row>
-    <row r="359" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI359" s="23"/>
       <c r="AQ359" s="30"/>
       <c r="BE359" s="23"/>
       <c r="BF359" s="23"/>
     </row>
-    <row r="360" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI360" s="23"/>
       <c r="AQ360" s="30"/>
       <c r="BE360" s="23"/>
       <c r="BF360" s="23"/>
     </row>
-    <row r="361" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI361" s="23"/>
       <c r="AQ361" s="30"/>
       <c r="BE361" s="23"/>
       <c r="BF361" s="23"/>
     </row>
-    <row r="362" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI362" s="23"/>
       <c r="AQ362" s="30"/>
       <c r="BE362" s="23"/>
       <c r="BF362" s="23"/>
     </row>
-    <row r="363" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI363" s="23"/>
       <c r="AQ363" s="30"/>
       <c r="BE363" s="23"/>
       <c r="BF363" s="23"/>
     </row>
-    <row r="364" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI364" s="23"/>
       <c r="AQ364" s="30"/>
       <c r="BE364" s="23"/>
       <c r="BF364" s="23"/>
     </row>
-    <row r="365" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI365" s="23"/>
       <c r="AQ365" s="30"/>
       <c r="BE365" s="23"/>
       <c r="BF365" s="23"/>
     </row>
-    <row r="366" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI366" s="23"/>
       <c r="AQ366" s="30"/>
       <c r="BE366" s="23"/>
       <c r="BF366" s="23"/>
     </row>
-    <row r="367" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI367" s="23"/>
       <c r="AQ367" s="30"/>
       <c r="BE367" s="23"/>
       <c r="BF367" s="23"/>
     </row>
-    <row r="368" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI368" s="23"/>
       <c r="AQ368" s="30"/>
       <c r="BE368" s="23"/>
       <c r="BF368" s="23"/>
     </row>
-    <row r="369" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI369" s="23"/>
       <c r="AQ369" s="30"/>
       <c r="BE369" s="23"/>
       <c r="BF369" s="23"/>
     </row>
-    <row r="370" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI370" s="23"/>
       <c r="AQ370" s="30"/>
       <c r="BE370" s="23"/>
       <c r="BF370" s="23"/>
     </row>
-    <row r="371" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI371" s="23"/>
       <c r="AQ371" s="30"/>
       <c r="BE371" s="23"/>
       <c r="BF371" s="23"/>
     </row>
-    <row r="372" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI372" s="23"/>
       <c r="AQ372" s="30"/>
       <c r="BE372" s="23"/>
       <c r="BF372" s="23"/>
     </row>
-    <row r="373" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI373" s="23"/>
       <c r="AQ373" s="30"/>
       <c r="BE373" s="23"/>
       <c r="BF373" s="23"/>
     </row>
-    <row r="374" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI374" s="23"/>
       <c r="AQ374" s="30"/>
       <c r="BE374" s="23"/>
       <c r="BF374" s="23"/>
     </row>
-    <row r="375" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI375" s="23"/>
       <c r="AQ375" s="30"/>
       <c r="BE375" s="23"/>
       <c r="BF375" s="23"/>
     </row>
-    <row r="376" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI376" s="23"/>
       <c r="AQ376" s="30"/>
       <c r="BE376" s="23"/>
       <c r="BF376" s="23"/>
     </row>
-    <row r="377" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI377" s="23"/>
       <c r="AQ377" s="30"/>
       <c r="BE377" s="23"/>
       <c r="BF377" s="23"/>
     </row>
-    <row r="378" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI378" s="23"/>
       <c r="AQ378" s="30"/>
       <c r="BE378" s="23"/>
       <c r="BF378" s="23"/>
     </row>
-    <row r="379" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI379" s="23"/>
       <c r="AQ379" s="30"/>
       <c r="BE379" s="23"/>
       <c r="BF379" s="23"/>
     </row>
-    <row r="380" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI380" s="23"/>
       <c r="AQ380" s="30"/>
       <c r="BE380" s="23"/>
       <c r="BF380" s="23"/>
     </row>
-    <row r="381" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI381" s="23"/>
       <c r="AQ381" s="30"/>
       <c r="BE381" s="23"/>
       <c r="BF381" s="23"/>
     </row>
-    <row r="382" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI382" s="23"/>
       <c r="AQ382" s="30"/>
       <c r="BE382" s="23"/>
       <c r="BF382" s="23"/>
     </row>
-    <row r="383" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI383" s="23"/>
       <c r="AQ383" s="30"/>
       <c r="BE383" s="23"/>
       <c r="BF383" s="23"/>
     </row>
-    <row r="384" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI384" s="23"/>
       <c r="AQ384" s="30"/>
       <c r="BE384" s="23"/>
       <c r="BF384" s="23"/>
     </row>
-    <row r="385" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI385" s="23"/>
       <c r="AQ385" s="30"/>
       <c r="BE385" s="23"/>
       <c r="BF385" s="23"/>
     </row>
-    <row r="386" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI386" s="23"/>
       <c r="AQ386" s="30"/>
       <c r="BE386" s="23"/>
       <c r="BF386" s="23"/>
     </row>
-    <row r="387" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI387" s="23"/>
       <c r="AQ387" s="30"/>
       <c r="BE387" s="23"/>
       <c r="BF387" s="23"/>
     </row>
-    <row r="388" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI388" s="23"/>
       <c r="AQ388" s="30"/>
       <c r="BE388" s="23"/>
       <c r="BF388" s="23"/>
     </row>
-    <row r="389" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI389" s="23"/>
       <c r="AQ389" s="30"/>
       <c r="BE389" s="23"/>
       <c r="BF389" s="23"/>
     </row>
-    <row r="390" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI390" s="23"/>
       <c r="AQ390" s="30"/>
       <c r="BE390" s="23"/>
       <c r="BF390" s="23"/>
     </row>
-    <row r="391" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI391" s="23"/>
       <c r="AQ391" s="30"/>
       <c r="BE391" s="23"/>
       <c r="BF391" s="23"/>
     </row>
-    <row r="392" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI392" s="23"/>
       <c r="AQ392" s="30"/>
       <c r="BE392" s="23"/>
       <c r="BF392" s="23"/>
     </row>
-    <row r="393" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI393" s="23"/>
       <c r="AQ393" s="30"/>
       <c r="BE393" s="23"/>
       <c r="BF393" s="23"/>
     </row>
-    <row r="394" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI394" s="23"/>
       <c r="AQ394" s="30"/>
       <c r="BE394" s="23"/>
       <c r="BF394" s="23"/>
     </row>
-    <row r="395" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI395" s="23"/>
       <c r="AQ395" s="30"/>
       <c r="BE395" s="23"/>
       <c r="BF395" s="23"/>
     </row>
-    <row r="396" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI396" s="23"/>
       <c r="AQ396" s="30"/>
       <c r="BE396" s="23"/>
       <c r="BF396" s="23"/>
     </row>
-    <row r="397" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI397" s="23"/>
       <c r="AQ397" s="30"/>
       <c r="BE397" s="23"/>
       <c r="BF397" s="23"/>
     </row>
-    <row r="398" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI398" s="23"/>
       <c r="AQ398" s="30"/>
       <c r="BE398" s="23"/>
       <c r="BF398" s="23"/>
     </row>
-    <row r="399" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI399" s="23"/>
       <c r="AQ399" s="30"/>
       <c r="BE399" s="23"/>
       <c r="BF399" s="23"/>
     </row>
-    <row r="400" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI400" s="23"/>
       <c r="AQ400" s="30"/>
       <c r="BE400" s="23"/>
       <c r="BF400" s="23"/>
     </row>
-    <row r="401" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI401" s="23"/>
       <c r="AQ401" s="30"/>
       <c r="BE401" s="23"/>
       <c r="BF401" s="23"/>
     </row>
-    <row r="402" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI402" s="23"/>
       <c r="AQ402" s="30"/>
       <c r="BE402" s="23"/>
       <c r="BF402" s="23"/>
     </row>
-    <row r="403" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI403" s="23"/>
       <c r="AQ403" s="30"/>
       <c r="BE403" s="23"/>
       <c r="BF403" s="23"/>
     </row>
-    <row r="404" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI404" s="23"/>
       <c r="AQ404" s="30"/>
       <c r="BE404" s="23"/>
       <c r="BF404" s="23"/>
     </row>
-    <row r="405" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI405" s="23"/>
       <c r="AQ405" s="30"/>
       <c r="BE405" s="23"/>
       <c r="BF405" s="23"/>
     </row>
-    <row r="406" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI406" s="23"/>
       <c r="AQ406" s="30"/>
       <c r="BE406" s="23"/>
       <c r="BF406" s="23"/>
     </row>
-    <row r="407" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI407" s="23"/>
       <c r="AQ407" s="30"/>
       <c r="BE407" s="23"/>
       <c r="BF407" s="23"/>
     </row>
-    <row r="408" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI408" s="23"/>
       <c r="AQ408" s="30"/>
       <c r="BE408" s="23"/>
       <c r="BF408" s="23"/>
     </row>
-    <row r="409" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI409" s="23"/>
       <c r="AQ409" s="30"/>
       <c r="BE409" s="23"/>
       <c r="BF409" s="23"/>
     </row>
-    <row r="410" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI410" s="23"/>
       <c r="AQ410" s="30"/>
       <c r="BE410" s="23"/>
       <c r="BF410" s="23"/>
     </row>
-    <row r="411" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI411" s="23"/>
       <c r="AQ411" s="30"/>
       <c r="BE411" s="23"/>
       <c r="BF411" s="23"/>
     </row>
-    <row r="412" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI412" s="23"/>
       <c r="AQ412" s="30"/>
       <c r="BE412" s="23"/>
       <c r="BF412" s="23"/>
     </row>
-    <row r="413" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI413" s="23"/>
       <c r="AQ413" s="30"/>
       <c r="BE413" s="23"/>
       <c r="BF413" s="23"/>
     </row>
-    <row r="414" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI414" s="23"/>
       <c r="AQ414" s="30"/>
       <c r="BE414" s="23"/>
       <c r="BF414" s="23"/>
     </row>
-    <row r="415" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI415" s="23"/>
       <c r="AQ415" s="30"/>
       <c r="BE415" s="23"/>
       <c r="BF415" s="23"/>
     </row>
-    <row r="416" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI416" s="23"/>
       <c r="AQ416" s="30"/>
       <c r="BE416" s="23"/>
       <c r="BF416" s="23"/>
     </row>
-    <row r="417" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI417" s="23"/>
       <c r="AQ417" s="30"/>
       <c r="BE417" s="23"/>
       <c r="BF417" s="23"/>
     </row>
-    <row r="418" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI418" s="23"/>
       <c r="AQ418" s="30"/>
       <c r="BE418" s="23"/>
       <c r="BF418" s="23"/>
     </row>
-    <row r="419" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI419" s="23"/>
       <c r="AQ419" s="30"/>
       <c r="BE419" s="23"/>
       <c r="BF419" s="23"/>
     </row>
-    <row r="420" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI420" s="23"/>
       <c r="AQ420" s="30"/>
       <c r="BE420" s="23"/>
       <c r="BF420" s="23"/>
     </row>
-    <row r="421" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI421" s="23"/>
       <c r="AQ421" s="30"/>
       <c r="BE421" s="23"/>
       <c r="BF421" s="23"/>
     </row>
-    <row r="422" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI422" s="23"/>
       <c r="AQ422" s="30"/>
       <c r="BE422" s="23"/>
       <c r="BF422" s="23"/>
     </row>
-    <row r="423" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI423" s="23"/>
       <c r="AQ423" s="30"/>
       <c r="BE423" s="23"/>
       <c r="BF423" s="23"/>
     </row>
-    <row r="424" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI424" s="23"/>
       <c r="AQ424" s="30"/>
       <c r="BE424" s="23"/>
       <c r="BF424" s="23"/>
     </row>
-    <row r="425" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI425" s="23"/>
       <c r="AQ425" s="30"/>
       <c r="BE425" s="23"/>
       <c r="BF425" s="23"/>
     </row>
-    <row r="426" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI426" s="23"/>
       <c r="AQ426" s="30"/>
       <c r="BE426" s="23"/>
       <c r="BF426" s="23"/>
     </row>
-    <row r="427" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI427" s="23"/>
       <c r="AQ427" s="30"/>
       <c r="BE427" s="23"/>
       <c r="BF427" s="23"/>
     </row>
-    <row r="428" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI428" s="23"/>
       <c r="AQ428" s="30"/>
       <c r="BE428" s="23"/>
       <c r="BF428" s="23"/>
     </row>
-    <row r="429" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI429" s="23"/>
       <c r="AQ429" s="30"/>
       <c r="BE429" s="23"/>
       <c r="BF429" s="23"/>
     </row>
-    <row r="430" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI430" s="23"/>
       <c r="AQ430" s="30"/>
       <c r="BE430" s="23"/>
       <c r="BF430" s="23"/>
     </row>
-    <row r="431" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI431" s="23"/>
       <c r="AQ431" s="30"/>
       <c r="BE431" s="23"/>
       <c r="BF431" s="23"/>
     </row>
-    <row r="432" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI432" s="23"/>
       <c r="AQ432" s="30"/>
       <c r="BE432" s="23"/>
       <c r="BF432" s="23"/>
     </row>
-    <row r="433" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI433" s="23"/>
       <c r="AQ433" s="30"/>
       <c r="BE433" s="23"/>
       <c r="BF433" s="23"/>
     </row>
-    <row r="434" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI434" s="23"/>
       <c r="AQ434" s="30"/>
       <c r="BE434" s="23"/>
       <c r="BF434" s="23"/>
     </row>
-    <row r="435" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI435" s="23"/>
       <c r="BE435" s="23"/>
       <c r="BF435" s="23"/>
     </row>
-    <row r="436" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI436" s="23"/>
       <c r="BE436" s="23"/>
       <c r="BF436" s="23"/>
     </row>
-    <row r="437" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI437" s="23"/>
       <c r="BE437" s="23"/>
       <c r="BF437" s="23"/>
     </row>
-    <row r="438" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI438" s="23"/>
       <c r="BE438" s="23"/>
       <c r="BF438" s="23"/>
     </row>
-    <row r="439" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI439" s="23"/>
       <c r="BE439" s="23"/>
       <c r="BF439" s="23"/>
     </row>
-    <row r="440" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI440" s="23"/>
       <c r="BE440" s="23"/>
       <c r="BF440" s="23"/>
     </row>
-    <row r="441" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI441" s="23"/>
       <c r="BE441" s="23"/>
       <c r="BF441" s="23"/>
     </row>
-    <row r="442" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI442" s="23"/>
       <c r="BE442" s="23"/>
       <c r="BF442" s="23"/>
     </row>
-    <row r="443" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI443" s="23"/>
       <c r="BE443" s="23"/>
       <c r="BF443" s="23"/>
     </row>
-    <row r="444" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI444" s="23"/>
       <c r="BE444" s="23"/>
       <c r="BF444" s="23"/>
     </row>
-    <row r="445" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI445" s="23"/>
       <c r="BE445" s="23"/>
       <c r="BF445" s="23"/>
     </row>
-    <row r="446" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI446" s="23"/>
       <c r="BE446" s="23"/>
       <c r="BF446" s="23"/>
     </row>
-    <row r="447" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI447" s="23"/>
       <c r="BE447" s="23"/>
       <c r="BF447" s="23"/>
     </row>
-    <row r="448" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI448" s="23"/>
       <c r="BE448" s="23"/>
       <c r="BF448" s="23"/>
     </row>
-    <row r="449" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI449" s="23"/>
       <c r="BE449" s="23"/>
       <c r="BF449" s="23"/>
     </row>
-    <row r="450" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI450" s="23"/>
       <c r="BE450" s="23"/>
       <c r="BF450" s="23"/>
     </row>
-    <row r="451" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI451" s="23"/>
       <c r="BE451" s="23"/>
       <c r="BF451" s="23"/>
     </row>
-    <row r="452" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI452" s="23"/>
       <c r="BE452" s="23"/>
       <c r="BF452" s="23"/>
     </row>
-    <row r="453" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI453" s="23"/>
       <c r="BE453" s="23"/>
       <c r="BF453" s="23"/>
     </row>
-    <row r="454" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI454" s="23"/>
       <c r="BE454" s="23"/>
       <c r="BF454" s="23"/>
     </row>
-    <row r="455" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI455" s="23"/>
       <c r="BE455" s="23"/>
       <c r="BF455" s="23"/>
     </row>
-    <row r="456" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI456" s="23"/>
       <c r="BE456" s="23"/>
       <c r="BF456" s="23"/>
     </row>
-    <row r="457" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI457" s="23"/>
       <c r="BE457" s="23"/>
       <c r="BF457" s="23"/>
     </row>
-    <row r="458" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI458" s="23"/>
       <c r="BE458" s="23"/>
       <c r="BF458" s="23"/>
     </row>
-    <row r="459" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI459" s="23"/>
       <c r="BE459" s="23"/>
       <c r="BF459" s="23"/>
     </row>
-    <row r="460" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI460" s="23"/>
       <c r="BE460" s="23"/>
       <c r="BF460" s="23"/>
     </row>
-    <row r="461" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI461" s="23"/>
       <c r="BE461" s="23"/>
       <c r="BF461" s="23"/>
     </row>
-    <row r="462" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI462" s="23"/>
       <c r="BE462" s="23"/>
       <c r="BF462" s="23"/>
     </row>
-    <row r="463" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI463" s="23"/>
       <c r="BE463" s="23"/>
       <c r="BF463" s="23"/>
     </row>
-    <row r="464" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI464" s="23"/>
       <c r="BE464" s="23"/>
       <c r="BF464" s="23"/>
     </row>
-    <row r="465" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI465" s="23"/>
       <c r="BE465" s="23"/>
       <c r="BF465" s="23"/>
     </row>
-    <row r="466" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI466" s="23"/>
       <c r="BE466" s="23"/>
       <c r="BF466" s="23"/>
     </row>
-    <row r="467" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI467" s="23"/>
       <c r="BE467" s="23"/>
       <c r="BF467" s="23"/>
     </row>
-    <row r="468" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI468" s="23"/>
       <c r="BE468" s="23"/>
       <c r="BF468" s="23"/>
     </row>
-    <row r="469" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI469" s="23"/>
       <c r="BE469" s="23"/>
       <c r="BF469" s="23"/>
     </row>
-    <row r="470" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI470" s="23"/>
       <c r="BE470" s="23"/>
     </row>
-    <row r="471" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI471" s="23"/>
       <c r="BE471" s="23"/>
     </row>
-    <row r="472" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI472" s="23"/>
       <c r="BE472" s="23"/>
     </row>
-    <row r="473" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI473" s="23"/>
       <c r="BE473" s="23"/>
     </row>
-    <row r="474" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI474" s="23"/>
       <c r="BE474" s="23"/>
     </row>
-    <row r="475" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI475" s="23"/>
     </row>
   </sheetData>
@@ -10322,19 +11350,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>'C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
+            <xm:f>'/Users/SamuelPerez/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>BF470:BF742 N103:N742 M109:M742 X109:X742 Z187:Z742 BE475:BE742 AD185:AD742</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>'C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
+            <xm:f>'/Users/SamuelPerez/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>T709:T1219</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{00000000-0002-0000-0200-000007000000}">
           <x14:formula1>
-            <xm:f>'C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
+            <xm:f>'/Users/SamuelPerez/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L109:L742</xm:sqref>
         </x14:dataValidation>

--- a/BD/Insumos/FORMATO_OFERTAS_OIC_V4.xlsx
+++ b/BD/Insumos/FORMATO_OFERTAS_OIC_V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelPerez/Desktop/OIC/BD/Insumos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41539AF2-A013-EB4D-B425-08B7E1C90FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C594C7-D6CD-F545-8A37-D5241949D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32180" yWindow="-400" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48000" yWindow="-3100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura_Datos" sheetId="1" r:id="rId1"/>
@@ -1760,7 +1760,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1806,12 +1806,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,7 +1900,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2117,20 +2111,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2430,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2471,7 +2492,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
       <c r="B2" s="49" t="s">
@@ -2496,7 +2517,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
+      <c r="A3" s="76">
         <v>2</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -2523,7 +2544,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72">
+      <c r="A4" s="76">
         <v>3</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -2550,7 +2571,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+      <c r="A5" s="76">
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
@@ -2577,7 +2598,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72">
+      <c r="A6" s="76">
         <v>5</v>
       </c>
       <c r="B6" s="49" t="s">
@@ -2604,7 +2625,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
+      <c r="A7" s="76">
         <v>6</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -2631,7 +2652,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+      <c r="A8" s="76">
         <v>7</v>
       </c>
       <c r="B8" s="49" t="s">
@@ -2658,7 +2679,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+      <c r="A9" s="76">
         <v>8</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -2685,7 +2706,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
+      <c r="A10" s="76">
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
@@ -2712,7 +2733,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
+      <c r="A11" s="76">
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -2739,7 +2760,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72">
+      <c r="A12" s="76">
         <v>11</v>
       </c>
       <c r="B12" s="49" t="s">
@@ -2766,7 +2787,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72">
+      <c r="A13" s="77">
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
@@ -2793,7 +2814,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
+      <c r="A14" s="77">
         <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
@@ -2820,7 +2841,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72">
+      <c r="A15" s="77">
         <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -2847,7 +2868,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
+      <c r="A16" s="77">
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -2874,7 +2895,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72">
+      <c r="A17" s="78">
         <v>16</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -2901,7 +2922,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+      <c r="A18" s="77">
         <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
@@ -2928,7 +2949,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="A19" s="77">
         <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
@@ -2955,7 +2976,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72">
+      <c r="A20" s="78">
         <v>19</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -2982,7 +3003,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72">
+      <c r="A21" s="78">
         <v>20</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -3009,7 +3030,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
+      <c r="A22" s="79">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3036,7 +3057,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+      <c r="A23" s="79">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3063,7 +3084,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="A24" s="79">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3090,7 +3111,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
+      <c r="A25" s="79">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3117,7 +3138,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
+      <c r="A26" s="79">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3144,7 +3165,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
+      <c r="A27" s="79">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3171,7 +3192,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72">
+      <c r="A28" s="79">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3198,7 +3219,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
+      <c r="A29" s="79">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3225,7 +3246,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72">
+      <c r="A30" s="79">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3252,7 +3273,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72">
+      <c r="A31" s="79">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3279,7 +3300,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72">
+      <c r="A32" s="79">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3306,7 +3327,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72">
+      <c r="A33" s="79">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3333,7 +3354,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72">
+      <c r="A34" s="79">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3360,7 +3381,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72">
+      <c r="A35" s="79">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3387,7 +3408,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72">
+      <c r="A36" s="79">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3414,7 +3435,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72">
+      <c r="A37" s="79">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3441,7 +3462,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72">
+      <c r="A38" s="79">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3468,7 +3489,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="72">
+      <c r="A39" s="79">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3495,7 +3516,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72">
+      <c r="A40" s="79">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3522,7 +3543,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72">
+      <c r="A41" s="79">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -3549,7 +3570,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72">
+      <c r="A42" s="79">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3576,7 +3597,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="72">
+      <c r="A43" s="80">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3603,7 +3624,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72">
+      <c r="A44" s="80">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3630,7 +3651,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="72">
+      <c r="A45" s="80">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3657,7 +3678,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72">
+      <c r="A46" s="80">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3684,7 +3705,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72">
+      <c r="A47" s="80">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3711,7 +3732,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72">
+      <c r="A48" s="80">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3738,7 +3759,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="72">
+      <c r="A49" s="80">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3765,7 +3786,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="72">
+      <c r="A50" s="80">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -3792,7 +3813,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72">
+      <c r="A51" s="80">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3819,7 +3840,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72">
+      <c r="A52" s="80">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3846,7 +3867,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72">
+      <c r="A53" s="80">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3873,7 +3894,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="72">
+      <c r="A54" s="80">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3900,7 +3921,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72">
+      <c r="A55" s="80">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -3927,7 +3948,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72">
+      <c r="A56" s="80">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3954,7 +3975,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72">
+      <c r="A57" s="80">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -3981,7 +4002,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="72">
+      <c r="A58" s="81">
         <v>57</v>
       </c>
       <c r="B58" s="43" t="s">
@@ -4008,7 +4029,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72">
+      <c r="A59" s="81">
         <v>58</v>
       </c>
       <c r="B59" s="43" t="s">
@@ -4035,7 +4056,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="72">
+      <c r="A60" s="81">
         <v>59</v>
       </c>
       <c r="B60" s="43" t="s">
@@ -4062,7 +4083,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72">
+      <c r="A61" s="82">
         <v>60</v>
       </c>
       <c r="B61" s="56" t="s">
@@ -4089,7 +4110,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72">
+      <c r="A62" s="82">
         <v>61</v>
       </c>
       <c r="B62" s="56" t="s">
@@ -4116,7 +4137,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="72">
+      <c r="A63" s="82">
         <v>62</v>
       </c>
       <c r="B63" s="56" t="s">
@@ -4143,7 +4164,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72">
+      <c r="A64" s="83">
         <v>63</v>
       </c>
       <c r="B64" s="52" t="s">
@@ -4170,7 +4191,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72">
+      <c r="A65" s="83">
         <v>64</v>
       </c>
       <c r="B65" s="52" t="s">
@@ -4197,7 +4218,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="72">
+      <c r="A66" s="83">
         <v>65</v>
       </c>
       <c r="B66" s="52" t="s">
@@ -4224,7 +4245,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72">
+      <c r="A67" s="84">
         <v>66</v>
       </c>
       <c r="B67" s="54" t="s">
@@ -4251,7 +4272,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72">
+      <c r="A68" s="84">
         <v>67</v>
       </c>
       <c r="B68" s="54" t="s">
@@ -4278,7 +4299,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="72">
+      <c r="A69" s="84">
         <v>68</v>
       </c>
       <c r="B69" s="54" t="s">
@@ -4305,7 +4326,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="72">
+      <c r="A70" s="84">
         <v>69</v>
       </c>
       <c r="B70" s="54" t="s">
@@ -4332,7 +4353,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72">
+      <c r="A71" s="84">
         <v>70</v>
       </c>
       <c r="B71" s="54" t="s">
@@ -4359,25 +4380,25 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="72">
+      <c r="A72" s="85">
         <v>71</v>
       </c>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="72" t="s">
         <v>490</v>
       </c>
-      <c r="C72" s="73" t="s">
+      <c r="C72" s="72" t="s">
         <v>484</v>
       </c>
-      <c r="D72" s="73" t="s">
+      <c r="D72" s="72" t="s">
         <v>500</v>
       </c>
-      <c r="E72" s="74" t="s">
+      <c r="E72" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="75" t="s">
+      <c r="F72" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="G72" s="76" t="s">
+      <c r="G72" s="75" t="s">
         <v>45</v>
       </c>
       <c r="H72" s="10" t="str">
@@ -4386,25 +4407,25 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72">
+      <c r="A73" s="85">
         <v>72</v>
       </c>
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="73" t="s">
+      <c r="C73" s="72" t="s">
         <v>485</v>
       </c>
-      <c r="D73" s="73" t="s">
+      <c r="D73" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="75" t="s">
+      <c r="F73" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="G73" s="76" t="s">
+      <c r="G73" s="75" t="s">
         <v>45</v>
       </c>
       <c r="H73" s="10" t="str">
@@ -4413,25 +4434,25 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72">
+      <c r="A74" s="85">
         <v>73</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="73" t="s">
+      <c r="C74" s="72" t="s">
         <v>485</v>
       </c>
-      <c r="D74" s="73" t="s">
+      <c r="D74" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="E74" s="74" t="s">
+      <c r="E74" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="75" t="s">
+      <c r="F74" s="74" t="s">
         <v>492</v>
       </c>
-      <c r="G74" s="76" t="s">
+      <c r="G74" s="75" t="s">
         <v>45</v>
       </c>
       <c r="H74" s="10" t="str">
@@ -4440,25 +4461,25 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="72">
+      <c r="A75" s="85">
         <v>74</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="73" t="s">
+      <c r="C75" s="72" t="s">
         <v>485</v>
       </c>
-      <c r="D75" s="73" t="s">
+      <c r="D75" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="E75" s="74" t="s">
+      <c r="E75" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="75" t="s">
+      <c r="F75" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="G75" s="76" t="s">
+      <c r="G75" s="75" t="s">
         <v>45</v>
       </c>
       <c r="H75" s="10" t="str">
@@ -4467,25 +4488,25 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="72">
+      <c r="A76" s="85">
         <v>75</v>
       </c>
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="72" t="s">
         <v>485</v>
       </c>
-      <c r="D76" s="73" t="s">
+      <c r="D76" s="72" t="s">
         <v>414</v>
       </c>
-      <c r="E76" s="74" t="s">
+      <c r="E76" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="75" t="s">
+      <c r="F76" s="74" t="s">
         <v>494</v>
       </c>
-      <c r="G76" s="76" t="s">
+      <c r="G76" s="75" t="s">
         <v>45</v>
       </c>
       <c r="H76" s="10" t="str">
@@ -4494,25 +4515,25 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="72">
+      <c r="A77" s="85">
         <v>76</v>
       </c>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="72" t="s">
         <v>501</v>
       </c>
-      <c r="C77" s="73" t="s">
+      <c r="C77" s="72" t="s">
         <v>487</v>
       </c>
-      <c r="D77" s="73" t="s">
+      <c r="D77" s="72" t="s">
         <v>502</v>
       </c>
-      <c r="E77" s="74" t="s">
+      <c r="E77" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="75" t="s">
+      <c r="F77" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="G77" s="76" t="s">
+      <c r="G77" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H77" s="10" t="str">
@@ -4521,25 +4542,25 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72">
+      <c r="A78" s="85">
         <v>77</v>
       </c>
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="C78" s="73" t="s">
+      <c r="C78" s="72" t="s">
         <v>487</v>
       </c>
-      <c r="D78" s="73" t="s">
+      <c r="D78" s="72" t="s">
         <v>509</v>
       </c>
-      <c r="E78" s="74" t="s">
+      <c r="E78" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F78" s="75" t="s">
+      <c r="F78" s="74" t="s">
         <v>508</v>
       </c>
-      <c r="G78" s="76" t="s">
+      <c r="G78" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H78" s="10" t="str">
@@ -4548,25 +4569,25 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="72">
+      <c r="A79" s="85">
         <v>78</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="72" t="s">
         <v>514</v>
       </c>
-      <c r="C79" s="73" t="s">
+      <c r="C79" s="72" t="s">
         <v>487</v>
       </c>
-      <c r="D79" s="73" t="s">
+      <c r="D79" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="E79" s="74" t="s">
+      <c r="E79" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="75" t="s">
+      <c r="F79" s="74" t="s">
         <v>516</v>
       </c>
-      <c r="G79" s="76" t="s">
+      <c r="G79" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="10" t="str">
@@ -4575,25 +4596,25 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="72">
+      <c r="A80" s="85">
         <v>79</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="72" t="s">
         <v>517</v>
       </c>
-      <c r="C80" s="73" t="s">
+      <c r="C80" s="72" t="s">
         <v>487</v>
       </c>
-      <c r="D80" s="73" t="s">
+      <c r="D80" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E80" s="74" t="s">
+      <c r="E80" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="75" t="s">
+      <c r="F80" s="74" t="s">
         <v>528</v>
       </c>
-      <c r="G80" s="76" t="s">
+      <c r="G80" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H80" s="10" t="str">
@@ -4602,25 +4623,25 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="72">
+      <c r="A81" s="85">
         <v>80</v>
       </c>
-      <c r="B81" s="73" t="s">
+      <c r="B81" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="72" t="s">
         <v>487</v>
       </c>
-      <c r="D81" s="73" t="s">
+      <c r="D81" s="72" t="s">
         <v>525</v>
       </c>
-      <c r="E81" s="74" t="s">
+      <c r="E81" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="75" t="s">
+      <c r="F81" s="74" t="s">
         <v>519</v>
       </c>
-      <c r="G81" s="76" t="s">
+      <c r="G81" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="10" t="str">
@@ -4629,25 +4650,25 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="72">
+      <c r="A82" s="85">
         <v>81</v>
       </c>
-      <c r="B82" s="73" t="s">
+      <c r="B82" s="72" t="s">
         <v>504</v>
       </c>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="D82" s="73" t="s">
+      <c r="D82" s="72" t="s">
         <v>510</v>
       </c>
-      <c r="E82" s="74" t="s">
+      <c r="E82" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F82" s="75" t="s">
+      <c r="F82" s="74" t="s">
         <v>512</v>
       </c>
-      <c r="G82" s="76" t="s">
+      <c r="G82" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H82" s="10" t="str">
@@ -4656,25 +4677,25 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="72">
+      <c r="A83" s="85">
         <v>82</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="72" t="s">
         <v>505</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="72" t="s">
         <v>511</v>
       </c>
-      <c r="E83" s="74" t="s">
+      <c r="E83" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="75" t="s">
+      <c r="F83" s="74" t="s">
         <v>513</v>
       </c>
-      <c r="G83" s="76" t="s">
+      <c r="G83" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H83" s="10" t="str">
@@ -4683,25 +4704,25 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="72">
+      <c r="A84" s="85">
         <v>83</v>
       </c>
-      <c r="B84" s="73" t="s">
+      <c r="B84" s="72" t="s">
         <v>520</v>
       </c>
-      <c r="C84" s="73" t="s">
+      <c r="C84" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="E84" s="74" t="s">
+      <c r="E84" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F84" s="75" t="s">
+      <c r="F84" s="74" t="s">
         <v>523</v>
       </c>
-      <c r="G84" s="76" t="s">
+      <c r="G84" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H84" s="10" t="str">
@@ -4710,25 +4731,25 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="72">
+      <c r="A85" s="85">
         <v>84</v>
       </c>
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="C85" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="D85" s="73" t="s">
+      <c r="D85" s="72" t="s">
         <v>527</v>
       </c>
-      <c r="E85" s="74" t="s">
+      <c r="E85" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="75" t="s">
+      <c r="F85" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="G85" s="76" t="s">
+      <c r="G85" s="75" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="10" t="str">

--- a/BD/Insumos/FORMATO_OFERTAS_OIC_V4.xlsx
+++ b/BD/Insumos/FORMATO_OFERTAS_OIC_V4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelPerez/Desktop/OIC/BD/Insumos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Trabajo_IGAC_2023\Front_Angular_Ofertas\OIC\BD\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C594C7-D6CD-F545-8A37-D5241949D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D56348-8824-4C7F-AA9D-9C38D9E6C24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="-3100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16305" yWindow="7275" windowWidth="16410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura_Datos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estructura_Datos!$A$1:$G$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estructura_Datos!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="516">
   <si>
     <t>ID</t>
   </si>
@@ -1514,27 +1514,6 @@
     <t>VAR_BD</t>
   </si>
   <si>
-    <t>Caracteristicas especial del bien inmueble</t>
-  </si>
-  <si>
-    <t>OFER_CARACTERISTICAS_ESPECIALES</t>
-  </si>
-  <si>
-    <t>Area del terreno en Hectareas si el inmueble es rural y en metros cuadrados si el inmueble es urbano de la oferta</t>
-  </si>
-  <si>
-    <t>Area construida en Metros cuadrados o Hectareas de la oferta</t>
-  </si>
-  <si>
-    <t>Area privada en metros cuadrados de la oferta</t>
-  </si>
-  <si>
-    <t>Area del terreno en Hectareas de la oferta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODIGO_HOMOLOGADO </t>
-  </si>
-  <si>
     <t>SI_VALOR_INCLUYE_ANEXIDADES</t>
   </si>
   <si>
@@ -1547,91 +1526,73 @@
     <t>VALOR_ANEXIDADES</t>
   </si>
   <si>
-    <t>CARACTERISTICAS_ESPECIALES</t>
-  </si>
-  <si>
-    <t>OFER_RAA</t>
-  </si>
-  <si>
-    <t>RAA</t>
-  </si>
-  <si>
-    <t>Registro Abierto de Avaluadores</t>
-  </si>
-  <si>
-    <t>OFER_NUMERO_IDENTIFICACION</t>
-  </si>
-  <si>
-    <t>OFER_TIPO_IDENTIFICACION</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>OFER_CATEGORIAS_RAA</t>
-  </si>
-  <si>
-    <t>Categorias a las que pertenece el Perito en el Registro Abierto de Avaluadores</t>
-  </si>
-  <si>
-    <t>CATEGORIAS_RAA</t>
-  </si>
-  <si>
-    <t>NUMERO_IDENTIFICACION</t>
-  </si>
-  <si>
-    <t>TIPO_IDENTIFICACION</t>
-  </si>
-  <si>
-    <t>Numero de identificacion de la persona</t>
-  </si>
-  <si>
-    <t>Tipo de identificacion de la persona</t>
-  </si>
-  <si>
-    <t>OFER_PIN_VALIDACION_RAA</t>
-  </si>
-  <si>
-    <t>PIN_VALIDACION_RAA</t>
-  </si>
-  <si>
-    <t>Pin de validacion RAA de la fecha de firma del avaluo</t>
-  </si>
-  <si>
-    <t>OFER_USUARIO</t>
-  </si>
-  <si>
-    <t>OFER_CONTRASENA</t>
-  </si>
-  <si>
-    <t>Contrasena de acceso a perito</t>
-  </si>
-  <si>
-    <t>OFER_NOMBRES</t>
-  </si>
-  <si>
-    <t>OFER_APELLIDOS</t>
-  </si>
-  <si>
-    <t>Apellidos  de la persona</t>
-  </si>
-  <si>
-    <t>Nombres  de la persona</t>
-  </si>
-  <si>
-    <t>USUARIO</t>
-  </si>
-  <si>
-    <t>CONTRASENA</t>
-  </si>
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDOS</t>
-  </si>
-  <si>
-    <t>Usuario de acceso a perito</t>
+    <t>id_oferta</t>
+  </si>
+  <si>
+    <t>TABLA_BD</t>
+  </si>
+  <si>
+    <t>pre_iden</t>
+  </si>
+  <si>
+    <t>pre_loca</t>
+  </si>
+  <si>
+    <t>pre_gene</t>
+  </si>
+  <si>
+    <t>pre_fisi</t>
+  </si>
+  <si>
+    <t>VALOR_CONSTRUCCION_M2</t>
+  </si>
+  <si>
+    <t>pre_econo</t>
+  </si>
+  <si>
+    <t>info_fuente</t>
+  </si>
+  <si>
+    <t>info_admin</t>
+  </si>
+  <si>
+    <t>TI_PERSONA_CAPTURA</t>
+  </si>
+  <si>
+    <t>NI_PERSONA_CAPTURA</t>
+  </si>
+  <si>
+    <t>TI_PERSONA_VERIFICA</t>
+  </si>
+  <si>
+    <t>NI_PERSONA_VERIFICA</t>
+  </si>
+  <si>
+    <t>OPCIONAL-PROPUESTO</t>
+  </si>
+  <si>
+    <t>Tipo de identificación de la persona que captura la oferta</t>
+  </si>
+  <si>
+    <t>Número de identificación de la persona que captura la oferta</t>
+  </si>
+  <si>
+    <t>Tipo de identificación de la persona que verifica la oferta</t>
+  </si>
+  <si>
+    <t>Número de identificación de la persona que verifica la oferta</t>
+  </si>
+  <si>
+    <t>ESTADO_OFERTA</t>
+  </si>
+  <si>
+    <t>OBS_VERIFICA</t>
+  </si>
+  <si>
+    <t>Contiene el texto con los comentarios de la verificación de la oferta</t>
+  </si>
+  <si>
+    <t>Contiene el estado de la oferta: 1. Enviada, 2. En revisión, 3. Revisada, 4. Aprobada</t>
   </si>
 </sst>
 </file>
@@ -1639,12 +1600,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1896,7 +1857,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1963,7 +1924,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1972,7 +1933,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1981,7 +1942,7 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2002,13 +1963,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2174,7 +2135,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Dominios"/>
@@ -2449,26 +2410,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="171.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="10"/>
+    <col min="1" max="1" width="5.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="43" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="171.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2482,16 +2444,19 @@
         <v>488</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="H1" s="70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -2500,23 +2465,26 @@
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="G2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="str">
+      <c r="I2" s="10" t="str">
         <f>MID(B2,6,30)</f>
         <v>ID</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -2529,21 +2497,24 @@
       <c r="D3" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="G3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10" t="str">
+      <c r="I3" s="10" t="str">
         <f>MID(B3,6,30)</f>
         <v>NUMERO_PREDIAL_NUEVO</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -2556,21 +2527,24 @@
       <c r="D4" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="str">
+      <c r="I4" s="10" t="str">
         <f>MID(B4,6,30)</f>
         <v>NUMERO_PREDIAL_ANTIGUO</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -2581,23 +2555,26 @@
         <v>484</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="G5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10" t="str">
-        <f t="shared" ref="H5:H68" si="0">MID(B5,6,30)</f>
+      <c r="I5" s="10" t="str">
+        <f t="shared" ref="I5:I68" si="0">MID(B5,6,30)</f>
         <v xml:space="preserve">CODIGO_HOMOLOGADO </v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -2610,21 +2587,24 @@
       <c r="D6" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="G6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="I6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DEPARTAMENTO</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -2637,21 +2617,24 @@
       <c r="D7" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="G7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="I7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MUNICIPIO</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="76">
         <v>7</v>
       </c>
@@ -2664,21 +2647,24 @@
       <c r="D8" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="G8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="I8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VEREDA</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -2691,21 +2677,24 @@
       <c r="D9" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="G9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="I9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>BARRIO</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -2718,21 +2707,24 @@
       <c r="D10" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="G10" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="I10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DIRECCION</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -2745,21 +2737,24 @@
       <c r="D11" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="G11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="I11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>LATITUD</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -2772,21 +2767,24 @@
       <c r="D12" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="G12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="I12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>LONGITUD</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="77">
         <v>12</v>
       </c>
@@ -2799,21 +2797,24 @@
       <c r="D13" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="G13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="H13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="I13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TIPO_INMUEBLE</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="77">
         <v>13</v>
       </c>
@@ -2826,21 +2827,24 @@
       <c r="D14" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="G14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="H14" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="I14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TIPO_OFERTA</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="77">
         <v>14</v>
       </c>
@@ -2853,21 +2857,24 @@
       <c r="D15" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="G15" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="H15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="I15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TIPO_PREDIO</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="77">
         <v>15</v>
       </c>
@@ -2878,23 +2885,26 @@
         <v>485</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="E16" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="G16" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="H16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="I16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>SI_VALOR_INCLUYE_ANEXIDADES</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="78">
         <v>16</v>
       </c>
@@ -2907,21 +2917,24 @@
       <c r="D17" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="G17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="H17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="I17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FECHA_CAPTURA_OFERTA</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="77">
         <v>17</v>
       </c>
@@ -2934,21 +2947,24 @@
       <c r="D18" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="G18" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="H18" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="I18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TIEMPO_OFERTA_MERCADO</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="77">
         <v>18</v>
       </c>
@@ -2961,21 +2977,24 @@
       <c r="D19" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="G19" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="H19" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="I19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PROYECTO_INMOBILIARIO</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="78">
         <v>19</v>
       </c>
@@ -2988,21 +3007,24 @@
       <c r="D20" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="G20" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="H20" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="10" t="str">
+      <c r="I20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PROYECTO_DESCRIPCION</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78">
         <v>20</v>
       </c>
@@ -3015,21 +3037,24 @@
       <c r="D21" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="G21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="H21" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="10" t="str">
+      <c r="I21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OFERTA_ORIGEN</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="79">
         <v>21</v>
       </c>
@@ -3042,21 +3067,24 @@
       <c r="D22" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F22" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="G22" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="10" t="str">
+      <c r="I22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>AREA_TERRENO</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="79">
         <v>22</v>
       </c>
@@ -3069,21 +3097,24 @@
       <c r="D23" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F23" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="G23" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="10" t="str">
+      <c r="I23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ANO_CONSTRUCCION</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="79">
         <v>23</v>
       </c>
@@ -3096,21 +3127,24 @@
       <c r="D24" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="G24" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="10" t="str">
+      <c r="I24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>AREA_CONSTRUCCION</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="79">
         <v>24</v>
       </c>
@@ -3123,21 +3157,24 @@
       <c r="D25" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F25" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="G25" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="10" t="str">
+      <c r="I25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>CONSERVACION</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="79">
         <v>25</v>
       </c>
@@ -3150,21 +3187,24 @@
       <c r="D26" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F26" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="G26" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="10" t="str">
+      <c r="I26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>AREA_PRIVADA</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="79">
         <v>26</v>
       </c>
@@ -3177,21 +3217,24 @@
       <c r="D27" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F27" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="G27" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="10" t="str">
+      <c r="I27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DESTINACION_ECONOMICA</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="79">
         <v>27</v>
       </c>
@@ -3204,21 +3247,24 @@
       <c r="D28" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F28" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="G28" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="10" t="str">
+      <c r="I28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ALTURA_EDIFICIO</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="79">
         <v>28</v>
       </c>
@@ -3231,21 +3277,24 @@
       <c r="D29" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F29" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="G29" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="10" t="str">
+      <c r="I29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NUMERO_PISO</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="79">
         <v>29</v>
       </c>
@@ -3258,21 +3307,24 @@
       <c r="D30" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F30" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="G30" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="10" t="str">
+      <c r="I30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TIPO_INMUEBLE_RURAL</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="79">
         <v>30</v>
       </c>
@@ -3285,21 +3337,24 @@
       <c r="D31" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="G31" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="10" t="str">
+      <c r="I31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TIPOLOGIA_TIPO</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="79">
         <v>31</v>
       </c>
@@ -3312,21 +3367,24 @@
       <c r="D32" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F32" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="G32" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="10" t="str">
+      <c r="I32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>AREA_CULTIVO</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="79">
         <v>32</v>
       </c>
@@ -3339,21 +3397,24 @@
       <c r="D33" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F33" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="G33" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="10" t="str">
+      <c r="I33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>EDAD_CULTIVO</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="79">
         <v>33</v>
       </c>
@@ -3366,21 +3427,24 @@
       <c r="D34" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F34" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="G34" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="10" t="str">
+      <c r="I34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TIPO_CULTIVO</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="79">
         <v>34</v>
       </c>
@@ -3393,21 +3457,24 @@
       <c r="D35" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F35" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="G35" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="10" t="str">
+      <c r="I35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>COEFICIENTE</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="79">
         <v>35</v>
       </c>
@@ -3420,21 +3487,24 @@
       <c r="D36" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F36" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="G36" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="10" t="str">
+      <c r="I36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>SERVICIOS_PUBLICOS</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="79">
         <v>36</v>
       </c>
@@ -3447,21 +3517,24 @@
       <c r="D37" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F37" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="G37" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="10" t="str">
+      <c r="I37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ESTRATO</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="79">
         <v>37</v>
       </c>
@@ -3474,21 +3547,24 @@
       <c r="D38" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F38" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="G38" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="10" t="str">
+      <c r="I38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>GARAJES</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="79">
         <v>38</v>
       </c>
@@ -3501,21 +3577,24 @@
       <c r="D39" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F39" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="G39" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="10" t="str">
+      <c r="I39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NUMERO_BANOS</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="79">
         <v>39</v>
       </c>
@@ -3528,21 +3607,24 @@
       <c r="D40" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F40" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="G40" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="10" t="str">
+      <c r="I40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NUMERO_HABITACIONES</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="79">
         <v>40</v>
       </c>
@@ -3555,21 +3637,24 @@
       <c r="D41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F41" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="G41" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="10" t="str">
+      <c r="I41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NUMERO_DEPOSITOS</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="79">
         <v>41</v>
       </c>
@@ -3582,21 +3667,24 @@
       <c r="D42" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F42" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="G42" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="10" t="str">
+      <c r="I42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>CONSTRUCCIONES_ANEXAS</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="80">
         <v>42</v>
       </c>
@@ -3607,23 +3695,26 @@
         <v>485</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="E43" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="G43" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="10" t="str">
+      <c r="I43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_OFERTA_INICIAL</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="80">
         <v>43</v>
       </c>
@@ -3636,21 +3727,24 @@
       <c r="D44" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="69" t="s">
+      <c r="G44" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="10" t="str">
+      <c r="I44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PORCENTAJE_NEGOCIACION</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="80">
         <v>44</v>
       </c>
@@ -3661,23 +3755,26 @@
         <v>485</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E45" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="10" t="str">
+      <c r="I45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_OFERTA_FINAL</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="80">
         <v>45</v>
       </c>
@@ -3690,21 +3787,24 @@
       <c r="D46" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H46" s="10" t="str">
+      <c r="I46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_TERRENO</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="80">
         <v>46</v>
       </c>
@@ -3715,23 +3815,26 @@
         <v>485</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E47" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="G47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H47" s="10" t="str">
+      <c r="I47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_CONSTRUCCION_M²</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="80">
         <v>47</v>
       </c>
@@ -3744,21 +3847,24 @@
       <c r="D48" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H48" s="10" t="str">
+      <c r="I48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_AREA_PRIVADA</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="80">
         <v>48</v>
       </c>
@@ -3771,21 +3877,24 @@
       <c r="D49" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="10" t="str">
+      <c r="I49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_CULTIVO</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="80">
         <v>49</v>
       </c>
@@ -3798,21 +3907,24 @@
       <c r="D50" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="G50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="10" t="str">
+      <c r="I50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>AVALUO_CATASTRAL</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="80">
         <v>50</v>
       </c>
@@ -3825,21 +3937,24 @@
       <c r="D51" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="10" t="str">
+      <c r="I51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_ADMINISTRACION</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="80">
         <v>51</v>
       </c>
@@ -3852,21 +3967,24 @@
       <c r="D52" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="G52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="10" t="str">
+      <c r="I52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_ARRIENDO_INICIAL</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="80">
         <v>52</v>
       </c>
@@ -3879,21 +3997,24 @@
       <c r="D53" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="10" t="str">
+      <c r="I53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_ARRIENDO_FINAL</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="80">
         <v>53</v>
       </c>
@@ -3906,21 +4027,24 @@
       <c r="D54" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="10" t="str">
+      <c r="I54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_TERRAZA_BALCON_PATIO</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="80">
         <v>54</v>
       </c>
@@ -3933,21 +4057,24 @@
       <c r="D55" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="G55" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="10" t="str">
+      <c r="I55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_GARAJES</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="80">
         <v>55</v>
       </c>
@@ -3960,21 +4087,24 @@
       <c r="D56" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="G56" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="10" t="str">
+      <c r="I56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_DEPOSITOS</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="80">
         <v>56</v>
       </c>
@@ -3985,23 +4115,26 @@
         <v>485</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E57" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="G57" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="10" t="str">
+      <c r="I57" s="10" t="str">
         <f t="shared" si="0"/>
         <v>VALOR_ANEXIDADES</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="81">
         <v>57</v>
       </c>
@@ -4014,21 +4147,24 @@
       <c r="D58" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="F58" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="G58" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="44" t="s">
+      <c r="H58" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="10" t="str">
+      <c r="I58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>MATRICULA_INMOBILIARIA</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="81">
         <v>58</v>
       </c>
@@ -4041,21 +4177,24 @@
       <c r="D59" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="F59" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="G59" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="H59" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="10" t="str">
+      <c r="I59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DERECHO_TIPO</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="81">
         <v>59</v>
       </c>
@@ -4068,21 +4207,24 @@
       <c r="D60" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="F60" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="G60" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="H60" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="10" t="str">
+      <c r="I60" s="10" t="str">
         <f t="shared" si="0"/>
         <v>CONDICION_JURIDICA</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="82">
         <v>60</v>
       </c>
@@ -4095,21 +4237,24 @@
       <c r="D61" s="56" t="s">
         <v>442</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="F61" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="G61" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="H61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="10" t="str">
+      <c r="I61" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NOMBRE_OFERENTE</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="82">
         <v>61</v>
       </c>
@@ -4122,21 +4267,24 @@
       <c r="D62" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="E62" s="60" t="s">
+      <c r="E62" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="F62" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="61" t="s">
+      <c r="G62" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="H62" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="10" t="str">
+      <c r="I62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NUMERO_CONTACTO</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="82">
         <v>62</v>
       </c>
@@ -4149,21 +4297,24 @@
       <c r="D63" s="56" t="s">
         <v>444</v>
       </c>
-      <c r="E63" s="60" t="s">
+      <c r="E63" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="F63" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="G63" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="H63" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="10" t="str">
+      <c r="I63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>URL</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="83">
         <v>63</v>
       </c>
@@ -4176,21 +4327,24 @@
       <c r="D64" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="F64" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="53" t="s">
+      <c r="G64" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="10" t="str">
+      <c r="I64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ENLACE_INTERNO_FOTO_PREDIO</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="83">
         <v>64</v>
       </c>
@@ -4203,21 +4357,24 @@
       <c r="D65" s="52" t="s">
         <v>446</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="F65" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="G65" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="10" t="str">
+      <c r="I65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ENLACE_DOCUMENTOS</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="83">
         <v>65</v>
       </c>
@@ -4230,21 +4387,24 @@
       <c r="D66" s="52" t="s">
         <v>447</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="F66" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="53" t="s">
+      <c r="G66" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="10" t="str">
+      <c r="I66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OBSERVACIONES</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="84">
         <v>66</v>
       </c>
@@ -4257,21 +4417,24 @@
       <c r="D67" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="E67" s="58" t="s">
+      <c r="E67" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="F67" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="G67" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="10" t="str">
+      <c r="I67" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PROYECTO_AREA_RESPONSABLE</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="84">
         <v>67</v>
       </c>
@@ -4284,21 +4447,24 @@
       <c r="D68" s="54" t="s">
         <v>449</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="F68" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="G68" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="10" t="str">
+      <c r="I68" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PROYECTO_PERSONA_RESPONSABLE</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="84">
         <v>68</v>
       </c>
@@ -4311,21 +4477,24 @@
       <c r="D69" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E69" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="F69" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="59" t="s">
+      <c r="G69" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="10" t="str">
-        <f t="shared" ref="H69:H86" si="1">MID(B69,6,30)</f>
+      <c r="I69" s="10" t="str">
+        <f t="shared" ref="I69:I77" si="1">MID(B69,6,30)</f>
         <v>PROYECTO_EMAIL_PERSONAL</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="84">
         <v>69</v>
       </c>
@@ -4338,21 +4507,24 @@
       <c r="D70" s="54" t="s">
         <v>451</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="E70" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="F70" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="59" t="s">
+      <c r="G70" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="10" t="str">
+      <c r="I70" s="10" t="str">
         <f t="shared" si="1"/>
         <v>REVISION_AREA_RESPONSABLE</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="84">
         <v>70</v>
       </c>
@@ -4365,404 +4537,188 @@
       <c r="D71" s="54" t="s">
         <v>452</v>
       </c>
-      <c r="E71" s="58" t="s">
+      <c r="E71" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="F71" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="59" t="s">
+      <c r="G71" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="10" t="str">
+      <c r="I71" s="10" t="str">
         <f t="shared" si="1"/>
         <v>REVISION_PERSONA_RESPONSABLE</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="85">
         <v>71</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>490</v>
-      </c>
-      <c r="C72" s="72" t="s">
-        <v>484</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C72" s="72"/>
       <c r="D72" s="72" t="s">
-        <v>500</v>
-      </c>
-      <c r="E72" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="E72" s="72" t="s">
+        <v>502</v>
+      </c>
+      <c r="F72" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="74" t="s">
-        <v>489</v>
-      </c>
-      <c r="G72" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="10" t="str">
+      <c r="G72" s="74" t="s">
+        <v>508</v>
+      </c>
+      <c r="H72" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="I72" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>CARACTERISTICAS_ESPECIALES</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>RSONA_CAPTURA</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="85">
         <v>72</v>
       </c>
       <c r="B73" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="72" t="s">
-        <v>485</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C73" s="72"/>
       <c r="D73" s="72" t="s">
-        <v>404</v>
-      </c>
-      <c r="E73" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="E73" s="72" t="s">
+        <v>502</v>
+      </c>
+      <c r="F73" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="74" t="s">
-        <v>491</v>
-      </c>
-      <c r="G73" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" s="10" t="str">
+      <c r="G73" s="74" t="s">
+        <v>509</v>
+      </c>
+      <c r="H73" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="I73" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>AREA_TERRENO</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>RSONA_CAPTURA</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="85">
         <v>73</v>
       </c>
       <c r="B74" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="72" t="s">
-        <v>485</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="C74" s="72"/>
       <c r="D74" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="E74" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="74" t="s">
-        <v>492</v>
-      </c>
-      <c r="G74" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="10" t="str">
+        <v>505</v>
+      </c>
+      <c r="E74" s="72" t="s">
+        <v>502</v>
+      </c>
+      <c r="F74" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="74" t="s">
+        <v>510</v>
+      </c>
+      <c r="H74" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="I74" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>AREA_CONSTRUCCION</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>RSONA_VERIFICA</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="85">
         <v>74</v>
       </c>
       <c r="B75" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="72" t="s">
-        <v>485</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C75" s="72"/>
       <c r="D75" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="E75" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="E75" s="72" t="s">
+        <v>502</v>
+      </c>
+      <c r="F75" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="74" t="s">
-        <v>493</v>
-      </c>
-      <c r="G75" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="10" t="str">
+      <c r="G75" s="74" t="s">
+        <v>511</v>
+      </c>
+      <c r="H75" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="I75" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>AREA_PRIVADA</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>RSONA_VERIFICA</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="85">
         <v>75</v>
       </c>
       <c r="B76" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="72" t="s">
-        <v>485</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="C76" s="72"/>
       <c r="D76" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="E76" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="E76" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="F76" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="74" t="s">
-        <v>494</v>
-      </c>
-      <c r="G76" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="10" t="str">
+      <c r="G76" s="74" t="s">
+        <v>515</v>
+      </c>
+      <c r="H76" s="75"/>
+      <c r="I76" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>AREA_CULTIVO</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>O_OFERTA</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="85">
         <v>76</v>
       </c>
       <c r="B77" s="72" t="s">
-        <v>501</v>
-      </c>
-      <c r="C77" s="72" t="s">
-        <v>487</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C77" s="72"/>
       <c r="D77" s="72" t="s">
-        <v>502</v>
-      </c>
-      <c r="E77" s="73" t="s">
+        <v>513</v>
+      </c>
+      <c r="E77" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="F77" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="G77" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="10" t="str">
+      <c r="G77" s="74" t="s">
+        <v>514</v>
+      </c>
+      <c r="H77" s="75"/>
+      <c r="I77" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>RAA</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="85">
-        <v>77</v>
-      </c>
-      <c r="B78" s="72" t="s">
-        <v>507</v>
-      </c>
-      <c r="C78" s="72" t="s">
-        <v>487</v>
-      </c>
-      <c r="D78" s="72" t="s">
-        <v>509</v>
-      </c>
-      <c r="E78" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="74" t="s">
-        <v>508</v>
-      </c>
-      <c r="G78" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CATEGORIAS_RAA</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="85">
-        <v>78</v>
-      </c>
-      <c r="B79" s="72" t="s">
-        <v>514</v>
-      </c>
-      <c r="C79" s="72" t="s">
-        <v>487</v>
-      </c>
-      <c r="D79" s="72" t="s">
-        <v>515</v>
-      </c>
-      <c r="E79" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="74" t="s">
-        <v>516</v>
-      </c>
-      <c r="G79" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>PIN_VALIDACION_RAA</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="85">
-        <v>79</v>
-      </c>
-      <c r="B80" s="72" t="s">
-        <v>517</v>
-      </c>
-      <c r="C80" s="72" t="s">
-        <v>487</v>
-      </c>
-      <c r="D80" s="72" t="s">
-        <v>524</v>
-      </c>
-      <c r="E80" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="74" t="s">
-        <v>528</v>
-      </c>
-      <c r="G80" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>USUARIO</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="85">
-        <v>80</v>
-      </c>
-      <c r="B81" s="72" t="s">
-        <v>518</v>
-      </c>
-      <c r="C81" s="72" t="s">
-        <v>487</v>
-      </c>
-      <c r="D81" s="72" t="s">
-        <v>525</v>
-      </c>
-      <c r="E81" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="74" t="s">
-        <v>519</v>
-      </c>
-      <c r="G81" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CONTRASENA</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="85">
-        <v>81</v>
-      </c>
-      <c r="B82" s="72" t="s">
-        <v>504</v>
-      </c>
-      <c r="C82" s="72" t="s">
-        <v>506</v>
-      </c>
-      <c r="D82" s="72" t="s">
-        <v>510</v>
-      </c>
-      <c r="E82" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="G82" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>NUMERO_IDENTIFICACION</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="85">
-        <v>82</v>
-      </c>
-      <c r="B83" s="72" t="s">
-        <v>505</v>
-      </c>
-      <c r="C83" s="72" t="s">
-        <v>506</v>
-      </c>
-      <c r="D83" s="72" t="s">
-        <v>511</v>
-      </c>
-      <c r="E83" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="74" t="s">
-        <v>513</v>
-      </c>
-      <c r="G83" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>TIPO_IDENTIFICACION</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="85">
-        <v>83</v>
-      </c>
-      <c r="B84" s="72" t="s">
-        <v>520</v>
-      </c>
-      <c r="C84" s="72" t="s">
-        <v>506</v>
-      </c>
-      <c r="D84" s="72" t="s">
-        <v>526</v>
-      </c>
-      <c r="E84" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="74" t="s">
-        <v>523</v>
-      </c>
-      <c r="G84" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>NOMBRES</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="72" t="s">
-        <v>521</v>
-      </c>
-      <c r="C85" s="72" t="s">
-        <v>506</v>
-      </c>
-      <c r="D85" s="72" t="s">
-        <v>527</v>
-      </c>
-      <c r="E85" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="74" t="s">
-        <v>522</v>
-      </c>
-      <c r="G85" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>APELLIDOS</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H86" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
+        <v>ERIFICA</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4777,17 +4733,17 @@
       <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="136.33203125" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="41"/>
+    <col min="6" max="16384" width="11.44140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>153</v>
       </c>
@@ -4804,7 +4760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -4821,7 +4777,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
@@ -4838,7 +4794,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -4855,7 +4811,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>129</v>
       </c>
@@ -4872,7 +4828,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>129</v>
       </c>
@@ -4889,7 +4845,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>129</v>
       </c>
@@ -4906,7 +4862,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>129</v>
       </c>
@@ -4923,7 +4879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>129</v>
       </c>
@@ -4940,7 +4896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>129</v>
       </c>
@@ -4957,7 +4913,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>129</v>
       </c>
@@ -4974,7 +4930,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>129</v>
       </c>
@@ -4991,7 +4947,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>129</v>
       </c>
@@ -5008,7 +4964,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>129</v>
       </c>
@@ -5025,7 +4981,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>129</v>
       </c>
@@ -5042,7 +4998,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>129</v>
       </c>
@@ -5059,7 +5015,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -5076,7 +5032,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -5093,7 +5049,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -5110,7 +5066,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
@@ -5127,7 +5083,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>31</v>
       </c>
@@ -5144,7 +5100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>31</v>
       </c>
@@ -5161,7 +5117,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -5178,7 +5134,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
@@ -5195,7 +5151,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -5212,7 +5168,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -5229,7 +5185,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>31</v>
       </c>
@@ -5246,7 +5202,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
@@ -5263,7 +5219,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
@@ -5280,7 +5236,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
@@ -5297,7 +5253,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
@@ -5314,7 +5270,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
@@ -5331,7 +5287,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
@@ -5348,7 +5304,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>58</v>
       </c>
@@ -5365,7 +5321,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>58</v>
       </c>
@@ -5382,7 +5338,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>58</v>
       </c>
@@ -5399,7 +5355,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>58</v>
       </c>
@@ -5416,7 +5372,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>62</v>
       </c>
@@ -5433,7 +5389,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>62</v>
       </c>
@@ -5450,7 +5406,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5467,7 +5423,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
@@ -5484,7 +5440,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>62</v>
       </c>
@@ -5501,7 +5457,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>62</v>
       </c>
@@ -5518,7 +5474,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>62</v>
       </c>
@@ -5535,7 +5491,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>62</v>
       </c>
@@ -5552,7 +5508,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>62</v>
       </c>
@@ -5569,7 +5525,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>62</v>
       </c>
@@ -5586,7 +5542,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>62</v>
       </c>
@@ -5603,7 +5559,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>62</v>
       </c>
@@ -5620,7 +5576,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>62</v>
       </c>
@@ -5637,7 +5593,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>62</v>
       </c>
@@ -5654,7 +5610,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>62</v>
       </c>
@@ -5671,7 +5627,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>62</v>
       </c>
@@ -5688,7 +5644,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>62</v>
       </c>
@@ -5705,7 +5661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>62</v>
       </c>
@@ -5722,7 +5678,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>62</v>
       </c>
@@ -5739,7 +5695,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>62</v>
       </c>
@@ -5756,7 +5712,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>62</v>
       </c>
@@ -5773,7 +5729,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>62</v>
       </c>
@@ -5790,7 +5746,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>62</v>
       </c>
@@ -5807,7 +5763,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>62</v>
       </c>
@@ -5824,7 +5780,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>62</v>
       </c>
@@ -5841,7 +5797,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>62</v>
       </c>
@@ -5858,7 +5814,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>127</v>
       </c>
@@ -5875,7 +5831,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>127</v>
       </c>
@@ -5892,7 +5848,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>127</v>
       </c>
@@ -5909,7 +5865,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>70</v>
       </c>
@@ -5926,7 +5882,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>70</v>
       </c>
@@ -5943,7 +5899,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>70</v>
       </c>
@@ -5960,7 +5916,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>70</v>
       </c>
@@ -5977,7 +5933,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>70</v>
       </c>
@@ -5994,7 +5950,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>70</v>
       </c>
@@ -6011,7 +5967,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>70</v>
       </c>
@@ -6028,7 +5984,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>70</v>
       </c>
@@ -6045,7 +6001,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>70</v>
       </c>
@@ -6062,7 +6018,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>70</v>
       </c>
@@ -6079,7 +6035,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>70</v>
       </c>
@@ -6096,7 +6052,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>70</v>
       </c>
@@ -6113,7 +6069,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>70</v>
       </c>
@@ -6130,7 +6086,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>70</v>
       </c>
@@ -6147,7 +6103,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>70</v>
       </c>
@@ -6164,7 +6120,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>70</v>
       </c>
@@ -6181,7 +6137,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>70</v>
       </c>
@@ -6198,7 +6154,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>70</v>
       </c>
@@ -6215,7 +6171,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>70</v>
       </c>
@@ -6232,7 +6188,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>70</v>
       </c>
@@ -6249,7 +6205,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>70</v>
       </c>
@@ -6266,7 +6222,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>70</v>
       </c>
@@ -6283,7 +6239,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>70</v>
       </c>
@@ -6300,7 +6256,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>70</v>
       </c>
@@ -6317,7 +6273,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>70</v>
       </c>
@@ -6334,7 +6290,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>50</v>
       </c>
@@ -6351,7 +6307,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>50</v>
       </c>
@@ -6368,7 +6324,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>50</v>
       </c>
@@ -6385,7 +6341,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>50</v>
       </c>
@@ -6402,7 +6358,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>50</v>
       </c>
@@ -6419,7 +6375,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>76</v>
       </c>
@@ -6436,7 +6392,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>76</v>
       </c>
@@ -6453,7 +6409,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>76</v>
       </c>
@@ -6470,7 +6426,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>76</v>
       </c>
@@ -6487,7 +6443,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>80</v>
       </c>
@@ -6504,7 +6460,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>80</v>
       </c>
@@ -6521,7 +6477,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
         <v>80</v>
       </c>
@@ -6538,7 +6494,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>80</v>
       </c>
@@ -6555,7 +6511,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6569,79 +6525,79 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33.6640625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="29" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.109375" style="20" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="23" style="20" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="20.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="20.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="42" style="20" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="22" style="20" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="27" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="35.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="27.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="34.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="27.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="32.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="34" style="20" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="32.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="42.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="42.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="22.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="34.1640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="24.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="34.109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="57" max="57" width="43.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="28" style="20" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="26.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="27" style="20" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="123.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="123.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="41.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="29.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="181.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="41.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="181.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="41.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="46.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="37.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="39.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="37.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="39.77734375" style="20" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="44.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="11.5" style="18"/>
+    <col min="70" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -6850,7 +6806,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="34" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -6977,7 +6933,7 @@
       <c r="BP2" s="23"/>
       <c r="BQ2" s="23"/>
     </row>
-    <row r="3" spans="1:69" s="34" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -7104,7 +7060,7 @@
       <c r="BP3" s="23"/>
       <c r="BQ3" s="23"/>
     </row>
-    <row r="4" spans="1:69" s="34" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -7253,7 +7209,7 @@
       <c r="BP4" s="23"/>
       <c r="BQ4" s="23"/>
     </row>
-    <row r="5" spans="1:69" s="34" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" s="34" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -7396,7 +7352,7 @@
       <c r="BP5" s="23"/>
       <c r="BQ5" s="23"/>
     </row>
-    <row r="6" spans="1:69" s="34" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" s="34" customFormat="1" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -7550,7 +7506,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L7" s="19"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
@@ -7564,7 +7520,7 @@
       <c r="BE7" s="23"/>
       <c r="BF7" s="23"/>
     </row>
-    <row r="8" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L8" s="19"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -7578,7 +7534,7 @@
       <c r="BE8" s="23"/>
       <c r="BF8" s="23"/>
     </row>
-    <row r="9" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L9" s="19"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -7592,7 +7548,7 @@
       <c r="BE9" s="23"/>
       <c r="BF9" s="23"/>
     </row>
-    <row r="10" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L10" s="19"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
@@ -7606,7 +7562,7 @@
       <c r="BE10" s="23"/>
       <c r="BF10" s="23"/>
     </row>
-    <row r="11" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L11" s="19"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
@@ -7620,7 +7576,7 @@
       <c r="BE11" s="23"/>
       <c r="BF11" s="23"/>
     </row>
-    <row r="12" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L12" s="19"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -7634,7 +7590,7 @@
       <c r="BE12" s="23"/>
       <c r="BF12" s="23"/>
     </row>
-    <row r="13" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L13" s="19"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
@@ -7648,7 +7604,7 @@
       <c r="BE13" s="23"/>
       <c r="BF13" s="23"/>
     </row>
-    <row r="14" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L14" s="19"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
@@ -7662,7 +7618,7 @@
       <c r="BE14" s="23"/>
       <c r="BF14" s="23"/>
     </row>
-    <row r="15" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L15" s="19"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
@@ -7676,7 +7632,7 @@
       <c r="BE15" s="23"/>
       <c r="BF15" s="23"/>
     </row>
-    <row r="16" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L16" s="19"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
@@ -7690,7 +7646,7 @@
       <c r="BE16" s="23"/>
       <c r="BF16" s="23"/>
     </row>
-    <row r="17" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L17" s="19"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
@@ -7704,7 +7660,7 @@
       <c r="BE17" s="23"/>
       <c r="BF17" s="23"/>
     </row>
-    <row r="18" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L18" s="19"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
@@ -7718,7 +7674,7 @@
       <c r="BE18" s="23"/>
       <c r="BF18" s="23"/>
     </row>
-    <row r="19" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L19" s="19"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
@@ -7732,7 +7688,7 @@
       <c r="BE19" s="23"/>
       <c r="BF19" s="23"/>
     </row>
-    <row r="20" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L20" s="19"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
@@ -7746,7 +7702,7 @@
       <c r="BE20" s="23"/>
       <c r="BF20" s="23"/>
     </row>
-    <row r="21" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L21" s="19"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
@@ -7760,7 +7716,7 @@
       <c r="BE21" s="23"/>
       <c r="BF21" s="23"/>
     </row>
-    <row r="22" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L22" s="19"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
@@ -7774,7 +7730,7 @@
       <c r="BE22" s="23"/>
       <c r="BF22" s="23"/>
     </row>
-    <row r="23" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L23" s="19"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
@@ -7788,7 +7744,7 @@
       <c r="BE23" s="23"/>
       <c r="BF23" s="23"/>
     </row>
-    <row r="24" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L24" s="19"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
@@ -7802,7 +7758,7 @@
       <c r="BE24" s="23"/>
       <c r="BF24" s="23"/>
     </row>
-    <row r="25" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L25" s="19"/>
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
@@ -7816,7 +7772,7 @@
       <c r="BE25" s="23"/>
       <c r="BF25" s="23"/>
     </row>
-    <row r="26" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L26" s="19"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
@@ -7830,7 +7786,7 @@
       <c r="BE26" s="23"/>
       <c r="BF26" s="23"/>
     </row>
-    <row r="27" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L27" s="19"/>
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
@@ -7844,7 +7800,7 @@
       <c r="BE27" s="23"/>
       <c r="BF27" s="23"/>
     </row>
-    <row r="28" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L28" s="19"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
@@ -7858,7 +7814,7 @@
       <c r="BE28" s="23"/>
       <c r="BF28" s="23"/>
     </row>
-    <row r="29" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="19"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
@@ -7872,7 +7828,7 @@
       <c r="BE29" s="23"/>
       <c r="BF29" s="23"/>
     </row>
-    <row r="30" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="19"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
@@ -7886,7 +7842,7 @@
       <c r="BE30" s="23"/>
       <c r="BF30" s="23"/>
     </row>
-    <row r="31" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L31" s="19"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
@@ -7900,7 +7856,7 @@
       <c r="BE31" s="23"/>
       <c r="BF31" s="23"/>
     </row>
-    <row r="32" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="19"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
@@ -7914,7 +7870,7 @@
       <c r="BE32" s="23"/>
       <c r="BF32" s="23"/>
     </row>
-    <row r="33" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="19"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
@@ -7928,7 +7884,7 @@
       <c r="BE33" s="23"/>
       <c r="BF33" s="23"/>
     </row>
-    <row r="34" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L34" s="19"/>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
@@ -7942,7 +7898,7 @@
       <c r="BE34" s="23"/>
       <c r="BF34" s="23"/>
     </row>
-    <row r="35" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L35" s="19"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
@@ -7956,7 +7912,7 @@
       <c r="BE35" s="23"/>
       <c r="BF35" s="23"/>
     </row>
-    <row r="36" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L36" s="19"/>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
@@ -7970,7 +7926,7 @@
       <c r="BE36" s="23"/>
       <c r="BF36" s="23"/>
     </row>
-    <row r="37" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L37" s="19"/>
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
@@ -7984,7 +7940,7 @@
       <c r="BE37" s="23"/>
       <c r="BF37" s="23"/>
     </row>
-    <row r="38" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L38" s="19"/>
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
@@ -7998,7 +7954,7 @@
       <c r="BE38" s="23"/>
       <c r="BF38" s="23"/>
     </row>
-    <row r="39" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L39" s="19"/>
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
@@ -8012,7 +7968,7 @@
       <c r="BE39" s="23"/>
       <c r="BF39" s="23"/>
     </row>
-    <row r="40" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L40" s="19"/>
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
@@ -8026,7 +7982,7 @@
       <c r="BE40" s="23"/>
       <c r="BF40" s="23"/>
     </row>
-    <row r="41" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L41" s="19"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
@@ -8040,7 +7996,7 @@
       <c r="BE41" s="23"/>
       <c r="BF41" s="23"/>
     </row>
-    <row r="42" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L42" s="19"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
@@ -8054,7 +8010,7 @@
       <c r="BE42" s="23"/>
       <c r="BF42" s="23"/>
     </row>
-    <row r="43" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L43" s="19"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
@@ -8068,7 +8024,7 @@
       <c r="BE43" s="23"/>
       <c r="BF43" s="23"/>
     </row>
-    <row r="44" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L44" s="19"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
@@ -8082,7 +8038,7 @@
       <c r="BE44" s="23"/>
       <c r="BF44" s="23"/>
     </row>
-    <row r="45" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L45" s="19"/>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
@@ -8096,7 +8052,7 @@
       <c r="BE45" s="23"/>
       <c r="BF45" s="23"/>
     </row>
-    <row r="46" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L46" s="19"/>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
@@ -8110,7 +8066,7 @@
       <c r="BE46" s="23"/>
       <c r="BF46" s="23"/>
     </row>
-    <row r="47" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L47" s="19"/>
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
@@ -8124,7 +8080,7 @@
       <c r="BE47" s="23"/>
       <c r="BF47" s="23"/>
     </row>
-    <row r="48" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L48" s="19"/>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
@@ -8138,7 +8094,7 @@
       <c r="BE48" s="23"/>
       <c r="BF48" s="23"/>
     </row>
-    <row r="49" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L49" s="19"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
@@ -8152,7 +8108,7 @@
       <c r="BE49" s="23"/>
       <c r="BF49" s="23"/>
     </row>
-    <row r="50" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L50" s="19"/>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
@@ -8166,7 +8122,7 @@
       <c r="BE50" s="23"/>
       <c r="BF50" s="23"/>
     </row>
-    <row r="51" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L51" s="19"/>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
@@ -8180,7 +8136,7 @@
       <c r="BE51" s="23"/>
       <c r="BF51" s="23"/>
     </row>
-    <row r="52" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L52" s="19"/>
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
@@ -8194,7 +8150,7 @@
       <c r="BE52" s="23"/>
       <c r="BF52" s="23"/>
     </row>
-    <row r="53" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L53" s="19"/>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
@@ -8208,7 +8164,7 @@
       <c r="BE53" s="23"/>
       <c r="BF53" s="23"/>
     </row>
-    <row r="54" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L54" s="19"/>
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
@@ -8222,7 +8178,7 @@
       <c r="BE54" s="23"/>
       <c r="BF54" s="23"/>
     </row>
-    <row r="55" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L55" s="19"/>
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
@@ -8236,7 +8192,7 @@
       <c r="BE55" s="23"/>
       <c r="BF55" s="23"/>
     </row>
-    <row r="56" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L56" s="19"/>
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
@@ -8250,7 +8206,7 @@
       <c r="BE56" s="23"/>
       <c r="BF56" s="23"/>
     </row>
-    <row r="57" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L57" s="19"/>
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
@@ -8264,7 +8220,7 @@
       <c r="BE57" s="23"/>
       <c r="BF57" s="23"/>
     </row>
-    <row r="58" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L58" s="19"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
@@ -8278,7 +8234,7 @@
       <c r="BE58" s="23"/>
       <c r="BF58" s="23"/>
     </row>
-    <row r="59" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L59" s="19"/>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
@@ -8292,7 +8248,7 @@
       <c r="BE59" s="23"/>
       <c r="BF59" s="23"/>
     </row>
-    <row r="60" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L60" s="19"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
@@ -8306,7 +8262,7 @@
       <c r="BE60" s="23"/>
       <c r="BF60" s="23"/>
     </row>
-    <row r="61" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L61" s="19"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
@@ -8320,7 +8276,7 @@
       <c r="BE61" s="23"/>
       <c r="BF61" s="23"/>
     </row>
-    <row r="62" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L62" s="19"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
@@ -8334,7 +8290,7 @@
       <c r="BE62" s="23"/>
       <c r="BF62" s="23"/>
     </row>
-    <row r="63" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L63" s="19"/>
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
@@ -8348,7 +8304,7 @@
       <c r="BE63" s="23"/>
       <c r="BF63" s="23"/>
     </row>
-    <row r="64" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L64" s="19"/>
       <c r="M64" s="23"/>
       <c r="N64" s="23"/>
@@ -8362,7 +8318,7 @@
       <c r="BE64" s="23"/>
       <c r="BF64" s="23"/>
     </row>
-    <row r="65" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L65" s="19"/>
       <c r="M65" s="23"/>
       <c r="N65" s="23"/>
@@ -8376,7 +8332,7 @@
       <c r="BE65" s="23"/>
       <c r="BF65" s="23"/>
     </row>
-    <row r="66" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L66" s="19"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
@@ -8390,7 +8346,7 @@
       <c r="BE66" s="23"/>
       <c r="BF66" s="23"/>
     </row>
-    <row r="67" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L67" s="19"/>
       <c r="M67" s="23"/>
       <c r="N67" s="23"/>
@@ -8404,7 +8360,7 @@
       <c r="BE67" s="23"/>
       <c r="BF67" s="23"/>
     </row>
-    <row r="68" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L68" s="19"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
@@ -8418,7 +8374,7 @@
       <c r="BE68" s="23"/>
       <c r="BF68" s="23"/>
     </row>
-    <row r="69" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L69" s="19"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
@@ -8432,7 +8388,7 @@
       <c r="BE69" s="23"/>
       <c r="BF69" s="23"/>
     </row>
-    <row r="70" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L70" s="19"/>
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
@@ -8446,7 +8402,7 @@
       <c r="BE70" s="23"/>
       <c r="BF70" s="23"/>
     </row>
-    <row r="71" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L71" s="19"/>
       <c r="M71" s="23"/>
       <c r="N71" s="23"/>
@@ -8460,7 +8416,7 @@
       <c r="BE71" s="23"/>
       <c r="BF71" s="23"/>
     </row>
-    <row r="72" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L72" s="19"/>
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
@@ -8474,7 +8430,7 @@
       <c r="BE72" s="23"/>
       <c r="BF72" s="23"/>
     </row>
-    <row r="73" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L73" s="19"/>
       <c r="M73" s="23"/>
       <c r="N73" s="23"/>
@@ -8488,7 +8444,7 @@
       <c r="BE73" s="23"/>
       <c r="BF73" s="23"/>
     </row>
-    <row r="74" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L74" s="19"/>
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
@@ -8502,7 +8458,7 @@
       <c r="BE74" s="23"/>
       <c r="BF74" s="23"/>
     </row>
-    <row r="75" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L75" s="19"/>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
@@ -8516,7 +8472,7 @@
       <c r="BE75" s="23"/>
       <c r="BF75" s="23"/>
     </row>
-    <row r="76" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L76" s="19"/>
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
@@ -8530,7 +8486,7 @@
       <c r="BE76" s="23"/>
       <c r="BF76" s="23"/>
     </row>
-    <row r="77" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L77" s="19"/>
       <c r="M77" s="23"/>
       <c r="N77" s="23"/>
@@ -8544,7 +8500,7 @@
       <c r="BE77" s="23"/>
       <c r="BF77" s="23"/>
     </row>
-    <row r="78" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L78" s="19"/>
       <c r="M78" s="23"/>
       <c r="N78" s="23"/>
@@ -8558,7 +8514,7 @@
       <c r="BE78" s="23"/>
       <c r="BF78" s="23"/>
     </row>
-    <row r="79" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L79" s="19"/>
       <c r="M79" s="23"/>
       <c r="N79" s="23"/>
@@ -8572,7 +8528,7 @@
       <c r="BE79" s="23"/>
       <c r="BF79" s="23"/>
     </row>
-    <row r="80" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L80" s="19"/>
       <c r="M80" s="23"/>
       <c r="N80" s="23"/>
@@ -8586,7 +8542,7 @@
       <c r="BE80" s="23"/>
       <c r="BF80" s="23"/>
     </row>
-    <row r="81" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L81" s="19"/>
       <c r="M81" s="23"/>
       <c r="N81" s="23"/>
@@ -8600,7 +8556,7 @@
       <c r="BE81" s="23"/>
       <c r="BF81" s="23"/>
     </row>
-    <row r="82" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L82" s="19"/>
       <c r="M82" s="23"/>
       <c r="N82" s="23"/>
@@ -8614,7 +8570,7 @@
       <c r="BE82" s="23"/>
       <c r="BF82" s="23"/>
     </row>
-    <row r="83" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L83" s="19"/>
       <c r="M83" s="23"/>
       <c r="N83" s="23"/>
@@ -8628,7 +8584,7 @@
       <c r="BE83" s="23"/>
       <c r="BF83" s="23"/>
     </row>
-    <row r="84" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L84" s="19"/>
       <c r="M84" s="23"/>
       <c r="N84" s="23"/>
@@ -8642,7 +8598,7 @@
       <c r="BE84" s="23"/>
       <c r="BF84" s="23"/>
     </row>
-    <row r="85" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L85" s="19"/>
       <c r="M85" s="23"/>
       <c r="N85" s="23"/>
@@ -8656,7 +8612,7 @@
       <c r="BE85" s="23"/>
       <c r="BF85" s="23"/>
     </row>
-    <row r="86" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L86" s="19"/>
       <c r="M86" s="23"/>
       <c r="N86" s="23"/>
@@ -8670,7 +8626,7 @@
       <c r="BE86" s="23"/>
       <c r="BF86" s="23"/>
     </row>
-    <row r="87" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L87" s="19"/>
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
@@ -8684,7 +8640,7 @@
       <c r="BE87" s="23"/>
       <c r="BF87" s="23"/>
     </row>
-    <row r="88" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L88" s="19"/>
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
@@ -8698,7 +8654,7 @@
       <c r="BE88" s="23"/>
       <c r="BF88" s="23"/>
     </row>
-    <row r="89" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L89" s="19"/>
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
@@ -8712,7 +8668,7 @@
       <c r="BE89" s="23"/>
       <c r="BF89" s="23"/>
     </row>
-    <row r="90" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L90" s="19"/>
       <c r="M90" s="23"/>
       <c r="N90" s="23"/>
@@ -8726,7 +8682,7 @@
       <c r="BE90" s="23"/>
       <c r="BF90" s="23"/>
     </row>
-    <row r="91" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L91" s="19"/>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
@@ -8740,7 +8696,7 @@
       <c r="BE91" s="23"/>
       <c r="BF91" s="23"/>
     </row>
-    <row r="92" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L92" s="19"/>
       <c r="M92" s="23"/>
       <c r="N92" s="23"/>
@@ -8754,7 +8710,7 @@
       <c r="BE92" s="23"/>
       <c r="BF92" s="23"/>
     </row>
-    <row r="93" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L93" s="19"/>
       <c r="M93" s="23"/>
       <c r="N93" s="23"/>
@@ -8768,7 +8724,7 @@
       <c r="BE93" s="23"/>
       <c r="BF93" s="23"/>
     </row>
-    <row r="94" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L94" s="19"/>
       <c r="M94" s="23"/>
       <c r="N94" s="23"/>
@@ -8782,7 +8738,7 @@
       <c r="BE94" s="23"/>
       <c r="BF94" s="23"/>
     </row>
-    <row r="95" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L95" s="19"/>
       <c r="M95" s="23"/>
       <c r="N95" s="23"/>
@@ -8796,7 +8752,7 @@
       <c r="BE95" s="23"/>
       <c r="BF95" s="23"/>
     </row>
-    <row r="96" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L96" s="19"/>
       <c r="M96" s="23"/>
       <c r="N96" s="23"/>
@@ -8810,7 +8766,7 @@
       <c r="BE96" s="23"/>
       <c r="BF96" s="23"/>
     </row>
-    <row r="97" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L97" s="19"/>
       <c r="M97" s="23"/>
       <c r="N97" s="23"/>
@@ -8824,7 +8780,7 @@
       <c r="BE97" s="23"/>
       <c r="BF97" s="23"/>
     </row>
-    <row r="98" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L98" s="19"/>
       <c r="M98" s="23"/>
       <c r="N98" s="23"/>
@@ -8838,7 +8794,7 @@
       <c r="BE98" s="23"/>
       <c r="BF98" s="23"/>
     </row>
-    <row r="99" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L99" s="19"/>
       <c r="M99" s="23"/>
       <c r="N99" s="23"/>
@@ -8852,7 +8808,7 @@
       <c r="BE99" s="23"/>
       <c r="BF99" s="23"/>
     </row>
-    <row r="100" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L100" s="19"/>
       <c r="M100" s="23"/>
       <c r="N100" s="23"/>
@@ -8866,7 +8822,7 @@
       <c r="BE100" s="23"/>
       <c r="BF100" s="23"/>
     </row>
-    <row r="101" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L101" s="19"/>
       <c r="M101" s="23"/>
       <c r="N101" s="23"/>
@@ -8880,7 +8836,7 @@
       <c r="BE101" s="23"/>
       <c r="BF101" s="23"/>
     </row>
-    <row r="102" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L102" s="19"/>
       <c r="M102" s="23"/>
       <c r="N102" s="23"/>
@@ -8894,7 +8850,7 @@
       <c r="BE102" s="23"/>
       <c r="BF102" s="23"/>
     </row>
-    <row r="103" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L103" s="19"/>
       <c r="M103" s="23"/>
       <c r="T103" s="23"/>
@@ -8907,7 +8863,7 @@
       <c r="BE103" s="23"/>
       <c r="BF103" s="23"/>
     </row>
-    <row r="104" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L104" s="19"/>
       <c r="M104" s="23"/>
       <c r="T104" s="23"/>
@@ -8920,7 +8876,7 @@
       <c r="BE104" s="23"/>
       <c r="BF104" s="23"/>
     </row>
-    <row r="105" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L105" s="19"/>
       <c r="M105" s="23"/>
       <c r="T105" s="23"/>
@@ -8933,7 +8889,7 @@
       <c r="BE105" s="23"/>
       <c r="BF105" s="23"/>
     </row>
-    <row r="106" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L106" s="19"/>
       <c r="M106" s="23"/>
       <c r="T106" s="23"/>
@@ -8946,7 +8902,7 @@
       <c r="BE106" s="23"/>
       <c r="BF106" s="23"/>
     </row>
-    <row r="107" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L107" s="19"/>
       <c r="M107" s="23"/>
       <c r="T107" s="23"/>
@@ -8959,7 +8915,7 @@
       <c r="BE107" s="23"/>
       <c r="BF107" s="23"/>
     </row>
-    <row r="108" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L108" s="19"/>
       <c r="M108" s="23"/>
       <c r="X108" s="23"/>
@@ -8971,7 +8927,7 @@
       <c r="BE108" s="23"/>
       <c r="BF108" s="23"/>
     </row>
-    <row r="109" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z109" s="23"/>
       <c r="AD109" s="23"/>
       <c r="AG109" s="23"/>
@@ -8980,7 +8936,7 @@
       <c r="BE109" s="23"/>
       <c r="BF109" s="23"/>
     </row>
-    <row r="110" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z110" s="23"/>
       <c r="AD110" s="23"/>
       <c r="AG110" s="23"/>
@@ -8989,7 +8945,7 @@
       <c r="BE110" s="23"/>
       <c r="BF110" s="23"/>
     </row>
-    <row r="111" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z111" s="23"/>
       <c r="AD111" s="23"/>
       <c r="AG111" s="23"/>
@@ -8998,7 +8954,7 @@
       <c r="BE111" s="23"/>
       <c r="BF111" s="23"/>
     </row>
-    <row r="112" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="12:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z112" s="23"/>
       <c r="AD112" s="23"/>
       <c r="AG112" s="23"/>
@@ -9007,7 +8963,7 @@
       <c r="BE112" s="23"/>
       <c r="BF112" s="23"/>
     </row>
-    <row r="113" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z113" s="23"/>
       <c r="AD113" s="23"/>
       <c r="AG113" s="23"/>
@@ -9016,7 +8972,7 @@
       <c r="BE113" s="23"/>
       <c r="BF113" s="23"/>
     </row>
-    <row r="114" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z114" s="23"/>
       <c r="AD114" s="23"/>
       <c r="AG114" s="23"/>
@@ -9025,7 +8981,7 @@
       <c r="BE114" s="23"/>
       <c r="BF114" s="23"/>
     </row>
-    <row r="115" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z115" s="23"/>
       <c r="AD115" s="23"/>
       <c r="AG115" s="23"/>
@@ -9034,7 +8990,7 @@
       <c r="BE115" s="23"/>
       <c r="BF115" s="23"/>
     </row>
-    <row r="116" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z116" s="23"/>
       <c r="AD116" s="23"/>
       <c r="AG116" s="23"/>
@@ -9043,7 +8999,7 @@
       <c r="BE116" s="23"/>
       <c r="BF116" s="23"/>
     </row>
-    <row r="117" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z117" s="23"/>
       <c r="AD117" s="23"/>
       <c r="AG117" s="23"/>
@@ -9052,7 +9008,7 @@
       <c r="BE117" s="23"/>
       <c r="BF117" s="23"/>
     </row>
-    <row r="118" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z118" s="23"/>
       <c r="AD118" s="23"/>
       <c r="AG118" s="23"/>
@@ -9061,7 +9017,7 @@
       <c r="BE118" s="23"/>
       <c r="BF118" s="23"/>
     </row>
-    <row r="119" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z119" s="23"/>
       <c r="AD119" s="23"/>
       <c r="AG119" s="23"/>
@@ -9070,7 +9026,7 @@
       <c r="BE119" s="23"/>
       <c r="BF119" s="23"/>
     </row>
-    <row r="120" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z120" s="23"/>
       <c r="AD120" s="23"/>
       <c r="AG120" s="23"/>
@@ -9079,7 +9035,7 @@
       <c r="BE120" s="23"/>
       <c r="BF120" s="23"/>
     </row>
-    <row r="121" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z121" s="23"/>
       <c r="AD121" s="23"/>
       <c r="AG121" s="23"/>
@@ -9088,7 +9044,7 @@
       <c r="BE121" s="23"/>
       <c r="BF121" s="23"/>
     </row>
-    <row r="122" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z122" s="23"/>
       <c r="AD122" s="23"/>
       <c r="AG122" s="23"/>
@@ -9097,7 +9053,7 @@
       <c r="BE122" s="23"/>
       <c r="BF122" s="23"/>
     </row>
-    <row r="123" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z123" s="23"/>
       <c r="AD123" s="23"/>
       <c r="AG123" s="23"/>
@@ -9106,7 +9062,7 @@
       <c r="BE123" s="23"/>
       <c r="BF123" s="23"/>
     </row>
-    <row r="124" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z124" s="23"/>
       <c r="AD124" s="23"/>
       <c r="AG124" s="23"/>
@@ -9115,7 +9071,7 @@
       <c r="BE124" s="23"/>
       <c r="BF124" s="23"/>
     </row>
-    <row r="125" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z125" s="23"/>
       <c r="AD125" s="23"/>
       <c r="AG125" s="23"/>
@@ -9124,7 +9080,7 @@
       <c r="BE125" s="23"/>
       <c r="BF125" s="23"/>
     </row>
-    <row r="126" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z126" s="23"/>
       <c r="AD126" s="23"/>
       <c r="AG126" s="23"/>
@@ -9133,7 +9089,7 @@
       <c r="BE126" s="23"/>
       <c r="BF126" s="23"/>
     </row>
-    <row r="127" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z127" s="23"/>
       <c r="AD127" s="23"/>
       <c r="AG127" s="23"/>
@@ -9142,7 +9098,7 @@
       <c r="BE127" s="23"/>
       <c r="BF127" s="23"/>
     </row>
-    <row r="128" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z128" s="23"/>
       <c r="AD128" s="23"/>
       <c r="AG128" s="23"/>
@@ -9151,7 +9107,7 @@
       <c r="BE128" s="23"/>
       <c r="BF128" s="23"/>
     </row>
-    <row r="129" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z129" s="23"/>
       <c r="AD129" s="23"/>
       <c r="AG129" s="23"/>
@@ -9160,7 +9116,7 @@
       <c r="BE129" s="23"/>
       <c r="BF129" s="23"/>
     </row>
-    <row r="130" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z130" s="23"/>
       <c r="AD130" s="23"/>
       <c r="AG130" s="23"/>
@@ -9169,7 +9125,7 @@
       <c r="BE130" s="23"/>
       <c r="BF130" s="23"/>
     </row>
-    <row r="131" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z131" s="23"/>
       <c r="AD131" s="23"/>
       <c r="AG131" s="23"/>
@@ -9178,7 +9134,7 @@
       <c r="BE131" s="23"/>
       <c r="BF131" s="23"/>
     </row>
-    <row r="132" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z132" s="23"/>
       <c r="AD132" s="23"/>
       <c r="AG132" s="23"/>
@@ -9187,7 +9143,7 @@
       <c r="BE132" s="23"/>
       <c r="BF132" s="23"/>
     </row>
-    <row r="133" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z133" s="23"/>
       <c r="AD133" s="23"/>
       <c r="AG133" s="23"/>
@@ -9196,7 +9152,7 @@
       <c r="BE133" s="23"/>
       <c r="BF133" s="23"/>
     </row>
-    <row r="134" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z134" s="23"/>
       <c r="AD134" s="23"/>
       <c r="AG134" s="23"/>
@@ -9205,7 +9161,7 @@
       <c r="BE134" s="23"/>
       <c r="BF134" s="23"/>
     </row>
-    <row r="135" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z135" s="23"/>
       <c r="AD135" s="23"/>
       <c r="AG135" s="23"/>
@@ -9214,7 +9170,7 @@
       <c r="BE135" s="23"/>
       <c r="BF135" s="23"/>
     </row>
-    <row r="136" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z136" s="23"/>
       <c r="AD136" s="23"/>
       <c r="AG136" s="23"/>
@@ -9223,7 +9179,7 @@
       <c r="BE136" s="23"/>
       <c r="BF136" s="23"/>
     </row>
-    <row r="137" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z137" s="23"/>
       <c r="AD137" s="23"/>
       <c r="AG137" s="23"/>
@@ -9232,7 +9188,7 @@
       <c r="BE137" s="23"/>
       <c r="BF137" s="23"/>
     </row>
-    <row r="138" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z138" s="23"/>
       <c r="AD138" s="23"/>
       <c r="AG138" s="23"/>
@@ -9241,7 +9197,7 @@
       <c r="BE138" s="23"/>
       <c r="BF138" s="23"/>
     </row>
-    <row r="139" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z139" s="23"/>
       <c r="AD139" s="23"/>
       <c r="AG139" s="23"/>
@@ -9250,7 +9206,7 @@
       <c r="BE139" s="23"/>
       <c r="BF139" s="23"/>
     </row>
-    <row r="140" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z140" s="23"/>
       <c r="AD140" s="23"/>
       <c r="AG140" s="23"/>
@@ -9259,7 +9215,7 @@
       <c r="BE140" s="23"/>
       <c r="BF140" s="23"/>
     </row>
-    <row r="141" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z141" s="23"/>
       <c r="AD141" s="23"/>
       <c r="AG141" s="23"/>
@@ -9268,7 +9224,7 @@
       <c r="BE141" s="23"/>
       <c r="BF141" s="23"/>
     </row>
-    <row r="142" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z142" s="23"/>
       <c r="AD142" s="23"/>
       <c r="AG142" s="23"/>
@@ -9277,7 +9233,7 @@
       <c r="BE142" s="23"/>
       <c r="BF142" s="23"/>
     </row>
-    <row r="143" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z143" s="23"/>
       <c r="AD143" s="23"/>
       <c r="AG143" s="23"/>
@@ -9286,7 +9242,7 @@
       <c r="BE143" s="23"/>
       <c r="BF143" s="23"/>
     </row>
-    <row r="144" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z144" s="23"/>
       <c r="AD144" s="23"/>
       <c r="AG144" s="23"/>
@@ -9295,7 +9251,7 @@
       <c r="BE144" s="23"/>
       <c r="BF144" s="23"/>
     </row>
-    <row r="145" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z145" s="23"/>
       <c r="AD145" s="23"/>
       <c r="AG145" s="23"/>
@@ -9304,7 +9260,7 @@
       <c r="BE145" s="23"/>
       <c r="BF145" s="23"/>
     </row>
-    <row r="146" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z146" s="23"/>
       <c r="AD146" s="23"/>
       <c r="AG146" s="23"/>
@@ -9313,7 +9269,7 @@
       <c r="BE146" s="23"/>
       <c r="BF146" s="23"/>
     </row>
-    <row r="147" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z147" s="23"/>
       <c r="AD147" s="23"/>
       <c r="AG147" s="23"/>
@@ -9322,7 +9278,7 @@
       <c r="BE147" s="23"/>
       <c r="BF147" s="23"/>
     </row>
-    <row r="148" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z148" s="23"/>
       <c r="AD148" s="23"/>
       <c r="AG148" s="23"/>
@@ -9331,7 +9287,7 @@
       <c r="BE148" s="23"/>
       <c r="BF148" s="23"/>
     </row>
-    <row r="149" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z149" s="23"/>
       <c r="AD149" s="23"/>
       <c r="AG149" s="23"/>
@@ -9340,7 +9296,7 @@
       <c r="BE149" s="23"/>
       <c r="BF149" s="23"/>
     </row>
-    <row r="150" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z150" s="23"/>
       <c r="AD150" s="23"/>
       <c r="AG150" s="23"/>
@@ -9349,7 +9305,7 @@
       <c r="BE150" s="23"/>
       <c r="BF150" s="23"/>
     </row>
-    <row r="151" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z151" s="23"/>
       <c r="AD151" s="23"/>
       <c r="AG151" s="23"/>
@@ -9358,7 +9314,7 @@
       <c r="BE151" s="23"/>
       <c r="BF151" s="23"/>
     </row>
-    <row r="152" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z152" s="23"/>
       <c r="AD152" s="23"/>
       <c r="AG152" s="23"/>
@@ -9367,7 +9323,7 @@
       <c r="BE152" s="23"/>
       <c r="BF152" s="23"/>
     </row>
-    <row r="153" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z153" s="23"/>
       <c r="AD153" s="23"/>
       <c r="AG153" s="23"/>
@@ -9376,7 +9332,7 @@
       <c r="BE153" s="23"/>
       <c r="BF153" s="23"/>
     </row>
-    <row r="154" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z154" s="23"/>
       <c r="AD154" s="23"/>
       <c r="AG154" s="23"/>
@@ -9385,7 +9341,7 @@
       <c r="BE154" s="23"/>
       <c r="BF154" s="23"/>
     </row>
-    <row r="155" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z155" s="23"/>
       <c r="AD155" s="23"/>
       <c r="AG155" s="23"/>
@@ -9394,7 +9350,7 @@
       <c r="BE155" s="23"/>
       <c r="BF155" s="23"/>
     </row>
-    <row r="156" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z156" s="23"/>
       <c r="AD156" s="23"/>
       <c r="AG156" s="23"/>
@@ -9403,7 +9359,7 @@
       <c r="BE156" s="23"/>
       <c r="BF156" s="23"/>
     </row>
-    <row r="157" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z157" s="23"/>
       <c r="AD157" s="23"/>
       <c r="AG157" s="23"/>
@@ -9412,7 +9368,7 @@
       <c r="BE157" s="23"/>
       <c r="BF157" s="23"/>
     </row>
-    <row r="158" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z158" s="23"/>
       <c r="AD158" s="23"/>
       <c r="AG158" s="23"/>
@@ -9421,7 +9377,7 @@
       <c r="BE158" s="23"/>
       <c r="BF158" s="23"/>
     </row>
-    <row r="159" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z159" s="23"/>
       <c r="AD159" s="23"/>
       <c r="AG159" s="23"/>
@@ -9430,7 +9386,7 @@
       <c r="BE159" s="23"/>
       <c r="BF159" s="23"/>
     </row>
-    <row r="160" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z160" s="23"/>
       <c r="AD160" s="23"/>
       <c r="AG160" s="23"/>
@@ -9439,7 +9395,7 @@
       <c r="BE160" s="23"/>
       <c r="BF160" s="23"/>
     </row>
-    <row r="161" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z161" s="23"/>
       <c r="AD161" s="23"/>
       <c r="AG161" s="23"/>
@@ -9448,7 +9404,7 @@
       <c r="BE161" s="23"/>
       <c r="BF161" s="23"/>
     </row>
-    <row r="162" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z162" s="23"/>
       <c r="AD162" s="23"/>
       <c r="AG162" s="23"/>
@@ -9457,7 +9413,7 @@
       <c r="BE162" s="23"/>
       <c r="BF162" s="23"/>
     </row>
-    <row r="163" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z163" s="23"/>
       <c r="AD163" s="23"/>
       <c r="AG163" s="23"/>
@@ -9466,7 +9422,7 @@
       <c r="BE163" s="23"/>
       <c r="BF163" s="23"/>
     </row>
-    <row r="164" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z164" s="23"/>
       <c r="AD164" s="23"/>
       <c r="AG164" s="23"/>
@@ -9475,7 +9431,7 @@
       <c r="BE164" s="23"/>
       <c r="BF164" s="23"/>
     </row>
-    <row r="165" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z165" s="23"/>
       <c r="AD165" s="23"/>
       <c r="AG165" s="23"/>
@@ -9484,7 +9440,7 @@
       <c r="BE165" s="23"/>
       <c r="BF165" s="23"/>
     </row>
-    <row r="166" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z166" s="23"/>
       <c r="AD166" s="23"/>
       <c r="AG166" s="23"/>
@@ -9493,7 +9449,7 @@
       <c r="BE166" s="23"/>
       <c r="BF166" s="23"/>
     </row>
-    <row r="167" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z167" s="23"/>
       <c r="AD167" s="23"/>
       <c r="AG167" s="23"/>
@@ -9502,7 +9458,7 @@
       <c r="BE167" s="23"/>
       <c r="BF167" s="23"/>
     </row>
-    <row r="168" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z168" s="23"/>
       <c r="AD168" s="23"/>
       <c r="AG168" s="23"/>
@@ -9511,7 +9467,7 @@
       <c r="BE168" s="23"/>
       <c r="BF168" s="23"/>
     </row>
-    <row r="169" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z169" s="23"/>
       <c r="AD169" s="23"/>
       <c r="AG169" s="23"/>
@@ -9520,7 +9476,7 @@
       <c r="BE169" s="23"/>
       <c r="BF169" s="23"/>
     </row>
-    <row r="170" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z170" s="23"/>
       <c r="AD170" s="23"/>
       <c r="AG170" s="23"/>
@@ -9529,7 +9485,7 @@
       <c r="BE170" s="23"/>
       <c r="BF170" s="23"/>
     </row>
-    <row r="171" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z171" s="23"/>
       <c r="AD171" s="23"/>
       <c r="AG171" s="23"/>
@@ -9538,7 +9494,7 @@
       <c r="BE171" s="23"/>
       <c r="BF171" s="23"/>
     </row>
-    <row r="172" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z172" s="23"/>
       <c r="AD172" s="23"/>
       <c r="AG172" s="23"/>
@@ -9547,7 +9503,7 @@
       <c r="BE172" s="23"/>
       <c r="BF172" s="23"/>
     </row>
-    <row r="173" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z173" s="23"/>
       <c r="AD173" s="23"/>
       <c r="AG173" s="23"/>
@@ -9556,7 +9512,7 @@
       <c r="BE173" s="23"/>
       <c r="BF173" s="23"/>
     </row>
-    <row r="174" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z174" s="23"/>
       <c r="AD174" s="23"/>
       <c r="AG174" s="23"/>
@@ -9565,7 +9521,7 @@
       <c r="BE174" s="23"/>
       <c r="BF174" s="23"/>
     </row>
-    <row r="175" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z175" s="23"/>
       <c r="AD175" s="23"/>
       <c r="AG175" s="23"/>
@@ -9574,7 +9530,7 @@
       <c r="BE175" s="23"/>
       <c r="BF175" s="23"/>
     </row>
-    <row r="176" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z176" s="23"/>
       <c r="AD176" s="23"/>
       <c r="AG176" s="23"/>
@@ -9583,7 +9539,7 @@
       <c r="BE176" s="23"/>
       <c r="BF176" s="23"/>
     </row>
-    <row r="177" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z177" s="23"/>
       <c r="AD177" s="23"/>
       <c r="AG177" s="23"/>
@@ -9592,7 +9548,7 @@
       <c r="BE177" s="23"/>
       <c r="BF177" s="23"/>
     </row>
-    <row r="178" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z178" s="23"/>
       <c r="AD178" s="23"/>
       <c r="AG178" s="23"/>
@@ -9601,7 +9557,7 @@
       <c r="BE178" s="23"/>
       <c r="BF178" s="23"/>
     </row>
-    <row r="179" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z179" s="23"/>
       <c r="AD179" s="23"/>
       <c r="AG179" s="23"/>
@@ -9610,7 +9566,7 @@
       <c r="BE179" s="23"/>
       <c r="BF179" s="23"/>
     </row>
-    <row r="180" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z180" s="23"/>
       <c r="AD180" s="23"/>
       <c r="AG180" s="23"/>
@@ -9619,7 +9575,7 @@
       <c r="BE180" s="23"/>
       <c r="BF180" s="23"/>
     </row>
-    <row r="181" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z181" s="23"/>
       <c r="AD181" s="23"/>
       <c r="AG181" s="23"/>
@@ -9628,7 +9584,7 @@
       <c r="BE181" s="23"/>
       <c r="BF181" s="23"/>
     </row>
-    <row r="182" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z182" s="23"/>
       <c r="AD182" s="23"/>
       <c r="AG182" s="23"/>
@@ -9637,7 +9593,7 @@
       <c r="BE182" s="23"/>
       <c r="BF182" s="23"/>
     </row>
-    <row r="183" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z183" s="23"/>
       <c r="AD183" s="23"/>
       <c r="AG183" s="23"/>
@@ -9646,7 +9602,7 @@
       <c r="BE183" s="23"/>
       <c r="BF183" s="23"/>
     </row>
-    <row r="184" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z184" s="23"/>
       <c r="AD184" s="23"/>
       <c r="AG184" s="23"/>
@@ -9655,7 +9611,7 @@
       <c r="BE184" s="23"/>
       <c r="BF184" s="23"/>
     </row>
-    <row r="185" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z185" s="23"/>
       <c r="AG185" s="23"/>
       <c r="AI185" s="23"/>
@@ -9663,7 +9619,7 @@
       <c r="BE185" s="23"/>
       <c r="BF185" s="23"/>
     </row>
-    <row r="186" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z186" s="23"/>
       <c r="AG186" s="23"/>
       <c r="AI186" s="23"/>
@@ -9671,1692 +9627,1692 @@
       <c r="BE186" s="23"/>
       <c r="BF186" s="23"/>
     </row>
-    <row r="187" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AG187" s="23"/>
       <c r="AI187" s="23"/>
       <c r="AQ187" s="30"/>
       <c r="BE187" s="23"/>
       <c r="BF187" s="23"/>
     </row>
-    <row r="188" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AG188" s="23"/>
       <c r="AI188" s="23"/>
       <c r="AQ188" s="30"/>
       <c r="BE188" s="23"/>
       <c r="BF188" s="23"/>
     </row>
-    <row r="189" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI189" s="23"/>
       <c r="AQ189" s="30"/>
       <c r="BE189" s="23"/>
       <c r="BF189" s="23"/>
     </row>
-    <row r="190" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI190" s="23"/>
       <c r="AQ190" s="30"/>
       <c r="BE190" s="23"/>
       <c r="BF190" s="23"/>
     </row>
-    <row r="191" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI191" s="23"/>
       <c r="AQ191" s="30"/>
       <c r="BE191" s="23"/>
       <c r="BF191" s="23"/>
     </row>
-    <row r="192" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="26:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI192" s="23"/>
       <c r="AQ192" s="30"/>
       <c r="BE192" s="23"/>
       <c r="BF192" s="23"/>
     </row>
-    <row r="193" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI193" s="23"/>
       <c r="AQ193" s="30"/>
       <c r="BE193" s="23"/>
       <c r="BF193" s="23"/>
     </row>
-    <row r="194" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI194" s="23"/>
       <c r="AQ194" s="30"/>
       <c r="BE194" s="23"/>
       <c r="BF194" s="23"/>
     </row>
-    <row r="195" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI195" s="23"/>
       <c r="AQ195" s="30"/>
       <c r="BE195" s="23"/>
       <c r="BF195" s="23"/>
     </row>
-    <row r="196" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI196" s="23"/>
       <c r="AQ196" s="30"/>
       <c r="BE196" s="23"/>
       <c r="BF196" s="23"/>
     </row>
-    <row r="197" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI197" s="23"/>
       <c r="AQ197" s="30"/>
       <c r="BE197" s="23"/>
       <c r="BF197" s="23"/>
     </row>
-    <row r="198" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI198" s="23"/>
       <c r="AQ198" s="30"/>
       <c r="BE198" s="23"/>
       <c r="BF198" s="23"/>
     </row>
-    <row r="199" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI199" s="23"/>
       <c r="AQ199" s="30"/>
       <c r="BE199" s="23"/>
       <c r="BF199" s="23"/>
     </row>
-    <row r="200" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI200" s="23"/>
       <c r="AQ200" s="30"/>
       <c r="BE200" s="23"/>
       <c r="BF200" s="23"/>
     </row>
-    <row r="201" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI201" s="23"/>
       <c r="AQ201" s="30"/>
       <c r="BE201" s="23"/>
       <c r="BF201" s="23"/>
     </row>
-    <row r="202" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI202" s="23"/>
       <c r="AQ202" s="30"/>
       <c r="BE202" s="23"/>
       <c r="BF202" s="23"/>
     </row>
-    <row r="203" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI203" s="23"/>
       <c r="AQ203" s="30"/>
       <c r="BE203" s="23"/>
       <c r="BF203" s="23"/>
     </row>
-    <row r="204" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI204" s="23"/>
       <c r="AQ204" s="30"/>
       <c r="BE204" s="23"/>
       <c r="BF204" s="23"/>
     </row>
-    <row r="205" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI205" s="23"/>
       <c r="AQ205" s="30"/>
       <c r="BE205" s="23"/>
       <c r="BF205" s="23"/>
     </row>
-    <row r="206" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI206" s="23"/>
       <c r="AQ206" s="30"/>
       <c r="BE206" s="23"/>
       <c r="BF206" s="23"/>
     </row>
-    <row r="207" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI207" s="23"/>
       <c r="AQ207" s="30"/>
       <c r="BE207" s="23"/>
       <c r="BF207" s="23"/>
     </row>
-    <row r="208" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI208" s="23"/>
       <c r="AQ208" s="30"/>
       <c r="BE208" s="23"/>
       <c r="BF208" s="23"/>
     </row>
-    <row r="209" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI209" s="23"/>
       <c r="AQ209" s="30"/>
       <c r="BE209" s="23"/>
       <c r="BF209" s="23"/>
     </row>
-    <row r="210" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI210" s="23"/>
       <c r="AQ210" s="30"/>
       <c r="BE210" s="23"/>
       <c r="BF210" s="23"/>
     </row>
-    <row r="211" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI211" s="23"/>
       <c r="AQ211" s="30"/>
       <c r="BE211" s="23"/>
       <c r="BF211" s="23"/>
     </row>
-    <row r="212" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI212" s="23"/>
       <c r="AQ212" s="30"/>
       <c r="BE212" s="23"/>
       <c r="BF212" s="23"/>
     </row>
-    <row r="213" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI213" s="23"/>
       <c r="AQ213" s="30"/>
       <c r="BE213" s="23"/>
       <c r="BF213" s="23"/>
     </row>
-    <row r="214" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI214" s="23"/>
       <c r="AQ214" s="30"/>
       <c r="BE214" s="23"/>
       <c r="BF214" s="23"/>
     </row>
-    <row r="215" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI215" s="23"/>
       <c r="AQ215" s="30"/>
       <c r="BE215" s="23"/>
       <c r="BF215" s="23"/>
     </row>
-    <row r="216" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI216" s="23"/>
       <c r="AQ216" s="30"/>
       <c r="BE216" s="23"/>
       <c r="BF216" s="23"/>
     </row>
-    <row r="217" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI217" s="23"/>
       <c r="AQ217" s="30"/>
       <c r="BE217" s="23"/>
       <c r="BF217" s="23"/>
     </row>
-    <row r="218" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI218" s="23"/>
       <c r="AQ218" s="30"/>
       <c r="BE218" s="23"/>
       <c r="BF218" s="23"/>
     </row>
-    <row r="219" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI219" s="23"/>
       <c r="AQ219" s="30"/>
       <c r="BE219" s="23"/>
       <c r="BF219" s="23"/>
     </row>
-    <row r="220" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI220" s="23"/>
       <c r="AQ220" s="30"/>
       <c r="BE220" s="23"/>
       <c r="BF220" s="23"/>
     </row>
-    <row r="221" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI221" s="23"/>
       <c r="AQ221" s="30"/>
       <c r="BE221" s="23"/>
       <c r="BF221" s="23"/>
     </row>
-    <row r="222" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI222" s="23"/>
       <c r="AQ222" s="30"/>
       <c r="BE222" s="23"/>
       <c r="BF222" s="23"/>
     </row>
-    <row r="223" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI223" s="23"/>
       <c r="AQ223" s="30"/>
       <c r="BE223" s="23"/>
       <c r="BF223" s="23"/>
     </row>
-    <row r="224" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI224" s="23"/>
       <c r="AQ224" s="30"/>
       <c r="BE224" s="23"/>
       <c r="BF224" s="23"/>
     </row>
-    <row r="225" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI225" s="23"/>
       <c r="AQ225" s="30"/>
       <c r="BE225" s="23"/>
       <c r="BF225" s="23"/>
     </row>
-    <row r="226" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI226" s="23"/>
       <c r="AQ226" s="30"/>
       <c r="BE226" s="23"/>
       <c r="BF226" s="23"/>
     </row>
-    <row r="227" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI227" s="23"/>
       <c r="AQ227" s="30"/>
       <c r="BE227" s="23"/>
       <c r="BF227" s="23"/>
     </row>
-    <row r="228" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI228" s="23"/>
       <c r="AQ228" s="30"/>
       <c r="BE228" s="23"/>
       <c r="BF228" s="23"/>
     </row>
-    <row r="229" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI229" s="23"/>
       <c r="AQ229" s="30"/>
       <c r="BE229" s="23"/>
       <c r="BF229" s="23"/>
     </row>
-    <row r="230" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI230" s="23"/>
       <c r="AQ230" s="30"/>
       <c r="BE230" s="23"/>
       <c r="BF230" s="23"/>
     </row>
-    <row r="231" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI231" s="23"/>
       <c r="AQ231" s="30"/>
       <c r="BE231" s="23"/>
       <c r="BF231" s="23"/>
     </row>
-    <row r="232" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI232" s="23"/>
       <c r="AQ232" s="30"/>
       <c r="BE232" s="23"/>
       <c r="BF232" s="23"/>
     </row>
-    <row r="233" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI233" s="23"/>
       <c r="AQ233" s="30"/>
       <c r="BE233" s="23"/>
       <c r="BF233" s="23"/>
     </row>
-    <row r="234" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI234" s="23"/>
       <c r="AQ234" s="30"/>
       <c r="BE234" s="23"/>
       <c r="BF234" s="23"/>
     </row>
-    <row r="235" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI235" s="23"/>
       <c r="AQ235" s="30"/>
       <c r="BE235" s="23"/>
       <c r="BF235" s="23"/>
     </row>
-    <row r="236" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI236" s="23"/>
       <c r="AQ236" s="30"/>
       <c r="BE236" s="23"/>
       <c r="BF236" s="23"/>
     </row>
-    <row r="237" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI237" s="23"/>
       <c r="AQ237" s="30"/>
       <c r="BE237" s="23"/>
       <c r="BF237" s="23"/>
     </row>
-    <row r="238" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI238" s="23"/>
       <c r="AQ238" s="30"/>
       <c r="BE238" s="23"/>
       <c r="BF238" s="23"/>
     </row>
-    <row r="239" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI239" s="23"/>
       <c r="AQ239" s="30"/>
       <c r="BE239" s="23"/>
       <c r="BF239" s="23"/>
     </row>
-    <row r="240" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI240" s="23"/>
       <c r="AQ240" s="30"/>
       <c r="BE240" s="23"/>
       <c r="BF240" s="23"/>
     </row>
-    <row r="241" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI241" s="23"/>
       <c r="AQ241" s="30"/>
       <c r="BE241" s="23"/>
       <c r="BF241" s="23"/>
     </row>
-    <row r="242" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI242" s="23"/>
       <c r="AQ242" s="30"/>
       <c r="BE242" s="23"/>
       <c r="BF242" s="23"/>
     </row>
-    <row r="243" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI243" s="23"/>
       <c r="AQ243" s="30"/>
       <c r="BE243" s="23"/>
       <c r="BF243" s="23"/>
     </row>
-    <row r="244" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI244" s="23"/>
       <c r="AQ244" s="30"/>
       <c r="BE244" s="23"/>
       <c r="BF244" s="23"/>
     </row>
-    <row r="245" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI245" s="23"/>
       <c r="AQ245" s="30"/>
       <c r="BE245" s="23"/>
       <c r="BF245" s="23"/>
     </row>
-    <row r="246" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI246" s="23"/>
       <c r="AQ246" s="30"/>
       <c r="BE246" s="23"/>
       <c r="BF246" s="23"/>
     </row>
-    <row r="247" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI247" s="23"/>
       <c r="AQ247" s="30"/>
       <c r="BE247" s="23"/>
       <c r="BF247" s="23"/>
     </row>
-    <row r="248" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI248" s="23"/>
       <c r="AQ248" s="30"/>
       <c r="BE248" s="23"/>
       <c r="BF248" s="23"/>
     </row>
-    <row r="249" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI249" s="23"/>
       <c r="AQ249" s="30"/>
       <c r="BE249" s="23"/>
       <c r="BF249" s="23"/>
     </row>
-    <row r="250" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI250" s="23"/>
       <c r="AQ250" s="30"/>
       <c r="BE250" s="23"/>
       <c r="BF250" s="23"/>
     </row>
-    <row r="251" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI251" s="23"/>
       <c r="AQ251" s="30"/>
       <c r="BE251" s="23"/>
       <c r="BF251" s="23"/>
     </row>
-    <row r="252" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI252" s="23"/>
       <c r="AQ252" s="30"/>
       <c r="BE252" s="23"/>
       <c r="BF252" s="23"/>
     </row>
-    <row r="253" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI253" s="23"/>
       <c r="AQ253" s="30"/>
       <c r="BE253" s="23"/>
       <c r="BF253" s="23"/>
     </row>
-    <row r="254" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI254" s="23"/>
       <c r="AQ254" s="30"/>
       <c r="BE254" s="23"/>
       <c r="BF254" s="23"/>
     </row>
-    <row r="255" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI255" s="23"/>
       <c r="AQ255" s="30"/>
       <c r="BE255" s="23"/>
       <c r="BF255" s="23"/>
     </row>
-    <row r="256" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI256" s="23"/>
       <c r="AQ256" s="30"/>
       <c r="BE256" s="23"/>
       <c r="BF256" s="23"/>
     </row>
-    <row r="257" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI257" s="23"/>
       <c r="AQ257" s="30"/>
       <c r="BE257" s="23"/>
       <c r="BF257" s="23"/>
     </row>
-    <row r="258" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI258" s="23"/>
       <c r="AQ258" s="30"/>
       <c r="BE258" s="23"/>
       <c r="BF258" s="23"/>
     </row>
-    <row r="259" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI259" s="23"/>
       <c r="AQ259" s="30"/>
       <c r="BE259" s="23"/>
       <c r="BF259" s="23"/>
     </row>
-    <row r="260" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI260" s="23"/>
       <c r="AQ260" s="30"/>
       <c r="BE260" s="23"/>
       <c r="BF260" s="23"/>
     </row>
-    <row r="261" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI261" s="23"/>
       <c r="AQ261" s="30"/>
       <c r="BE261" s="23"/>
       <c r="BF261" s="23"/>
     </row>
-    <row r="262" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI262" s="23"/>
       <c r="AQ262" s="30"/>
       <c r="BE262" s="23"/>
       <c r="BF262" s="23"/>
     </row>
-    <row r="263" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI263" s="23"/>
       <c r="AQ263" s="30"/>
       <c r="BE263" s="23"/>
       <c r="BF263" s="23"/>
     </row>
-    <row r="264" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI264" s="23"/>
       <c r="AQ264" s="30"/>
       <c r="BE264" s="23"/>
       <c r="BF264" s="23"/>
     </row>
-    <row r="265" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI265" s="23"/>
       <c r="AQ265" s="30"/>
       <c r="BE265" s="23"/>
       <c r="BF265" s="23"/>
     </row>
-    <row r="266" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI266" s="23"/>
       <c r="AQ266" s="30"/>
       <c r="BE266" s="23"/>
       <c r="BF266" s="23"/>
     </row>
-    <row r="267" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI267" s="23"/>
       <c r="AQ267" s="30"/>
       <c r="BE267" s="23"/>
       <c r="BF267" s="23"/>
     </row>
-    <row r="268" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI268" s="23"/>
       <c r="AQ268" s="30"/>
       <c r="BE268" s="23"/>
       <c r="BF268" s="23"/>
     </row>
-    <row r="269" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI269" s="23"/>
       <c r="AQ269" s="30"/>
       <c r="BE269" s="23"/>
       <c r="BF269" s="23"/>
     </row>
-    <row r="270" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI270" s="23"/>
       <c r="AQ270" s="30"/>
       <c r="BE270" s="23"/>
       <c r="BF270" s="23"/>
     </row>
-    <row r="271" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI271" s="23"/>
       <c r="AQ271" s="30"/>
       <c r="BE271" s="23"/>
       <c r="BF271" s="23"/>
     </row>
-    <row r="272" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI272" s="23"/>
       <c r="AQ272" s="30"/>
       <c r="BE272" s="23"/>
       <c r="BF272" s="23"/>
     </row>
-    <row r="273" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI273" s="23"/>
       <c r="AQ273" s="30"/>
       <c r="BE273" s="23"/>
       <c r="BF273" s="23"/>
     </row>
-    <row r="274" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI274" s="23"/>
       <c r="AQ274" s="30"/>
       <c r="BE274" s="23"/>
       <c r="BF274" s="23"/>
     </row>
-    <row r="275" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI275" s="23"/>
       <c r="AQ275" s="30"/>
       <c r="BE275" s="23"/>
       <c r="BF275" s="23"/>
     </row>
-    <row r="276" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI276" s="23"/>
       <c r="AQ276" s="30"/>
       <c r="BE276" s="23"/>
       <c r="BF276" s="23"/>
     </row>
-    <row r="277" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI277" s="23"/>
       <c r="AQ277" s="30"/>
       <c r="BE277" s="23"/>
       <c r="BF277" s="23"/>
     </row>
-    <row r="278" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI278" s="23"/>
       <c r="AQ278" s="30"/>
       <c r="BE278" s="23"/>
       <c r="BF278" s="23"/>
     </row>
-    <row r="279" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI279" s="23"/>
       <c r="AQ279" s="30"/>
       <c r="BE279" s="23"/>
       <c r="BF279" s="23"/>
     </row>
-    <row r="280" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI280" s="23"/>
       <c r="AQ280" s="30"/>
       <c r="BE280" s="23"/>
       <c r="BF280" s="23"/>
     </row>
-    <row r="281" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI281" s="23"/>
       <c r="AQ281" s="30"/>
       <c r="BE281" s="23"/>
       <c r="BF281" s="23"/>
     </row>
-    <row r="282" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI282" s="23"/>
       <c r="AQ282" s="30"/>
       <c r="BE282" s="23"/>
       <c r="BF282" s="23"/>
     </row>
-    <row r="283" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI283" s="23"/>
       <c r="AQ283" s="30"/>
       <c r="BE283" s="23"/>
       <c r="BF283" s="23"/>
     </row>
-    <row r="284" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI284" s="23"/>
       <c r="AQ284" s="30"/>
       <c r="BE284" s="23"/>
       <c r="BF284" s="23"/>
     </row>
-    <row r="285" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI285" s="23"/>
       <c r="AQ285" s="30"/>
       <c r="BE285" s="23"/>
       <c r="BF285" s="23"/>
     </row>
-    <row r="286" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI286" s="23"/>
       <c r="AQ286" s="30"/>
       <c r="BE286" s="23"/>
       <c r="BF286" s="23"/>
     </row>
-    <row r="287" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI287" s="23"/>
       <c r="AQ287" s="30"/>
       <c r="BE287" s="23"/>
       <c r="BF287" s="23"/>
     </row>
-    <row r="288" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI288" s="23"/>
       <c r="AQ288" s="30"/>
       <c r="BE288" s="23"/>
       <c r="BF288" s="23"/>
     </row>
-    <row r="289" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI289" s="23"/>
       <c r="AQ289" s="30"/>
       <c r="BE289" s="23"/>
       <c r="BF289" s="23"/>
     </row>
-    <row r="290" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI290" s="23"/>
       <c r="AQ290" s="30"/>
       <c r="BE290" s="23"/>
       <c r="BF290" s="23"/>
     </row>
-    <row r="291" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI291" s="23"/>
       <c r="AQ291" s="30"/>
       <c r="BE291" s="23"/>
       <c r="BF291" s="23"/>
     </row>
-    <row r="292" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI292" s="23"/>
       <c r="AQ292" s="30"/>
       <c r="BE292" s="23"/>
       <c r="BF292" s="23"/>
     </row>
-    <row r="293" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI293" s="23"/>
       <c r="AQ293" s="30"/>
       <c r="BE293" s="23"/>
       <c r="BF293" s="23"/>
     </row>
-    <row r="294" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI294" s="23"/>
       <c r="AQ294" s="30"/>
       <c r="BE294" s="23"/>
       <c r="BF294" s="23"/>
     </row>
-    <row r="295" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI295" s="23"/>
       <c r="AQ295" s="30"/>
       <c r="BE295" s="23"/>
       <c r="BF295" s="23"/>
     </row>
-    <row r="296" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI296" s="23"/>
       <c r="AQ296" s="30"/>
       <c r="BE296" s="23"/>
       <c r="BF296" s="23"/>
     </row>
-    <row r="297" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI297" s="23"/>
       <c r="AQ297" s="30"/>
       <c r="BE297" s="23"/>
       <c r="BF297" s="23"/>
     </row>
-    <row r="298" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI298" s="23"/>
       <c r="AQ298" s="30"/>
       <c r="BE298" s="23"/>
       <c r="BF298" s="23"/>
     </row>
-    <row r="299" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI299" s="23"/>
       <c r="AQ299" s="30"/>
       <c r="BE299" s="23"/>
       <c r="BF299" s="23"/>
     </row>
-    <row r="300" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI300" s="23"/>
       <c r="AQ300" s="30"/>
       <c r="BE300" s="23"/>
       <c r="BF300" s="23"/>
     </row>
-    <row r="301" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI301" s="23"/>
       <c r="AQ301" s="30"/>
       <c r="BE301" s="23"/>
       <c r="BF301" s="23"/>
     </row>
-    <row r="302" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI302" s="23"/>
       <c r="AQ302" s="30"/>
       <c r="BE302" s="23"/>
       <c r="BF302" s="23"/>
     </row>
-    <row r="303" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI303" s="23"/>
       <c r="AQ303" s="30"/>
       <c r="BE303" s="23"/>
       <c r="BF303" s="23"/>
     </row>
-    <row r="304" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI304" s="23"/>
       <c r="AQ304" s="30"/>
       <c r="BE304" s="23"/>
       <c r="BF304" s="23"/>
     </row>
-    <row r="305" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI305" s="23"/>
       <c r="AQ305" s="30"/>
       <c r="BE305" s="23"/>
       <c r="BF305" s="23"/>
     </row>
-    <row r="306" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI306" s="23"/>
       <c r="AQ306" s="30"/>
       <c r="BE306" s="23"/>
       <c r="BF306" s="23"/>
     </row>
-    <row r="307" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI307" s="23"/>
       <c r="AQ307" s="30"/>
       <c r="BE307" s="23"/>
       <c r="BF307" s="23"/>
     </row>
-    <row r="308" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI308" s="23"/>
       <c r="AQ308" s="30"/>
       <c r="BE308" s="23"/>
       <c r="BF308" s="23"/>
     </row>
-    <row r="309" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI309" s="23"/>
       <c r="AQ309" s="30"/>
       <c r="BE309" s="23"/>
       <c r="BF309" s="23"/>
     </row>
-    <row r="310" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI310" s="23"/>
       <c r="AQ310" s="30"/>
       <c r="BE310" s="23"/>
       <c r="BF310" s="23"/>
     </row>
-    <row r="311" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI311" s="23"/>
       <c r="AQ311" s="30"/>
       <c r="BE311" s="23"/>
       <c r="BF311" s="23"/>
     </row>
-    <row r="312" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI312" s="23"/>
       <c r="AQ312" s="30"/>
       <c r="BE312" s="23"/>
       <c r="BF312" s="23"/>
     </row>
-    <row r="313" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI313" s="23"/>
       <c r="AQ313" s="30"/>
       <c r="BE313" s="23"/>
       <c r="BF313" s="23"/>
     </row>
-    <row r="314" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI314" s="23"/>
       <c r="AQ314" s="30"/>
       <c r="BE314" s="23"/>
       <c r="BF314" s="23"/>
     </row>
-    <row r="315" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI315" s="23"/>
       <c r="AQ315" s="30"/>
       <c r="BE315" s="23"/>
       <c r="BF315" s="23"/>
     </row>
-    <row r="316" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI316" s="23"/>
       <c r="AQ316" s="30"/>
       <c r="BE316" s="23"/>
       <c r="BF316" s="23"/>
     </row>
-    <row r="317" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI317" s="23"/>
       <c r="AQ317" s="30"/>
       <c r="BE317" s="23"/>
       <c r="BF317" s="23"/>
     </row>
-    <row r="318" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI318" s="23"/>
       <c r="AQ318" s="30"/>
       <c r="BE318" s="23"/>
       <c r="BF318" s="23"/>
     </row>
-    <row r="319" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI319" s="23"/>
       <c r="AQ319" s="30"/>
       <c r="BE319" s="23"/>
       <c r="BF319" s="23"/>
     </row>
-    <row r="320" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI320" s="23"/>
       <c r="AQ320" s="30"/>
       <c r="BE320" s="23"/>
       <c r="BF320" s="23"/>
     </row>
-    <row r="321" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI321" s="23"/>
       <c r="AQ321" s="30"/>
       <c r="BE321" s="23"/>
       <c r="BF321" s="23"/>
     </row>
-    <row r="322" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI322" s="23"/>
       <c r="AQ322" s="30"/>
       <c r="BE322" s="23"/>
       <c r="BF322" s="23"/>
     </row>
-    <row r="323" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI323" s="23"/>
       <c r="AQ323" s="30"/>
       <c r="BE323" s="23"/>
       <c r="BF323" s="23"/>
     </row>
-    <row r="324" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI324" s="23"/>
       <c r="AQ324" s="30"/>
       <c r="BE324" s="23"/>
       <c r="BF324" s="23"/>
     </row>
-    <row r="325" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI325" s="23"/>
       <c r="AQ325" s="30"/>
       <c r="BE325" s="23"/>
       <c r="BF325" s="23"/>
     </row>
-    <row r="326" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI326" s="23"/>
       <c r="AQ326" s="30"/>
       <c r="BE326" s="23"/>
       <c r="BF326" s="23"/>
     </row>
-    <row r="327" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI327" s="23"/>
       <c r="AQ327" s="30"/>
       <c r="BE327" s="23"/>
       <c r="BF327" s="23"/>
     </row>
-    <row r="328" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI328" s="23"/>
       <c r="AQ328" s="30"/>
       <c r="BE328" s="23"/>
       <c r="BF328" s="23"/>
     </row>
-    <row r="329" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI329" s="23"/>
       <c r="AQ329" s="30"/>
       <c r="BE329" s="23"/>
       <c r="BF329" s="23"/>
     </row>
-    <row r="330" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI330" s="23"/>
       <c r="AQ330" s="30"/>
       <c r="BE330" s="23"/>
       <c r="BF330" s="23"/>
     </row>
-    <row r="331" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI331" s="23"/>
       <c r="AQ331" s="30"/>
       <c r="BE331" s="23"/>
       <c r="BF331" s="23"/>
     </row>
-    <row r="332" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI332" s="23"/>
       <c r="AQ332" s="30"/>
       <c r="BE332" s="23"/>
       <c r="BF332" s="23"/>
     </row>
-    <row r="333" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI333" s="23"/>
       <c r="AQ333" s="30"/>
       <c r="BE333" s="23"/>
       <c r="BF333" s="23"/>
     </row>
-    <row r="334" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI334" s="23"/>
       <c r="AQ334" s="30"/>
       <c r="BE334" s="23"/>
       <c r="BF334" s="23"/>
     </row>
-    <row r="335" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI335" s="23"/>
       <c r="AQ335" s="30"/>
       <c r="BE335" s="23"/>
       <c r="BF335" s="23"/>
     </row>
-    <row r="336" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI336" s="23"/>
       <c r="AQ336" s="30"/>
       <c r="BE336" s="23"/>
       <c r="BF336" s="23"/>
     </row>
-    <row r="337" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI337" s="23"/>
       <c r="AQ337" s="30"/>
       <c r="BE337" s="23"/>
       <c r="BF337" s="23"/>
     </row>
-    <row r="338" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI338" s="23"/>
       <c r="AQ338" s="30"/>
       <c r="BE338" s="23"/>
       <c r="BF338" s="23"/>
     </row>
-    <row r="339" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI339" s="23"/>
       <c r="AQ339" s="30"/>
       <c r="BE339" s="23"/>
       <c r="BF339" s="23"/>
     </row>
-    <row r="340" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI340" s="23"/>
       <c r="AQ340" s="30"/>
       <c r="BE340" s="23"/>
       <c r="BF340" s="23"/>
     </row>
-    <row r="341" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI341" s="23"/>
       <c r="AQ341" s="30"/>
       <c r="BE341" s="23"/>
       <c r="BF341" s="23"/>
     </row>
-    <row r="342" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI342" s="23"/>
       <c r="AQ342" s="30"/>
       <c r="BE342" s="23"/>
       <c r="BF342" s="23"/>
     </row>
-    <row r="343" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI343" s="23"/>
       <c r="AQ343" s="30"/>
       <c r="BE343" s="23"/>
       <c r="BF343" s="23"/>
     </row>
-    <row r="344" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI344" s="23"/>
       <c r="AQ344" s="30"/>
       <c r="BE344" s="23"/>
       <c r="BF344" s="23"/>
     </row>
-    <row r="345" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI345" s="23"/>
       <c r="AQ345" s="30"/>
       <c r="BE345" s="23"/>
       <c r="BF345" s="23"/>
     </row>
-    <row r="346" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI346" s="23"/>
       <c r="AQ346" s="30"/>
       <c r="BE346" s="23"/>
       <c r="BF346" s="23"/>
     </row>
-    <row r="347" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI347" s="23"/>
       <c r="AQ347" s="30"/>
       <c r="BE347" s="23"/>
       <c r="BF347" s="23"/>
     </row>
-    <row r="348" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI348" s="23"/>
       <c r="AQ348" s="30"/>
       <c r="BE348" s="23"/>
       <c r="BF348" s="23"/>
     </row>
-    <row r="349" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI349" s="23"/>
       <c r="AQ349" s="30"/>
       <c r="BE349" s="23"/>
       <c r="BF349" s="23"/>
     </row>
-    <row r="350" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI350" s="23"/>
       <c r="AQ350" s="30"/>
       <c r="BE350" s="23"/>
       <c r="BF350" s="23"/>
     </row>
-    <row r="351" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI351" s="23"/>
       <c r="AQ351" s="30"/>
       <c r="BE351" s="23"/>
       <c r="BF351" s="23"/>
     </row>
-    <row r="352" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI352" s="23"/>
       <c r="AQ352" s="30"/>
       <c r="BE352" s="23"/>
       <c r="BF352" s="23"/>
     </row>
-    <row r="353" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI353" s="23"/>
       <c r="AQ353" s="30"/>
       <c r="BE353" s="23"/>
       <c r="BF353" s="23"/>
     </row>
-    <row r="354" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI354" s="23"/>
       <c r="AQ354" s="30"/>
       <c r="BE354" s="23"/>
       <c r="BF354" s="23"/>
     </row>
-    <row r="355" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI355" s="23"/>
       <c r="AQ355" s="30"/>
       <c r="BE355" s="23"/>
       <c r="BF355" s="23"/>
     </row>
-    <row r="356" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI356" s="23"/>
       <c r="AQ356" s="30"/>
       <c r="BE356" s="23"/>
       <c r="BF356" s="23"/>
     </row>
-    <row r="357" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI357" s="23"/>
       <c r="AQ357" s="30"/>
       <c r="BE357" s="23"/>
       <c r="BF357" s="23"/>
     </row>
-    <row r="358" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI358" s="23"/>
       <c r="AQ358" s="30"/>
       <c r="BE358" s="23"/>
       <c r="BF358" s="23"/>
     </row>
-    <row r="359" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI359" s="23"/>
       <c r="AQ359" s="30"/>
       <c r="BE359" s="23"/>
       <c r="BF359" s="23"/>
     </row>
-    <row r="360" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI360" s="23"/>
       <c r="AQ360" s="30"/>
       <c r="BE360" s="23"/>
       <c r="BF360" s="23"/>
     </row>
-    <row r="361" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI361" s="23"/>
       <c r="AQ361" s="30"/>
       <c r="BE361" s="23"/>
       <c r="BF361" s="23"/>
     </row>
-    <row r="362" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI362" s="23"/>
       <c r="AQ362" s="30"/>
       <c r="BE362" s="23"/>
       <c r="BF362" s="23"/>
     </row>
-    <row r="363" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI363" s="23"/>
       <c r="AQ363" s="30"/>
       <c r="BE363" s="23"/>
       <c r="BF363" s="23"/>
     </row>
-    <row r="364" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI364" s="23"/>
       <c r="AQ364" s="30"/>
       <c r="BE364" s="23"/>
       <c r="BF364" s="23"/>
     </row>
-    <row r="365" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI365" s="23"/>
       <c r="AQ365" s="30"/>
       <c r="BE365" s="23"/>
       <c r="BF365" s="23"/>
     </row>
-    <row r="366" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI366" s="23"/>
       <c r="AQ366" s="30"/>
       <c r="BE366" s="23"/>
       <c r="BF366" s="23"/>
     </row>
-    <row r="367" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI367" s="23"/>
       <c r="AQ367" s="30"/>
       <c r="BE367" s="23"/>
       <c r="BF367" s="23"/>
     </row>
-    <row r="368" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI368" s="23"/>
       <c r="AQ368" s="30"/>
       <c r="BE368" s="23"/>
       <c r="BF368" s="23"/>
     </row>
-    <row r="369" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI369" s="23"/>
       <c r="AQ369" s="30"/>
       <c r="BE369" s="23"/>
       <c r="BF369" s="23"/>
     </row>
-    <row r="370" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI370" s="23"/>
       <c r="AQ370" s="30"/>
       <c r="BE370" s="23"/>
       <c r="BF370" s="23"/>
     </row>
-    <row r="371" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI371" s="23"/>
       <c r="AQ371" s="30"/>
       <c r="BE371" s="23"/>
       <c r="BF371" s="23"/>
     </row>
-    <row r="372" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI372" s="23"/>
       <c r="AQ372" s="30"/>
       <c r="BE372" s="23"/>
       <c r="BF372" s="23"/>
     </row>
-    <row r="373" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI373" s="23"/>
       <c r="AQ373" s="30"/>
       <c r="BE373" s="23"/>
       <c r="BF373" s="23"/>
     </row>
-    <row r="374" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI374" s="23"/>
       <c r="AQ374" s="30"/>
       <c r="BE374" s="23"/>
       <c r="BF374" s="23"/>
     </row>
-    <row r="375" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI375" s="23"/>
       <c r="AQ375" s="30"/>
       <c r="BE375" s="23"/>
       <c r="BF375" s="23"/>
     </row>
-    <row r="376" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI376" s="23"/>
       <c r="AQ376" s="30"/>
       <c r="BE376" s="23"/>
       <c r="BF376" s="23"/>
     </row>
-    <row r="377" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI377" s="23"/>
       <c r="AQ377" s="30"/>
       <c r="BE377" s="23"/>
       <c r="BF377" s="23"/>
     </row>
-    <row r="378" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI378" s="23"/>
       <c r="AQ378" s="30"/>
       <c r="BE378" s="23"/>
       <c r="BF378" s="23"/>
     </row>
-    <row r="379" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI379" s="23"/>
       <c r="AQ379" s="30"/>
       <c r="BE379" s="23"/>
       <c r="BF379" s="23"/>
     </row>
-    <row r="380" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI380" s="23"/>
       <c r="AQ380" s="30"/>
       <c r="BE380" s="23"/>
       <c r="BF380" s="23"/>
     </row>
-    <row r="381" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI381" s="23"/>
       <c r="AQ381" s="30"/>
       <c r="BE381" s="23"/>
       <c r="BF381" s="23"/>
     </row>
-    <row r="382" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI382" s="23"/>
       <c r="AQ382" s="30"/>
       <c r="BE382" s="23"/>
       <c r="BF382" s="23"/>
     </row>
-    <row r="383" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI383" s="23"/>
       <c r="AQ383" s="30"/>
       <c r="BE383" s="23"/>
       <c r="BF383" s="23"/>
     </row>
-    <row r="384" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI384" s="23"/>
       <c r="AQ384" s="30"/>
       <c r="BE384" s="23"/>
       <c r="BF384" s="23"/>
     </row>
-    <row r="385" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI385" s="23"/>
       <c r="AQ385" s="30"/>
       <c r="BE385" s="23"/>
       <c r="BF385" s="23"/>
     </row>
-    <row r="386" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI386" s="23"/>
       <c r="AQ386" s="30"/>
       <c r="BE386" s="23"/>
       <c r="BF386" s="23"/>
     </row>
-    <row r="387" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI387" s="23"/>
       <c r="AQ387" s="30"/>
       <c r="BE387" s="23"/>
       <c r="BF387" s="23"/>
     </row>
-    <row r="388" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI388" s="23"/>
       <c r="AQ388" s="30"/>
       <c r="BE388" s="23"/>
       <c r="BF388" s="23"/>
     </row>
-    <row r="389" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI389" s="23"/>
       <c r="AQ389" s="30"/>
       <c r="BE389" s="23"/>
       <c r="BF389" s="23"/>
     </row>
-    <row r="390" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI390" s="23"/>
       <c r="AQ390" s="30"/>
       <c r="BE390" s="23"/>
       <c r="BF390" s="23"/>
     </row>
-    <row r="391" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI391" s="23"/>
       <c r="AQ391" s="30"/>
       <c r="BE391" s="23"/>
       <c r="BF391" s="23"/>
     </row>
-    <row r="392" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI392" s="23"/>
       <c r="AQ392" s="30"/>
       <c r="BE392" s="23"/>
       <c r="BF392" s="23"/>
     </row>
-    <row r="393" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI393" s="23"/>
       <c r="AQ393" s="30"/>
       <c r="BE393" s="23"/>
       <c r="BF393" s="23"/>
     </row>
-    <row r="394" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI394" s="23"/>
       <c r="AQ394" s="30"/>
       <c r="BE394" s="23"/>
       <c r="BF394" s="23"/>
     </row>
-    <row r="395" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI395" s="23"/>
       <c r="AQ395" s="30"/>
       <c r="BE395" s="23"/>
       <c r="BF395" s="23"/>
     </row>
-    <row r="396" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI396" s="23"/>
       <c r="AQ396" s="30"/>
       <c r="BE396" s="23"/>
       <c r="BF396" s="23"/>
     </row>
-    <row r="397" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI397" s="23"/>
       <c r="AQ397" s="30"/>
       <c r="BE397" s="23"/>
       <c r="BF397" s="23"/>
     </row>
-    <row r="398" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI398" s="23"/>
       <c r="AQ398" s="30"/>
       <c r="BE398" s="23"/>
       <c r="BF398" s="23"/>
     </row>
-    <row r="399" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI399" s="23"/>
       <c r="AQ399" s="30"/>
       <c r="BE399" s="23"/>
       <c r="BF399" s="23"/>
     </row>
-    <row r="400" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI400" s="23"/>
       <c r="AQ400" s="30"/>
       <c r="BE400" s="23"/>
       <c r="BF400" s="23"/>
     </row>
-    <row r="401" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI401" s="23"/>
       <c r="AQ401" s="30"/>
       <c r="BE401" s="23"/>
       <c r="BF401" s="23"/>
     </row>
-    <row r="402" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI402" s="23"/>
       <c r="AQ402" s="30"/>
       <c r="BE402" s="23"/>
       <c r="BF402" s="23"/>
     </row>
-    <row r="403" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI403" s="23"/>
       <c r="AQ403" s="30"/>
       <c r="BE403" s="23"/>
       <c r="BF403" s="23"/>
     </row>
-    <row r="404" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI404" s="23"/>
       <c r="AQ404" s="30"/>
       <c r="BE404" s="23"/>
       <c r="BF404" s="23"/>
     </row>
-    <row r="405" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI405" s="23"/>
       <c r="AQ405" s="30"/>
       <c r="BE405" s="23"/>
       <c r="BF405" s="23"/>
     </row>
-    <row r="406" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI406" s="23"/>
       <c r="AQ406" s="30"/>
       <c r="BE406" s="23"/>
       <c r="BF406" s="23"/>
     </row>
-    <row r="407" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI407" s="23"/>
       <c r="AQ407" s="30"/>
       <c r="BE407" s="23"/>
       <c r="BF407" s="23"/>
     </row>
-    <row r="408" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI408" s="23"/>
       <c r="AQ408" s="30"/>
       <c r="BE408" s="23"/>
       <c r="BF408" s="23"/>
     </row>
-    <row r="409" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI409" s="23"/>
       <c r="AQ409" s="30"/>
       <c r="BE409" s="23"/>
       <c r="BF409" s="23"/>
     </row>
-    <row r="410" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI410" s="23"/>
       <c r="AQ410" s="30"/>
       <c r="BE410" s="23"/>
       <c r="BF410" s="23"/>
     </row>
-    <row r="411" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI411" s="23"/>
       <c r="AQ411" s="30"/>
       <c r="BE411" s="23"/>
       <c r="BF411" s="23"/>
     </row>
-    <row r="412" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI412" s="23"/>
       <c r="AQ412" s="30"/>
       <c r="BE412" s="23"/>
       <c r="BF412" s="23"/>
     </row>
-    <row r="413" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI413" s="23"/>
       <c r="AQ413" s="30"/>
       <c r="BE413" s="23"/>
       <c r="BF413" s="23"/>
     </row>
-    <row r="414" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI414" s="23"/>
       <c r="AQ414" s="30"/>
       <c r="BE414" s="23"/>
       <c r="BF414" s="23"/>
     </row>
-    <row r="415" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI415" s="23"/>
       <c r="AQ415" s="30"/>
       <c r="BE415" s="23"/>
       <c r="BF415" s="23"/>
     </row>
-    <row r="416" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI416" s="23"/>
       <c r="AQ416" s="30"/>
       <c r="BE416" s="23"/>
       <c r="BF416" s="23"/>
     </row>
-    <row r="417" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI417" s="23"/>
       <c r="AQ417" s="30"/>
       <c r="BE417" s="23"/>
       <c r="BF417" s="23"/>
     </row>
-    <row r="418" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI418" s="23"/>
       <c r="AQ418" s="30"/>
       <c r="BE418" s="23"/>
       <c r="BF418" s="23"/>
     </row>
-    <row r="419" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI419" s="23"/>
       <c r="AQ419" s="30"/>
       <c r="BE419" s="23"/>
       <c r="BF419" s="23"/>
     </row>
-    <row r="420" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI420" s="23"/>
       <c r="AQ420" s="30"/>
       <c r="BE420" s="23"/>
       <c r="BF420" s="23"/>
     </row>
-    <row r="421" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI421" s="23"/>
       <c r="AQ421" s="30"/>
       <c r="BE421" s="23"/>
       <c r="BF421" s="23"/>
     </row>
-    <row r="422" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI422" s="23"/>
       <c r="AQ422" s="30"/>
       <c r="BE422" s="23"/>
       <c r="BF422" s="23"/>
     </row>
-    <row r="423" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI423" s="23"/>
       <c r="AQ423" s="30"/>
       <c r="BE423" s="23"/>
       <c r="BF423" s="23"/>
     </row>
-    <row r="424" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI424" s="23"/>
       <c r="AQ424" s="30"/>
       <c r="BE424" s="23"/>
       <c r="BF424" s="23"/>
     </row>
-    <row r="425" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI425" s="23"/>
       <c r="AQ425" s="30"/>
       <c r="BE425" s="23"/>
       <c r="BF425" s="23"/>
     </row>
-    <row r="426" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI426" s="23"/>
       <c r="AQ426" s="30"/>
       <c r="BE426" s="23"/>
       <c r="BF426" s="23"/>
     </row>
-    <row r="427" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI427" s="23"/>
       <c r="AQ427" s="30"/>
       <c r="BE427" s="23"/>
       <c r="BF427" s="23"/>
     </row>
-    <row r="428" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI428" s="23"/>
       <c r="AQ428" s="30"/>
       <c r="BE428" s="23"/>
       <c r="BF428" s="23"/>
     </row>
-    <row r="429" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI429" s="23"/>
       <c r="AQ429" s="30"/>
       <c r="BE429" s="23"/>
       <c r="BF429" s="23"/>
     </row>
-    <row r="430" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI430" s="23"/>
       <c r="AQ430" s="30"/>
       <c r="BE430" s="23"/>
       <c r="BF430" s="23"/>
     </row>
-    <row r="431" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI431" s="23"/>
       <c r="AQ431" s="30"/>
       <c r="BE431" s="23"/>
       <c r="BF431" s="23"/>
     </row>
-    <row r="432" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI432" s="23"/>
       <c r="AQ432" s="30"/>
       <c r="BE432" s="23"/>
       <c r="BF432" s="23"/>
     </row>
-    <row r="433" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI433" s="23"/>
       <c r="AQ433" s="30"/>
       <c r="BE433" s="23"/>
       <c r="BF433" s="23"/>
     </row>
-    <row r="434" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI434" s="23"/>
       <c r="AQ434" s="30"/>
       <c r="BE434" s="23"/>
       <c r="BF434" s="23"/>
     </row>
-    <row r="435" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI435" s="23"/>
       <c r="BE435" s="23"/>
       <c r="BF435" s="23"/>
     </row>
-    <row r="436" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI436" s="23"/>
       <c r="BE436" s="23"/>
       <c r="BF436" s="23"/>
     </row>
-    <row r="437" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI437" s="23"/>
       <c r="BE437" s="23"/>
       <c r="BF437" s="23"/>
     </row>
-    <row r="438" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI438" s="23"/>
       <c r="BE438" s="23"/>
       <c r="BF438" s="23"/>
     </row>
-    <row r="439" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI439" s="23"/>
       <c r="BE439" s="23"/>
       <c r="BF439" s="23"/>
     </row>
-    <row r="440" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI440" s="23"/>
       <c r="BE440" s="23"/>
       <c r="BF440" s="23"/>
     </row>
-    <row r="441" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI441" s="23"/>
       <c r="BE441" s="23"/>
       <c r="BF441" s="23"/>
     </row>
-    <row r="442" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI442" s="23"/>
       <c r="BE442" s="23"/>
       <c r="BF442" s="23"/>
     </row>
-    <row r="443" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI443" s="23"/>
       <c r="BE443" s="23"/>
       <c r="BF443" s="23"/>
     </row>
-    <row r="444" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI444" s="23"/>
       <c r="BE444" s="23"/>
       <c r="BF444" s="23"/>
     </row>
-    <row r="445" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI445" s="23"/>
       <c r="BE445" s="23"/>
       <c r="BF445" s="23"/>
     </row>
-    <row r="446" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI446" s="23"/>
       <c r="BE446" s="23"/>
       <c r="BF446" s="23"/>
     </row>
-    <row r="447" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI447" s="23"/>
       <c r="BE447" s="23"/>
       <c r="BF447" s="23"/>
     </row>
-    <row r="448" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI448" s="23"/>
       <c r="BE448" s="23"/>
       <c r="BF448" s="23"/>
     </row>
-    <row r="449" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI449" s="23"/>
       <c r="BE449" s="23"/>
       <c r="BF449" s="23"/>
     </row>
-    <row r="450" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI450" s="23"/>
       <c r="BE450" s="23"/>
       <c r="BF450" s="23"/>
     </row>
-    <row r="451" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI451" s="23"/>
       <c r="BE451" s="23"/>
       <c r="BF451" s="23"/>
     </row>
-    <row r="452" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI452" s="23"/>
       <c r="BE452" s="23"/>
       <c r="BF452" s="23"/>
     </row>
-    <row r="453" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI453" s="23"/>
       <c r="BE453" s="23"/>
       <c r="BF453" s="23"/>
     </row>
-    <row r="454" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI454" s="23"/>
       <c r="BE454" s="23"/>
       <c r="BF454" s="23"/>
     </row>
-    <row r="455" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI455" s="23"/>
       <c r="BE455" s="23"/>
       <c r="BF455" s="23"/>
     </row>
-    <row r="456" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI456" s="23"/>
       <c r="BE456" s="23"/>
       <c r="BF456" s="23"/>
     </row>
-    <row r="457" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI457" s="23"/>
       <c r="BE457" s="23"/>
       <c r="BF457" s="23"/>
     </row>
-    <row r="458" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI458" s="23"/>
       <c r="BE458" s="23"/>
       <c r="BF458" s="23"/>
     </row>
-    <row r="459" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI459" s="23"/>
       <c r="BE459" s="23"/>
       <c r="BF459" s="23"/>
     </row>
-    <row r="460" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI460" s="23"/>
       <c r="BE460" s="23"/>
       <c r="BF460" s="23"/>
     </row>
-    <row r="461" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI461" s="23"/>
       <c r="BE461" s="23"/>
       <c r="BF461" s="23"/>
     </row>
-    <row r="462" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI462" s="23"/>
       <c r="BE462" s="23"/>
       <c r="BF462" s="23"/>
     </row>
-    <row r="463" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI463" s="23"/>
       <c r="BE463" s="23"/>
       <c r="BF463" s="23"/>
     </row>
-    <row r="464" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI464" s="23"/>
       <c r="BE464" s="23"/>
       <c r="BF464" s="23"/>
     </row>
-    <row r="465" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI465" s="23"/>
       <c r="BE465" s="23"/>
       <c r="BF465" s="23"/>
     </row>
-    <row r="466" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI466" s="23"/>
       <c r="BE466" s="23"/>
       <c r="BF466" s="23"/>
     </row>
-    <row r="467" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI467" s="23"/>
       <c r="BE467" s="23"/>
       <c r="BF467" s="23"/>
     </row>
-    <row r="468" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI468" s="23"/>
       <c r="BE468" s="23"/>
       <c r="BF468" s="23"/>
     </row>
-    <row r="469" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI469" s="23"/>
       <c r="BE469" s="23"/>
       <c r="BF469" s="23"/>
     </row>
-    <row r="470" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI470" s="23"/>
       <c r="BE470" s="23"/>
     </row>
-    <row r="471" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI471" s="23"/>
       <c r="BE471" s="23"/>
     </row>
-    <row r="472" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI472" s="23"/>
       <c r="BE472" s="23"/>
     </row>
-    <row r="473" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI473" s="23"/>
       <c r="BE473" s="23"/>
     </row>
-    <row r="474" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI474" s="23"/>
       <c r="BE474" s="23"/>
     </row>
-    <row r="475" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="35:58" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI475" s="23"/>
     </row>
   </sheetData>
@@ -11371,19 +11327,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>'/Users/SamuelPerez/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
+            <xm:f>'\Users\SamuelPerez\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>BF470:BF742 N103:N742 M109:M742 X109:X742 Z187:Z742 BE475:BE742 AD185:AD742</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>'/Users/SamuelPerez/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
+            <xm:f>'\Users\SamuelPerez\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>T709:T1219</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{00000000-0002-0000-0200-000007000000}">
           <x14:formula1>
-            <xm:f>'/Users/SamuelPerez/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
+            <xm:f>'\Users\SamuelPerez\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\daniel.matiz\Downloads\[FORMATO_OFERTAS_OIC_V3.xlsx]Dominios'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L109:L742</xm:sqref>
         </x14:dataValidation>
